--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="262">
   <si>
     <t>利润增速（2019同比2018）</t>
     <rPh sb="0" eb="1">
@@ -684,17 +684,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进口</t>
-  </si>
-  <si>
-    <t>采购量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要原材料购进价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出厂价格</t>
     <rPh sb="0" eb="1">
       <t>chu chang jia ge</t>
@@ -1641,12 +1630,172 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>新出口订单指数，位于临界点之上，表明制造业出口改善</t>
+    <rPh sb="5" eb="6">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei yu lin jie dian zhi shang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhi zao ye</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chu kou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gai shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口指数，较上月增加，表明制造业进口改善</t>
+    <rPh sb="2" eb="3">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi zao ye</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gai shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要原材料购进价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要原材料购进价格指数，位于临界点上，表明制造业需求增加</t>
+    <rPh sb="9" eb="10">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei yu lin jie dian shang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi zao ye</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xu qiu zeng jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂价格指数，较上月增加，表明制造业需求改善</t>
+    <rPh sb="4" eb="5">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xu qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产成品库存指数，较上个月减少，表明制造业需求增加</t>
+    <rPh sb="5" eb="6">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao shang ge yue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian shao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi zao ye</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xu qiu zeng jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手订单指数，较上个月增加，根据新订单指数来判断</t>
+    <rPh sb="4" eb="5">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao shang ge yue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin ding dan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>lai pan duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购量指数，较上月增加，表明制造业需求改善</t>
+    <rPh sb="3" eb="4">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao shang yue zeng jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi zao ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xu qiu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gai shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1693,6 +1842,20 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="产成品库存"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="在手订单"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1738,7 +1901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1752,21 +1915,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2046,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2065,20 +2230,20 @@
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
@@ -2120,7 +2285,7 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3">
         <v>46179</v>
@@ -2157,12 +2322,12 @@
       </c>
       <c r="M3"/>
       <c r="N3" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -2201,7 +2366,7 @@
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <v>8.4000000000000005E-2</v>
@@ -2282,7 +2447,7 @@
     <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -2446,26 +2611,26 @@
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2486,30 +2651,30 @@
       <c r="L13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="11" t="s">
         <v>115</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2530,30 +2695,30 @@
       <c r="L14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="11" t="s">
         <v>116</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -2574,30 +2739,30 @@
       <c r="L15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="11" t="s">
         <v>117</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2618,30 +2783,30 @@
       <c r="L16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="11" t="s">
         <v>118</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2662,339 +2827,360 @@
       <c r="L17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="11" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="K18" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="L18" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="M18" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="N18" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="I19" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="J19" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="K19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="L19" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="M19" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="N19" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="I20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="K20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="L20" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="M20" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>168</v>
+      <c r="N20" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="I21" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="M21" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>180</v>
+      <c r="N21" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="I22" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="K22" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="L22" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="M22" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="N22" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="I23" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="K23" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="L23" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="M23" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>204</v>
+      <c r="N23" s="18" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="I24" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="K24" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="M24" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>216</v>
+      <c r="N24" s="19" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="I25" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="J25" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="K25" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="L25" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="M25" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -3041,7 +3227,7 @@
     <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -3117,6 +3303,9 @@
       <c r="L29">
         <v>51.8</v>
       </c>
+      <c r="M29">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
@@ -3161,7 +3350,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -3282,7 +3471,7 @@
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
@@ -3323,7 +3512,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B36">
         <v>1.7</v>
@@ -3361,7 +3550,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B37">
         <v>0.1</v>
@@ -3402,7 +3591,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -3443,7 +3632,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B40">
         <v>4.9000000000000004</v>
@@ -3481,7 +3670,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C41">
         <v>5.3</v>
@@ -3516,7 +3705,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C42">
         <v>6.1</v>
@@ -3551,7 +3740,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C43">
         <v>8.1999999999999993</v>
@@ -3587,7 +3776,7 @@
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -3628,7 +3817,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J46">
         <v>4.2</v>
@@ -3645,7 +3834,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J47">
         <v>4.8499999999999996</v>
@@ -3665,7 +3854,7 @@
     </row>
     <row r="49" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -3706,7 +3895,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -3743,7 +3932,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
+      <c r="A51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="281">
   <si>
     <t>利润增速（2019同比2018）</t>
     <rPh sb="0" eb="1">
@@ -155,10 +155,6 @@
     <rPh sb="5" eb="6">
       <t>chen guang wen ju</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机、通信和其他电子设备制造业（2019）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -313,10 +309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PMI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PMI（2018）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1787,6 +1779,132 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>gai shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月利润增速</t>
+    <rPh sb="0" eb="1">
+      <t>dang yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li run</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeng su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增速</t>
+    <rPh sb="0" eb="1">
+      <t>zeng su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力、热力生产和供应业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月涨幅（长江电力，深圳燃气，上海电力）</t>
+    <rPh sb="5" eb="6">
+      <t>chang jiang dian li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shen zhen ran qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang hai dian li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力、热力生产和供应业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气机械和器材制造业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月涨幅（金风科技）</t>
+    <rPh sb="5" eb="6">
+      <t>jin feng ke ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气机械和器材制造业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油、煤炭及其他燃料加工业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油、煤炭及其他燃料加工业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月涨幅（上海石化）</t>
+    <rPh sb="5" eb="6">
+      <t>shang hai shi hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭开采和洗选业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭开采和洗选业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月涨幅（陕西煤业）</t>
+    <rPh sb="5" eb="6">
+      <t>shan xi mei ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油和天然气开采业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油和天然气开采业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月涨幅（中国石化）</t>
+    <rPh sb="5" eb="6">
+      <t>zhong guo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织业（2019）</t>
+    <rPh sb="0" eb="1">
+      <t>fang zhi ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织业（2019）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月涨幅（海澜之家）</t>
+    <rPh sb="5" eb="6">
+      <t>hai lan zhi jia</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2209,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2228,10 +2346,10 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2247,45 +2365,45 @@
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3">
         <v>46179</v>
@@ -2322,12 +2440,12 @@
       </c>
       <c r="M3"/>
       <c r="N3" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -2366,7 +2484,7 @@
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>8.4000000000000005E-2</v>
@@ -2405,7 +2523,7 @@
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -2447,48 +2565,48 @@
     <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>51.3</v>
@@ -2529,7 +2647,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>49.5</v>
@@ -2570,7 +2688,7 @@
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10">
         <v>0.1</v>
@@ -2611,581 +2729,581 @@
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="J18" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="K18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="L18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="M18" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="N18" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="J19" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="L19" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="M19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="N19" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="M20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="N20" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="I21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="J21" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="K21" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="L21" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="M21" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="N21" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="J22" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="K22" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="L22" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="M22" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="N22" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="I23" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="J23" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="M23" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="N23" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="J24" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="L24" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="M24" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>213</v>
-      </c>
       <c r="N24" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="J25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="K25" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="L25" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="M25" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>1</v>
@@ -3227,48 +3345,48 @@
     <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>50</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>52</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>54</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>55</v>
-      </c>
-      <c r="L28" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>48.3</v>
@@ -3309,7 +3427,7 @@
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="10">
         <v>-1.4</v>
@@ -3350,48 +3468,48 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>48</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>50</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>51</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>52</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>53</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>54</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>55</v>
-      </c>
-      <c r="L31" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>53.6</v>
@@ -3429,7 +3547,7 @@
     </row>
     <row r="33" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="10">
         <v>-0.3</v>
@@ -3471,48 +3589,48 @@
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>49</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>50</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>51</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>52</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>53</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>54</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>55</v>
-      </c>
-      <c r="L35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B36">
         <v>1.7</v>
@@ -3550,7 +3668,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B37">
         <v>0.1</v>
@@ -3591,48 +3709,48 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>47</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>49</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>50</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>51</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>52</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>53</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>54</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>55</v>
-      </c>
-      <c r="L39" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B40">
         <v>4.9000000000000004</v>
@@ -3670,7 +3788,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C41">
         <v>5.3</v>
@@ -3705,7 +3823,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C42">
         <v>6.1</v>
@@ -3740,7 +3858,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C43">
         <v>8.1999999999999993</v>
@@ -3776,48 +3894,48 @@
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>48</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>49</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>50</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>51</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>52</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>54</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>55</v>
-      </c>
-      <c r="L45" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J46">
         <v>4.2</v>
@@ -3834,7 +3952,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J47">
         <v>4.8499999999999996</v>
@@ -3854,48 +3972,48 @@
     </row>
     <row r="49" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>48</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>49</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>50</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>52</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>53</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>54</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M49" t="s">
         <v>55</v>
-      </c>
-      <c r="L49" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -3932,46 +4050,48 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <v>-21.6</v>
-      </c>
-      <c r="D52">
-        <v>-7</v>
-      </c>
-      <c r="E52">
-        <v>-15.3</v>
-      </c>
-      <c r="F52">
-        <v>-13</v>
-      </c>
-      <c r="G52">
-        <v>-7.9</v>
-      </c>
-      <c r="H52" s="2">
-        <v>-6.3</v>
-      </c>
-      <c r="I52" s="2">
-        <v>-2.7</v>
-      </c>
-      <c r="J52" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="K52" s="2">
-        <v>6</v>
-      </c>
-      <c r="L52" s="2">
-        <v>4.0999999999999996</v>
+      <c r="A51" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D51" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-3.7</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G51" s="6">
+        <v>-3.1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="I51" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J51" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="K51" s="6">
+        <v>-9.9</v>
+      </c>
+      <c r="L51" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>78.400000000000006</v>
@@ -4006,7 +4126,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="C54">
         <v>78.400000000000006</v>
@@ -4041,7 +4161,7 @@
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>1</v>
@@ -4146,7 +4266,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4251,7 +4371,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>72.7</v>
@@ -4394,7 +4514,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>41</v>
@@ -4499,7 +4619,7 @@
     </row>
     <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2">
         <v>-34.5</v>
@@ -4534,7 +4654,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>65.5</v>
@@ -4604,7 +4724,7 @@
     </row>
     <row r="75" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>1</v>
@@ -4674,7 +4794,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78">
         <v>103.1</v>
@@ -4814,7 +4934,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>114</v>
@@ -4917,881 +5037,1641 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>2</v>
       </c>
-      <c r="D93">
+      <c r="D91">
         <v>3</v>
       </c>
-      <c r="E93">
+      <c r="E91">
         <v>4</v>
       </c>
-      <c r="F93">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="G93">
+      <c r="G91">
         <v>6</v>
       </c>
-      <c r="H93">
+      <c r="H91">
         <v>7</v>
       </c>
-      <c r="I93">
+      <c r="I91">
         <v>8</v>
       </c>
-      <c r="J93">
+      <c r="J91">
         <v>9</v>
       </c>
-      <c r="K93">
+      <c r="K91">
         <v>10</v>
       </c>
-      <c r="L93">
+      <c r="L91">
         <v>11</v>
       </c>
-      <c r="M93">
+      <c r="M91">
         <v>12</v>
       </c>
     </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>200</v>
+      </c>
+      <c r="E92">
+        <v>300</v>
+      </c>
+      <c r="F92">
+        <v>400</v>
+      </c>
+      <c r="G92">
+        <v>500</v>
+      </c>
+      <c r="H92">
+        <v>600</v>
+      </c>
+      <c r="I92">
+        <v>700</v>
+      </c>
+      <c r="J92">
+        <v>800</v>
+      </c>
+      <c r="K92">
+        <v>900</v>
+      </c>
+      <c r="L92">
+        <v>1000</v>
+      </c>
+      <c r="M92">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D93" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E93" s="6">
+        <v>-3.7</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G93" s="6">
+        <v>-3.1</v>
+      </c>
+      <c r="H93" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="I93" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J93" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="K93" s="6">
+        <v>-9.9</v>
+      </c>
+      <c r="L93" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>100</v>
-      </c>
-      <c r="D94">
-        <v>200</v>
-      </c>
-      <c r="E94">
-        <v>300</v>
-      </c>
-      <c r="F94">
-        <v>400</v>
-      </c>
-      <c r="G94">
-        <v>500</v>
-      </c>
-      <c r="H94">
-        <v>600</v>
-      </c>
-      <c r="I94">
-        <v>700</v>
-      </c>
-      <c r="J94">
-        <v>800</v>
-      </c>
-      <c r="K94">
-        <v>900</v>
-      </c>
-      <c r="L94">
-        <v>1000</v>
-      </c>
-      <c r="M94">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95">
-        <v>51.3</v>
-      </c>
-      <c r="C95">
-        <v>50.3</v>
-      </c>
-      <c r="D95">
-        <v>51.5</v>
-      </c>
-      <c r="E95">
-        <v>51.4</v>
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="E95" s="2">
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F95">
-        <v>51.9</v>
+        <v>-3.7</v>
       </c>
       <c r="G95">
-        <v>51.5</v>
-      </c>
-      <c r="H95">
-        <v>51.2</v>
-      </c>
-      <c r="I95">
-        <v>51.3</v>
-      </c>
-      <c r="J95">
-        <v>50.8</v>
-      </c>
-      <c r="K95">
-        <v>50.2</v>
-      </c>
-      <c r="L95">
-        <v>50</v>
-      </c>
-      <c r="M95">
-        <v>49.4</v>
+        <v>-2</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I95" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J95" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K95" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L95" s="2">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96">
-        <v>49.5</v>
+        <v>38</v>
       </c>
       <c r="C96">
-        <v>49.2</v>
-      </c>
-      <c r="D96">
-        <v>50.5</v>
+        <v>94.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>190.6</v>
       </c>
       <c r="E96">
-        <v>50.1</v>
+        <v>285.3</v>
       </c>
       <c r="F96">
-        <v>49.4</v>
+        <v>385.2</v>
       </c>
       <c r="G96">
-        <v>49.4</v>
+        <v>490</v>
       </c>
       <c r="H96">
-        <v>49.7</v>
+        <v>605.4</v>
       </c>
       <c r="I96">
-        <v>49.5</v>
+        <v>717.5</v>
       </c>
       <c r="J96">
-        <v>49.8</v>
+        <v>828</v>
       </c>
       <c r="K96">
-        <v>49.3</v>
+        <v>945.9</v>
       </c>
       <c r="L96">
-        <v>50.2</v>
-      </c>
-      <c r="M96">
-        <v>50.2</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="2">
-        <v>-5.5</v>
-      </c>
-      <c r="D98" s="2">
-        <v>-4.7</v>
-      </c>
-      <c r="E98" s="2">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="F98">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>94.5</v>
+      </c>
+      <c r="D97">
+        <v>96.1</v>
+      </c>
+      <c r="E97">
+        <v>94.7</v>
+      </c>
+      <c r="F97">
+        <v>99.9</v>
+      </c>
+      <c r="G97">
+        <v>104.8</v>
+      </c>
+      <c r="H97">
+        <v>115.5</v>
+      </c>
+      <c r="I97">
+        <v>112.1</v>
+      </c>
+      <c r="J97">
+        <v>110.5</v>
+      </c>
+      <c r="K97">
+        <v>117.9</v>
+      </c>
+      <c r="L97">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E100" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="F100">
+        <v>17.3</v>
+      </c>
+      <c r="G100">
+        <v>13.5</v>
+      </c>
+      <c r="H100" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="I100" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="J100" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="K100" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L100" s="2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101">
+        <v>111.2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>237.8</v>
+      </c>
+      <c r="E101">
+        <v>353.1</v>
+      </c>
+      <c r="F101">
+        <v>469.2</v>
+      </c>
+      <c r="G101">
+        <v>567.5</v>
+      </c>
+      <c r="H101">
+        <v>687.6</v>
+      </c>
+      <c r="I101">
+        <v>787.5</v>
+      </c>
+      <c r="J101">
+        <v>892</v>
+      </c>
+      <c r="K101">
+        <v>978.3</v>
+      </c>
+      <c r="L101">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>111.2</v>
+      </c>
+      <c r="D102">
+        <v>125.6</v>
+      </c>
+      <c r="E102">
+        <v>115.3</v>
+      </c>
+      <c r="F102">
+        <v>116.1</v>
+      </c>
+      <c r="G102">
+        <v>98.3</v>
+      </c>
+      <c r="H102">
+        <v>120.1</v>
+      </c>
+      <c r="I102">
+        <v>99.9</v>
+      </c>
+      <c r="J102">
+        <v>104.5</v>
+      </c>
+      <c r="K102">
+        <v>86.3</v>
+      </c>
+      <c r="L102">
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="D105" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="E105" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F105">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G105">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H105" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="I105" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J105" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K105" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L105" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106">
+        <v>123.3</v>
+      </c>
+      <c r="D106" s="1">
+        <v>240</v>
+      </c>
+      <c r="E106">
+        <v>354.3</v>
+      </c>
+      <c r="F106">
+        <v>471.6</v>
+      </c>
+      <c r="G106">
+        <v>584.5</v>
+      </c>
+      <c r="H106">
+        <v>705</v>
+      </c>
+      <c r="I106">
+        <v>823.2</v>
+      </c>
+      <c r="J106">
+        <v>937.6</v>
+      </c>
+      <c r="K106">
+        <v>1058.4000000000001</v>
+      </c>
+      <c r="L106">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>123.3</v>
+      </c>
+      <c r="D107">
+        <v>116.7</v>
+      </c>
+      <c r="E107">
+        <v>114.3</v>
+      </c>
+      <c r="F107">
+        <v>117.3</v>
+      </c>
+      <c r="G107">
+        <v>112.9</v>
+      </c>
+      <c r="H107">
+        <v>120.5</v>
+      </c>
+      <c r="I107">
+        <v>118.2</v>
+      </c>
+      <c r="J107">
+        <v>114.4</v>
+      </c>
+      <c r="K107">
+        <v>120.8</v>
+      </c>
+      <c r="L107">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E110" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F110">
+        <v>10.9</v>
+      </c>
+      <c r="G110">
+        <v>9.4</v>
+      </c>
+      <c r="H110" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I110" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J110" s="2">
+        <v>10</v>
+      </c>
+      <c r="K110" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="L110" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111">
+        <v>104.2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>215.2</v>
+      </c>
+      <c r="E111">
+        <v>329.1</v>
+      </c>
+      <c r="F111">
+        <v>443.6</v>
+      </c>
+      <c r="G111">
+        <v>547</v>
+      </c>
+      <c r="H111">
+        <v>655.8</v>
+      </c>
+      <c r="I111">
+        <v>766.5</v>
+      </c>
+      <c r="J111" s="1">
+        <v>880</v>
+      </c>
+      <c r="K111">
+        <v>995.4</v>
+      </c>
+      <c r="L111" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>104.2</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
+      </c>
+      <c r="E112">
+        <v>113.9</v>
+      </c>
+      <c r="F112">
+        <v>114.5</v>
+      </c>
+      <c r="G112">
+        <v>103.4</v>
+      </c>
+      <c r="H112">
+        <v>108.8</v>
+      </c>
+      <c r="I112">
+        <v>110.7</v>
+      </c>
+      <c r="J112">
+        <v>113.5</v>
+      </c>
+      <c r="K112">
+        <v>115.4</v>
+      </c>
+      <c r="L112">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="2">
+        <v>16</v>
+      </c>
+      <c r="D115" s="2">
+        <v>22</v>
+      </c>
+      <c r="E115" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="F115">
+        <v>28.3</v>
+      </c>
+      <c r="G115">
+        <v>21.7</v>
+      </c>
+      <c r="H115" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="I115" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J115" s="2">
+        <v>12</v>
+      </c>
+      <c r="K115" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="L115" s="2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116">
+        <v>116</v>
+      </c>
+      <c r="D116" s="1">
+        <v>244</v>
+      </c>
+      <c r="E116">
+        <v>388.2</v>
+      </c>
+      <c r="F116">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="G116">
+        <v>608.5</v>
+      </c>
+      <c r="H116">
+        <v>703.8</v>
+      </c>
+      <c r="I116">
+        <v>821.8</v>
+      </c>
+      <c r="J116" s="1">
+        <v>896</v>
+      </c>
+      <c r="K116">
+        <v>972</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117">
+        <v>128</v>
+      </c>
+      <c r="E117">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="F117">
+        <v>125</v>
+      </c>
+      <c r="G117">
+        <v>95.3</v>
+      </c>
+      <c r="H117">
+        <v>95.3</v>
+      </c>
+      <c r="I117">
+        <v>118</v>
+      </c>
+      <c r="J117">
+        <v>72.8</v>
+      </c>
+      <c r="K117">
+        <v>76</v>
+      </c>
+      <c r="L117">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D120" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="E120" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="F120">
+        <v>13.7</v>
+      </c>
+      <c r="G120">
+        <v>11.5</v>
+      </c>
+      <c r="H120" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="I120" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="J120" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="K120" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="L120" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121">
+        <v>104.2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>222.8</v>
+      </c>
+      <c r="E121">
+        <v>336.9</v>
+      </c>
+      <c r="F121">
+        <v>454.8</v>
+      </c>
+      <c r="G121">
+        <v>557.5</v>
+      </c>
+      <c r="H121">
+        <v>673.2</v>
+      </c>
+      <c r="I121">
+        <v>786.8</v>
+      </c>
+      <c r="J121" s="1">
+        <v>909.6</v>
+      </c>
+      <c r="K121">
+        <v>1045.8</v>
+      </c>
+      <c r="L121" s="1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>104.2</v>
+      </c>
+      <c r="D122">
+        <v>118.6</v>
+      </c>
+      <c r="E122">
+        <v>114.1</v>
+      </c>
+      <c r="F122">
+        <v>117.9</v>
+      </c>
+      <c r="G122">
+        <v>102.7</v>
+      </c>
+      <c r="H122">
+        <v>115.7</v>
+      </c>
+      <c r="I122">
+        <v>113.6</v>
+      </c>
+      <c r="J122">
+        <v>123.6</v>
+      </c>
+      <c r="K122">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="L122">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D125" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="E125" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="F125">
+        <v>15.9</v>
+      </c>
+      <c r="G125">
+        <v>13</v>
+      </c>
+      <c r="H125" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="I125" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="J125" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="K125" s="2">
+        <v>15</v>
+      </c>
+      <c r="L125" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C126">
+        <v>104.2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>222.8</v>
+      </c>
+      <c r="E126">
+        <v>336.9</v>
+      </c>
+      <c r="F126">
+        <v>454.8</v>
+      </c>
+      <c r="G126">
+        <v>557.5</v>
+      </c>
+      <c r="H126">
+        <v>673.2</v>
+      </c>
+      <c r="I126">
+        <v>786.8</v>
+      </c>
+      <c r="J126" s="1">
+        <v>909.6</v>
+      </c>
+      <c r="K126">
+        <v>1045.8</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>104.2</v>
+      </c>
+      <c r="D127">
+        <v>118.6</v>
+      </c>
+      <c r="E127">
+        <v>114.1</v>
+      </c>
+      <c r="F127">
+        <v>117.9</v>
+      </c>
+      <c r="G127">
+        <v>102.7</v>
+      </c>
+      <c r="H127">
+        <v>115.7</v>
+      </c>
+      <c r="I127">
+        <v>113.6</v>
+      </c>
+      <c r="J127">
+        <v>123.6</v>
+      </c>
+      <c r="K127">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="L127">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="G134">
+        <v>6</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>9</v>
+      </c>
+      <c r="K134">
+        <v>10</v>
+      </c>
+      <c r="L134">
+        <v>11</v>
+      </c>
+      <c r="M134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>100</v>
+      </c>
+      <c r="D135">
+        <v>200</v>
+      </c>
+      <c r="E135">
+        <v>300</v>
+      </c>
+      <c r="F135">
+        <v>400</v>
+      </c>
+      <c r="G135">
+        <v>500</v>
+      </c>
+      <c r="H135">
+        <v>600</v>
+      </c>
+      <c r="I135">
+        <v>700</v>
+      </c>
+      <c r="J135">
+        <v>800</v>
+      </c>
+      <c r="K135">
+        <v>900</v>
+      </c>
+      <c r="L135">
+        <v>1000</v>
+      </c>
+      <c r="M135">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D136" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E136" s="6">
         <v>-3.7</v>
       </c>
-      <c r="G98">
+      <c r="F136" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G136" s="6">
+        <v>-3.1</v>
+      </c>
+      <c r="H136" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="I136" s="6">
         <v>-2</v>
       </c>
-      <c r="H98" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I98" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="J98" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="K98" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L98" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99">
-        <v>94.5</v>
-      </c>
-      <c r="D99" s="1">
-        <v>190.6</v>
-      </c>
-      <c r="E99">
-        <v>285.3</v>
-      </c>
-      <c r="F99">
-        <v>385.2</v>
-      </c>
-      <c r="G99">
-        <v>490</v>
-      </c>
-      <c r="H99">
-        <v>605.4</v>
-      </c>
-      <c r="I99">
-        <v>717.5</v>
-      </c>
-      <c r="J99">
-        <v>828</v>
-      </c>
-      <c r="K99">
-        <v>945.9</v>
-      </c>
-      <c r="L99">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="J136" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="K136" s="6">
+        <v>-9.9</v>
+      </c>
+      <c r="L136" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" s="2">
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-54.5</v>
+      </c>
+      <c r="E138" s="2">
+        <v>-50.2</v>
+      </c>
+      <c r="F138">
+        <v>-51.3</v>
+      </c>
+      <c r="G138">
+        <v>-53.6</v>
+      </c>
+      <c r="H138" s="2">
+        <v>-50.6</v>
+      </c>
+      <c r="I138" s="2">
+        <v>-53.1</v>
+      </c>
+      <c r="J138" s="2">
+        <v>-53.5</v>
+      </c>
+      <c r="K138" s="2">
+        <v>-51.2</v>
+      </c>
+      <c r="L138" s="2">
+        <v>-47.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139">
+        <v>29.4</v>
+      </c>
+      <c r="D139" s="1">
+        <v>91</v>
+      </c>
+      <c r="E139">
+        <v>149.4</v>
+      </c>
+      <c r="F139">
+        <v>194.8</v>
+      </c>
+      <c r="G139">
+        <v>232</v>
+      </c>
+      <c r="H139">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="I139">
+        <v>328.3</v>
+      </c>
+      <c r="J139">
+        <v>372</v>
+      </c>
+      <c r="K139">
+        <v>448.2</v>
+      </c>
+      <c r="L139">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>3</v>
       </c>
-      <c r="C100">
-        <v>94.5</v>
-      </c>
-      <c r="D100">
-        <v>96.1</v>
-      </c>
-      <c r="E100">
-        <v>94.7</v>
-      </c>
-      <c r="F100">
-        <v>99.9</v>
-      </c>
-      <c r="G100">
-        <v>104.8</v>
-      </c>
-      <c r="H100">
-        <v>115.5</v>
-      </c>
-      <c r="I100">
+      <c r="C140">
+        <v>29.4</v>
+      </c>
+      <c r="D140">
+        <v>61.6</v>
+      </c>
+      <c r="E140">
+        <v>58.4</v>
+      </c>
+      <c r="F140">
+        <v>45.4</v>
+      </c>
+      <c r="G140">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H140">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I140">
+        <v>31.9</v>
+      </c>
+      <c r="J140">
+        <v>43.7</v>
+      </c>
+      <c r="K140">
+        <v>76.2</v>
+      </c>
+      <c r="L140">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" s="2">
+        <v>-23.2</v>
+      </c>
+      <c r="D143" s="2">
+        <v>-18</v>
+      </c>
+      <c r="E143" s="2">
+        <v>-16.5</v>
+      </c>
+      <c r="F143">
+        <v>-9.4</v>
+      </c>
+      <c r="G143">
+        <v>-7.1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>-3.8</v>
+      </c>
+      <c r="I143" s="2">
+        <v>-4.3</v>
+      </c>
+      <c r="J143" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="K143" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="L143" s="2">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144">
+        <v>76.8</v>
+      </c>
+      <c r="D144" s="1">
+        <v>164</v>
+      </c>
+      <c r="E144">
+        <v>250.5</v>
+      </c>
+      <c r="F144">
+        <v>366.4</v>
+      </c>
+      <c r="G144">
+        <v>464.5</v>
+      </c>
+      <c r="H144">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="I144">
+        <v>669.9</v>
+      </c>
+      <c r="J144">
+        <v>774.4</v>
+      </c>
+      <c r="K144">
+        <v>881.1</v>
+      </c>
+      <c r="L144">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>76.8</v>
+      </c>
+      <c r="D145">
+        <v>87.2</v>
+      </c>
+      <c r="E145">
+        <v>86.5</v>
+      </c>
+      <c r="F145">
+        <v>115.9</v>
+      </c>
+      <c r="G145">
+        <v>98.1</v>
+      </c>
+      <c r="H145">
+        <v>112.7</v>
+      </c>
+      <c r="I145">
+        <v>92.7</v>
+      </c>
+      <c r="J145">
+        <v>104.5</v>
+      </c>
+      <c r="K145">
+        <v>106.7</v>
+      </c>
+      <c r="L145">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" s="2">
+        <v>-5.7</v>
+      </c>
+      <c r="D148" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="E148" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="F148">
+        <v>24</v>
+      </c>
+      <c r="G148">
+        <v>17.8</v>
+      </c>
+      <c r="H148" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="I148" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="J148" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="K148" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="L148" s="2">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C149">
+        <v>94.3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>220.6</v>
+      </c>
+      <c r="E149">
+        <v>359.1</v>
+      </c>
+      <c r="F149">
+        <v>496</v>
+      </c>
+      <c r="G149">
+        <v>589</v>
+      </c>
+      <c r="H149">
+        <v>677.4</v>
+      </c>
+      <c r="I149">
+        <v>751.1</v>
+      </c>
+      <c r="J149">
+        <v>863.2</v>
+      </c>
+      <c r="K149">
+        <v>930.6</v>
+      </c>
+      <c r="L149">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>94.3</v>
+      </c>
+      <c r="D150">
+        <v>126.3</v>
+      </c>
+      <c r="E150">
+        <v>138.5</v>
+      </c>
+      <c r="F150">
+        <v>136.9</v>
+      </c>
+      <c r="G150">
+        <v>93</v>
+      </c>
+      <c r="H150">
+        <v>88.4</v>
+      </c>
+      <c r="I150">
+        <v>73.7</v>
+      </c>
+      <c r="J150">
         <v>112.1</v>
       </c>
-      <c r="J100">
-        <v>110.5</v>
-      </c>
-      <c r="K100">
-        <v>117.9</v>
-      </c>
-      <c r="L100">
-        <v>131.1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="D103" s="2">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E103" s="2">
-        <v>17.7</v>
-      </c>
-      <c r="F103">
-        <v>17.3</v>
-      </c>
-      <c r="G103">
-        <v>13.5</v>
-      </c>
-      <c r="H103" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="I103" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="J103" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="K103" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L103" s="2">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104">
-        <v>111.2</v>
-      </c>
-      <c r="D104" s="1">
-        <v>237.8</v>
-      </c>
-      <c r="E104">
-        <v>353.1</v>
-      </c>
-      <c r="F104">
-        <v>469.2</v>
-      </c>
-      <c r="G104">
-        <v>567.5</v>
-      </c>
-      <c r="H104">
-        <v>687.6</v>
-      </c>
-      <c r="I104">
-        <v>787.5</v>
-      </c>
-      <c r="J104">
-        <v>892</v>
-      </c>
-      <c r="K104">
-        <v>978.3</v>
-      </c>
-      <c r="L104">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+      <c r="K150">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="L150">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="2">
+        <v>-11.3</v>
+      </c>
+      <c r="D153" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E153" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F153">
+        <v>3.2</v>
+      </c>
+      <c r="G153">
+        <v>-0.1</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I153" s="2">
+        <v>-3.4</v>
+      </c>
+      <c r="J153" s="2">
+        <v>-4.3</v>
+      </c>
+      <c r="K153" s="2">
+        <v>-6.4</v>
+      </c>
+      <c r="L153" s="2">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154">
+        <v>89.7</v>
+      </c>
+      <c r="D154" s="1">
+        <v>207.2</v>
+      </c>
+      <c r="E154">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="F154">
+        <v>412.8</v>
+      </c>
+      <c r="G154">
+        <v>499.5</v>
+      </c>
+      <c r="H154">
+        <v>606</v>
+      </c>
+      <c r="I154">
+        <v>674.8</v>
+      </c>
+      <c r="J154">
+        <v>765.6</v>
+      </c>
+      <c r="K154">
+        <v>860.4</v>
+      </c>
+      <c r="L154">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
         <v>3</v>
       </c>
-      <c r="C105">
-        <v>111.2</v>
-      </c>
-      <c r="D105">
-        <v>125.6</v>
-      </c>
-      <c r="E105">
-        <v>115.3</v>
-      </c>
-      <c r="F105">
-        <v>116.1</v>
-      </c>
-      <c r="G105">
-        <v>98.3</v>
-      </c>
-      <c r="H105">
-        <v>120.1</v>
-      </c>
-      <c r="I105">
-        <v>99.9</v>
-      </c>
-      <c r="J105">
-        <v>104.5</v>
-      </c>
-      <c r="K105">
-        <v>86.3</v>
-      </c>
-      <c r="L105">
-        <v>131.69999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="2">
-        <v>23.3</v>
-      </c>
-      <c r="D108" s="2">
-        <v>20.7</v>
-      </c>
-      <c r="E108" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F108">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G108">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H108" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="I108" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="J108" s="2">
-        <v>17.2</v>
-      </c>
-      <c r="K108" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="L108" s="2">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109">
-        <v>123.3</v>
-      </c>
-      <c r="D109" s="1">
-        <v>240</v>
-      </c>
-      <c r="E109">
-        <v>354.3</v>
-      </c>
-      <c r="F109">
-        <v>471.6</v>
-      </c>
-      <c r="G109">
-        <v>584.5</v>
-      </c>
-      <c r="H109">
-        <v>705</v>
-      </c>
-      <c r="I109">
-        <v>823.2</v>
-      </c>
-      <c r="J109">
-        <v>937.6</v>
-      </c>
-      <c r="K109">
-        <v>1058.4000000000001</v>
-      </c>
-      <c r="L109">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110">
-        <v>123.3</v>
-      </c>
-      <c r="D110">
-        <v>116.7</v>
-      </c>
-      <c r="E110">
-        <v>114.3</v>
-      </c>
-      <c r="F110">
-        <v>117.3</v>
-      </c>
-      <c r="G110">
-        <v>112.9</v>
-      </c>
-      <c r="H110">
-        <v>120.5</v>
-      </c>
-      <c r="I110">
-        <v>118.2</v>
-      </c>
-      <c r="J110">
-        <v>114.4</v>
-      </c>
-      <c r="K110">
-        <v>120.8</v>
-      </c>
-      <c r="L110">
-        <v>115.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D113" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="E113" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F113">
-        <v>10.9</v>
-      </c>
-      <c r="G113">
-        <v>9.4</v>
-      </c>
-      <c r="H113" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I113" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="J113" s="2">
-        <v>10</v>
-      </c>
-      <c r="K113" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="L113" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114">
-        <v>104.2</v>
-      </c>
-      <c r="D114" s="1">
-        <v>215.2</v>
-      </c>
-      <c r="E114">
-        <v>329.1</v>
-      </c>
-      <c r="F114">
-        <v>443.6</v>
-      </c>
-      <c r="G114">
-        <v>547</v>
-      </c>
-      <c r="H114">
-        <v>655.8</v>
-      </c>
-      <c r="I114">
-        <v>766.5</v>
-      </c>
-      <c r="J114" s="1">
-        <v>880</v>
-      </c>
-      <c r="K114">
-        <v>995.4</v>
-      </c>
-      <c r="L114" s="1">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115">
-        <v>104.2</v>
-      </c>
-      <c r="D115">
-        <v>111</v>
-      </c>
-      <c r="E115">
-        <v>113.9</v>
-      </c>
-      <c r="F115">
-        <v>114.5</v>
-      </c>
-      <c r="G115">
-        <v>103.4</v>
-      </c>
-      <c r="H115">
-        <v>108.8</v>
-      </c>
-      <c r="I115">
-        <v>110.7</v>
-      </c>
-      <c r="J115">
-        <v>113.5</v>
-      </c>
-      <c r="K115">
-        <v>115.4</v>
-      </c>
-      <c r="L115">
-        <v>104.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M116" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="2">
-        <v>16</v>
-      </c>
-      <c r="D118" s="2">
-        <v>22</v>
-      </c>
-      <c r="E118" s="2">
-        <v>29.4</v>
-      </c>
-      <c r="F118">
-        <v>28.3</v>
-      </c>
-      <c r="G118">
-        <v>21.7</v>
-      </c>
-      <c r="H118" s="2">
-        <v>17.3</v>
-      </c>
-      <c r="I118" s="2">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J118" s="2">
-        <v>12</v>
-      </c>
-      <c r="K118" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="L118" s="2">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119">
-        <v>116</v>
-      </c>
-      <c r="D119" s="1">
-        <v>244</v>
-      </c>
-      <c r="E119">
-        <v>388.2</v>
-      </c>
-      <c r="F119">
-        <v>513.20000000000005</v>
-      </c>
-      <c r="G119">
-        <v>608.5</v>
-      </c>
-      <c r="H119">
-        <v>703.8</v>
-      </c>
-      <c r="I119">
-        <v>821.8</v>
-      </c>
-      <c r="J119" s="1">
-        <v>896</v>
-      </c>
-      <c r="K119">
-        <v>972</v>
-      </c>
-      <c r="L119" s="1">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120">
-        <v>116</v>
-      </c>
-      <c r="D120">
-        <v>128</v>
-      </c>
-      <c r="E120">
-        <v>144.19999999999999</v>
-      </c>
-      <c r="F120">
-        <v>125</v>
-      </c>
-      <c r="G120">
-        <v>95.3</v>
-      </c>
-      <c r="H120">
-        <v>95.3</v>
-      </c>
-      <c r="I120">
-        <v>118</v>
-      </c>
-      <c r="J120">
-        <v>72.8</v>
-      </c>
-      <c r="K120">
-        <v>76</v>
-      </c>
-      <c r="L120">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
+      <c r="C155">
+        <v>89.7</v>
+      </c>
+      <c r="D155">
+        <v>117.5</v>
+      </c>
+      <c r="E155">
+        <v>103.9</v>
+      </c>
+      <c r="F155">
+        <v>101.7</v>
+      </c>
+      <c r="G155">
+        <v>86.7</v>
+      </c>
+      <c r="H155">
+        <v>106.5</v>
+      </c>
+      <c r="I155">
+        <v>68.8</v>
+      </c>
+      <c r="J155">
+        <v>90.8</v>
+      </c>
+      <c r="K155">
+        <v>94.8</v>
+      </c>
+      <c r="L155">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2036,6 +2036,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2048,8 +2050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2348,20 +2348,20 @@
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
@@ -2439,7 +2439,7 @@
         <v>17547</v>
       </c>
       <c r="M3"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       <c r="L4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -2519,7 +2519,7 @@
       <c r="L5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -3212,7 +3212,7 @@
       <c r="M23" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       <c r="M24" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="15" t="s">
         <v>257</v>
       </c>
     </row>

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="427">
   <si>
     <t>利润增速（2019同比2018）</t>
     <rPh sb="0" eb="1">
@@ -3626,6 +3626,10 @@
   </si>
   <si>
     <t>信用利差是用以向投资者补偿基础资产违约风险的、高于无风险利率的利差。与期限利差类似，信用利差反映的也是相对利率。信用利差反映了对经济前景的预期，信用利差是总体经济状况的一个函数。信用利差在经济扩张期会下降，而在经济收缩期增加。这是因为在经济收缩期，投资者信心不足，更愿投资于高信用等级债券以回避风险，而公司由于收入下降，现金流减少，为了吸引投资者购买公司债券，发行人必须提供较高的利率，因此会产生较高的信用利差。相反，在经济扩张时期，投资者对未来发展有信心，愿意投资于信用等级较低的证券以获得较高的收益，而公司收入增加，现金流充裕，不需要通过很高的成本来吸引来自外部资金，这样就导致较低的信用利差。鉴于此，可以将信用利差作为预测经济周期活动的一个指标。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8，2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3824,31 +3828,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3858,6 +3838,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4138,8 +4142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:P41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4173,31 +4177,31 @@
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
       <c r="Y1" s="29"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -4322,65 +4326,70 @@
         <v>17547</v>
       </c>
       <c r="W3"/>
-      <c r="X3"/>
+      <c r="X3">
+        <v>21000</v>
+      </c>
       <c r="Y3"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Z3" s="42" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>416</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>17.2</v>
       </c>
       <c r="C4"/>
       <c r="D4">
-        <v>0.02</v>
+        <v>-2.4</v>
       </c>
       <c r="E4"/>
       <c r="F4">
-        <v>4.5999999999999999E-2</v>
+        <v>3.1</v>
       </c>
       <c r="G4"/>
       <c r="H4">
-        <v>8.5000000000000006E-2</v>
+        <v>3.5</v>
       </c>
       <c r="I4"/>
       <c r="J4">
-        <v>8.5000000000000006E-2</v>
+        <v>4.3</v>
       </c>
       <c r="K4"/>
       <c r="L4">
-        <v>8.5000000000000006E-2</v>
+        <v>4.3</v>
       </c>
       <c r="M4"/>
       <c r="N4">
-        <v>8.1000000000000003E-2</v>
+        <v>4.5</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>8.2000000000000003E-2</v>
+        <v>4.8</v>
       </c>
       <c r="Q4"/>
       <c r="R4">
-        <v>8.4000000000000005E-2</v>
+        <v>4</v>
       </c>
       <c r="S4"/>
       <c r="T4">
-        <v>8.4000000000000005E-2</v>
+        <v>4.7</v>
       </c>
       <c r="U4"/>
       <c r="V4">
-        <v>8.2000000000000003E-2</v>
+        <v>4.8</v>
       </c>
       <c r="W4"/>
+      <c r="X4" s="6">
+        <v>5.2</v>
+      </c>
       <c r="Y4"/>
-      <c r="Z4" s="36"/>
+      <c r="Z4" s="42"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>417</v>
       </c>
       <c r="B5">
@@ -4388,101 +4397,106 @@
       </c>
       <c r="C5"/>
       <c r="D5">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="E5"/>
       <c r="F5">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G5"/>
       <c r="H5">
-        <v>8.5000000000000006E-2</v>
+        <v>2.9</v>
       </c>
       <c r="I5"/>
       <c r="J5">
-        <v>8.5000000000000006E-2</v>
+        <v>3.4</v>
       </c>
       <c r="K5"/>
       <c r="L5">
-        <v>8.5000000000000006E-2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M5"/>
       <c r="N5">
-        <v>8.1000000000000003E-2</v>
+        <v>3.1</v>
       </c>
       <c r="O5"/>
       <c r="P5">
-        <v>8.2000000000000003E-2</v>
+        <v>3.4</v>
       </c>
       <c r="Q5"/>
       <c r="R5">
-        <v>8.4000000000000005E-2</v>
+        <v>3.4</v>
       </c>
       <c r="S5"/>
       <c r="T5">
-        <v>8.4000000000000005E-2</v>
+        <v>3.3</v>
       </c>
       <c r="U5"/>
       <c r="V5">
-        <v>8.2000000000000003E-2</v>
+        <v>3.5</v>
       </c>
       <c r="W5"/>
+      <c r="X5" s="6">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="Y5"/>
-      <c r="Z5" s="37"/>
+      <c r="Z5" s="45"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="36" t="s">
         <v>418</v>
       </c>
       <c r="B6">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4</v>
       </c>
       <c r="C6"/>
       <c r="D6">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="E6"/>
       <c r="F6">
-        <v>8.2000000000000003E-2</v>
+        <v>8.6</v>
       </c>
       <c r="G6"/>
       <c r="H6">
-        <v>2.9000000000000001E-2</v>
+        <v>8.5</v>
       </c>
       <c r="I6"/>
       <c r="J6">
-        <v>3.4000000000000002E-2</v>
+        <v>8.5</v>
       </c>
       <c r="K6"/>
       <c r="L6">
-        <v>4.3999999999999997E-2</v>
+        <v>8.5</v>
       </c>
       <c r="M6"/>
       <c r="N6">
-        <v>3.1E-2</v>
+        <v>8.1</v>
       </c>
       <c r="O6"/>
       <c r="P6">
-        <v>3.4000000000000002E-2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q6"/>
       <c r="R6">
-        <v>3.4000000000000002E-2</v>
+        <v>8.4</v>
       </c>
       <c r="S6"/>
       <c r="T6">
-        <v>3.3000000000000002E-2</v>
+        <v>8.4</v>
       </c>
       <c r="U6"/>
-      <c r="V6">
-        <v>3.5000000000000003E-2</v>
+      <c r="V6" t="s">
+        <v>426</v>
       </c>
       <c r="W6"/>
-      <c r="Y6"/>
-      <c r="Z6" s="37"/>
+      <c r="X6" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Z6" s="45"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="36" t="s">
         <v>419</v>
       </c>
       <c r="B7"/>
@@ -4511,7 +4525,7 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>415</v>
       </c>
       <c r="B8" s="40"/>
@@ -4531,7 +4545,7 @@
       <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="37"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -4745,73 +4759,73 @@
       <c r="B15" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="46" t="s">
         <v>403</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="46" t="s">
         <v>402</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="46" t="s">
         <v>392</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="46" t="s">
         <v>393</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="46" t="s">
         <v>394</v>
       </c>
       <c r="L15" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="46" t="s">
         <v>395</v>
       </c>
       <c r="N15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="46" t="s">
         <v>396</v>
       </c>
       <c r="P15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="46" t="s">
         <v>397</v>
       </c>
       <c r="R15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="46" t="s">
         <v>399</v>
       </c>
       <c r="T15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="46" t="s">
         <v>400</v>
       </c>
       <c r="V15" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="W15" s="38" t="s">
+      <c r="W15" s="46" t="s">
         <v>401</v>
       </c>
       <c r="X15" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="Y15" s="38" t="s">
+      <c r="Y15" s="46" t="s">
         <v>404</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -4825,51 +4839,51 @@
       <c r="B16" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="37"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="O16" s="37"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="37"/>
+      <c r="S16" s="45"/>
       <c r="T16" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="U16" s="37"/>
+      <c r="U16" s="45"/>
       <c r="V16" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="W16" s="37"/>
+      <c r="W16" s="45"/>
       <c r="X16" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="Y16" s="37"/>
+      <c r="Y16" s="45"/>
       <c r="Z16" s="2" t="s">
         <v>388</v>
       </c>
@@ -4881,51 +4895,51 @@
       <c r="B17" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="37"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="37"/>
+      <c r="M17" s="45"/>
       <c r="N17" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="37"/>
+      <c r="O17" s="45"/>
       <c r="P17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="S17" s="37"/>
+      <c r="S17" s="45"/>
       <c r="T17" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="U17" s="37"/>
+      <c r="U17" s="45"/>
       <c r="V17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="W17" s="37"/>
+      <c r="W17" s="45"/>
       <c r="X17" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Y17" s="37"/>
+      <c r="Y17" s="45"/>
       <c r="Z17" s="2" t="s">
         <v>391</v>
       </c>
@@ -4937,51 +4951,51 @@
       <c r="B18" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="37"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="37"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="37"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="37"/>
+      <c r="O18" s="45"/>
       <c r="P18" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="45"/>
       <c r="T18" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="U18" s="37"/>
+      <c r="U18" s="45"/>
       <c r="V18" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="W18" s="37"/>
+      <c r="W18" s="45"/>
       <c r="X18" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="Y18" s="37"/>
+      <c r="Y18" s="45"/>
       <c r="Z18" s="2" t="s">
         <v>220</v>
       </c>
@@ -4993,51 +5007,51 @@
       <c r="B19" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="37"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="37"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="37"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S19" s="37"/>
+      <c r="S19" s="45"/>
       <c r="T19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U19" s="37"/>
+      <c r="U19" s="45"/>
       <c r="V19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="W19" s="37"/>
+      <c r="W19" s="45"/>
       <c r="X19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y19" s="37"/>
+      <c r="Y19" s="45"/>
       <c r="Z19" s="2" t="s">
         <v>221</v>
       </c>
@@ -5049,51 +5063,51 @@
       <c r="B20" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="37"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="37"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="37"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="45"/>
       <c r="R20" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="S20" s="37"/>
+      <c r="S20" s="45"/>
       <c r="T20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="U20" s="37"/>
+      <c r="U20" s="45"/>
       <c r="V20" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="W20" s="37"/>
+      <c r="W20" s="45"/>
       <c r="X20" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="Y20" s="37"/>
+      <c r="Y20" s="45"/>
       <c r="Z20" s="11" t="s">
         <v>238</v>
       </c>
@@ -5105,51 +5119,51 @@
       <c r="B21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="M21" s="37"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O21" s="37"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q21" s="37"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S21" s="37"/>
+      <c r="S21" s="45"/>
       <c r="T21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="37"/>
+      <c r="U21" s="45"/>
       <c r="V21" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="W21" s="37"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="Y21" s="37"/>
+      <c r="Y21" s="45"/>
       <c r="Z21" s="11" t="s">
         <v>240</v>
       </c>
@@ -5161,51 +5175,51 @@
       <c r="B22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="37"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="M22" s="37"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="O22" s="37"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="45"/>
       <c r="R22" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="S22" s="37"/>
+      <c r="S22" s="45"/>
       <c r="T22" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="U22" s="37"/>
+      <c r="U22" s="45"/>
       <c r="V22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="W22" s="37"/>
+      <c r="W22" s="45"/>
       <c r="X22" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="Y22" s="37"/>
+      <c r="Y22" s="45"/>
       <c r="Z22" s="11" t="s">
         <v>247</v>
       </c>
@@ -5217,51 +5231,51 @@
       <c r="B23" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="I23" s="37"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="37"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="M23" s="37"/>
+      <c r="M23" s="45"/>
       <c r="N23" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="O23" s="37"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="Q23" s="37"/>
+      <c r="Q23" s="45"/>
       <c r="R23" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="S23" s="37"/>
+      <c r="S23" s="45"/>
       <c r="T23" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="U23" s="37"/>
+      <c r="U23" s="45"/>
       <c r="V23" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="W23" s="37"/>
+      <c r="W23" s="45"/>
       <c r="X23" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="Y23" s="37"/>
+      <c r="Y23" s="45"/>
       <c r="Z23" s="11" t="s">
         <v>242</v>
       </c>
@@ -5273,51 +5287,51 @@
       <c r="B24" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I24" s="37"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M24" s="37"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="O24" s="37"/>
+      <c r="O24" s="45"/>
       <c r="P24" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="Q24" s="37"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="S24" s="37"/>
+      <c r="S24" s="45"/>
       <c r="T24" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="U24" s="37"/>
+      <c r="U24" s="45"/>
       <c r="V24" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="W24" s="37"/>
+      <c r="W24" s="45"/>
       <c r="X24" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="Y24" s="37"/>
+      <c r="Y24" s="45"/>
       <c r="Z24" s="6" t="s">
         <v>243</v>
       </c>
@@ -5329,51 +5343,51 @@
       <c r="B25" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="K25" s="37"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="M25" s="37"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="O25" s="37"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="Q25" s="37"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="S25" s="37"/>
+      <c r="S25" s="45"/>
       <c r="T25" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="U25" s="37"/>
+      <c r="U25" s="45"/>
       <c r="V25" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="W25" s="37"/>
+      <c r="W25" s="45"/>
       <c r="X25" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="Y25" s="37"/>
+      <c r="Y25" s="45"/>
       <c r="Z25" s="14" t="s">
         <v>244</v>
       </c>
@@ -5385,51 +5399,51 @@
       <c r="B26" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="37"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="M26" s="37"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O26" s="37"/>
+      <c r="O26" s="45"/>
       <c r="P26" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="Q26" s="37"/>
+      <c r="Q26" s="45"/>
       <c r="R26" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="S26" s="37"/>
+      <c r="S26" s="45"/>
       <c r="T26" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="U26" s="37"/>
+      <c r="U26" s="45"/>
       <c r="V26" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="W26" s="37"/>
+      <c r="W26" s="45"/>
       <c r="X26" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="Y26" s="37"/>
+      <c r="Y26" s="45"/>
       <c r="Z26" s="15" t="s">
         <v>245</v>
       </c>
@@ -5441,51 +5455,51 @@
       <c r="B27" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I27" s="37"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="K27" s="37"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="37"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="O27" s="37"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="Q27" s="37"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S27" s="37"/>
+      <c r="S27" s="45"/>
       <c r="T27" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U27" s="37"/>
+      <c r="U27" s="45"/>
       <c r="V27" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="W27" s="37"/>
+      <c r="W27" s="45"/>
       <c r="X27" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Y27" s="37"/>
+      <c r="Y27" s="45"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
@@ -5774,10 +5788,10 @@
     </row>
     <row r="36" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:26" s="6" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>411</v>
       </c>
       <c r="C37" s="40"/>
@@ -5798,10 +5812,10 @@
       <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:26" s="6" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>414</v>
       </c>
       <c r="C38" s="40"/>
@@ -5822,10 +5836,10 @@
       <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:26" s="6" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="42" t="s">
         <v>420</v>
       </c>
       <c r="C39" s="39"/>
@@ -5846,10 +5860,10 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:26" s="6" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="42" t="s">
         <v>423</v>
       </c>
       <c r="C40" s="39"/>
@@ -5870,10 +5884,10 @@
       <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:26" s="6" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="42" t="s">
         <v>425</v>
       </c>
       <c r="C41" s="39"/>
@@ -5986,10 +6000,10 @@
       <c r="A45" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="34">
         <v>-1.6</v>
       </c>
-      <c r="C45" s="41"/>
+      <c r="C45" s="34"/>
       <c r="D45">
         <v>-1.4</v>
       </c>
@@ -10244,12 +10258,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z43:Z46"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="B39:P39"/>
-    <mergeCell ref="B40:P40"/>
-    <mergeCell ref="B41:P41"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="Z3:Z6"/>
     <mergeCell ref="C15:C27"/>
@@ -10265,6 +10273,12 @@
     <mergeCell ref="W15:W27"/>
     <mergeCell ref="Y15:Y27"/>
     <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Z43:Z46"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="B39:P39"/>
+    <mergeCell ref="B40:P40"/>
+    <mergeCell ref="B41:P41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="564">
   <si>
     <t>涨</t>
     <rPh sb="0" eb="1">
@@ -4965,6 +4965,74 @@
       </rPr>
       <t>（2019）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA企业债-Baa企业债风险利差</t>
+    <rPh sb="3" eb="4">
+      <t>qi ye zhai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi ye zhai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>feng xian li cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险利差升高代表着资本市场对于风险的厌恶，股市倾向于下跌；风险利差收缩代表着资本市场对于风险偏好提升。</t>
+    <rPh sb="0" eb="1">
+      <t>feng xian li cha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai biao zhe</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi ben shi chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dui yu feng xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gu shi qing xiang yu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xia die</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>feng xian li cha</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shou suo</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dai biao zhe</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zi ben shi chang</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dui yu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>feng xian</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>pian hao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ti sheng</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5216,17 +5284,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5234,10 +5302,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5522,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q243" workbookViewId="0">
-      <selection activeCell="X269" sqref="X269"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5712,7 +5780,7 @@
       <c r="Y3" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="49" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5770,7 +5838,7 @@
       <c r="Y4" t="s">
         <v>428</v>
       </c>
-      <c r="Z4" s="46"/>
+      <c r="Z4" s="49"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
@@ -5826,7 +5894,7 @@
       <c r="Y5" t="s">
         <v>428</v>
       </c>
-      <c r="Z5" s="49"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
@@ -5882,27 +5950,27 @@
       <c r="Y6" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="Z6" s="49"/>
+      <c r="Z6" s="44"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -5914,24 +5982,24 @@
       <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -6148,73 +6216,73 @@
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="43" t="s">
         <v>369</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="43" t="s">
         <v>368</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="43" t="s">
         <v>358</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="43" t="s">
         <v>359</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="43" t="s">
         <v>360</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="50" t="s">
+      <c r="M15" s="43" t="s">
         <v>361</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="43" t="s">
         <v>362</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="50" t="s">
+      <c r="Q15" s="43" t="s">
         <v>363</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="S15" s="43" t="s">
         <v>365</v>
       </c>
       <c r="T15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="43" t="s">
         <v>366</v>
       </c>
       <c r="V15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W15" s="50" t="s">
+      <c r="W15" s="43" t="s">
         <v>367</v>
       </c>
       <c r="X15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="50" t="s">
+      <c r="Y15" s="43" t="s">
         <v>370</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -6228,51 +6296,51 @@
       <c r="B16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="49"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="49"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="49"/>
+      <c r="O16" s="44"/>
       <c r="P16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="49"/>
+      <c r="Q16" s="44"/>
       <c r="R16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="49"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="49"/>
+      <c r="U16" s="44"/>
       <c r="V16" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W16" s="49"/>
+      <c r="W16" s="44"/>
       <c r="X16" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y16" s="49"/>
+      <c r="Y16" s="44"/>
       <c r="Z16" s="2" t="s">
         <v>354</v>
       </c>
@@ -6284,51 +6352,51 @@
       <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="49"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="49"/>
+      <c r="O17" s="44"/>
       <c r="P17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="44"/>
       <c r="R17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="49"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="49"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W17" s="49"/>
+      <c r="W17" s="44"/>
       <c r="X17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y17" s="49"/>
+      <c r="Y17" s="44"/>
       <c r="Z17" s="2" t="s">
         <v>357</v>
       </c>
@@ -6340,51 +6408,51 @@
       <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="49"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="49"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="49"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="49"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="S18" s="49"/>
+      <c r="S18" s="44"/>
       <c r="T18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="49"/>
+      <c r="U18" s="44"/>
       <c r="V18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="49"/>
+      <c r="W18" s="44"/>
       <c r="X18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y18" s="49"/>
+      <c r="Y18" s="44"/>
       <c r="Z18" s="2" t="s">
         <v>209</v>
       </c>
@@ -6396,51 +6464,51 @@
       <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="49"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="49"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="49"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="49"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="49"/>
+      <c r="Q19" s="44"/>
       <c r="R19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="49"/>
+      <c r="S19" s="44"/>
       <c r="T19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="49"/>
+      <c r="U19" s="44"/>
       <c r="V19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="44"/>
       <c r="X19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y19" s="49"/>
+      <c r="Y19" s="44"/>
       <c r="Z19" s="2" t="s">
         <v>210</v>
       </c>
@@ -6452,51 +6520,51 @@
       <c r="B20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="49"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="49"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="49"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="49"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="49"/>
+      <c r="S20" s="44"/>
       <c r="T20" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="49"/>
+      <c r="U20" s="44"/>
       <c r="V20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="49"/>
+      <c r="W20" s="44"/>
       <c r="X20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y20" s="49"/>
+      <c r="Y20" s="44"/>
       <c r="Z20" s="11" t="s">
         <v>227</v>
       </c>
@@ -6508,51 +6576,51 @@
       <c r="B21" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="49"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="49"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="49"/>
+      <c r="O21" s="44"/>
       <c r="P21" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q21" s="49"/>
+      <c r="Q21" s="44"/>
       <c r="R21" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S21" s="49"/>
+      <c r="S21" s="44"/>
       <c r="T21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="49"/>
+      <c r="U21" s="44"/>
       <c r="V21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W21" s="49"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y21" s="49"/>
+      <c r="Y21" s="44"/>
       <c r="Z21" s="11" t="s">
         <v>229</v>
       </c>
@@ -6564,51 +6632,51 @@
       <c r="B22" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="49"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="49"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="49"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O22" s="49"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="49"/>
+      <c r="Q22" s="44"/>
       <c r="R22" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S22" s="49"/>
+      <c r="S22" s="44"/>
       <c r="T22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U22" s="49"/>
+      <c r="U22" s="44"/>
       <c r="V22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="49"/>
+      <c r="W22" s="44"/>
       <c r="X22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y22" s="49"/>
+      <c r="Y22" s="44"/>
       <c r="Z22" s="11" t="s">
         <v>236</v>
       </c>
@@ -6620,51 +6688,51 @@
       <c r="B23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="49"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="49"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="49"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O23" s="49"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="44"/>
       <c r="R23" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="49"/>
+      <c r="S23" s="44"/>
       <c r="T23" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U23" s="49"/>
+      <c r="U23" s="44"/>
       <c r="V23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W23" s="49"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y23" s="49"/>
+      <c r="Y23" s="44"/>
       <c r="Z23" s="11" t="s">
         <v>231</v>
       </c>
@@ -6676,51 +6744,51 @@
       <c r="B24" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="49"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="49"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="49"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O24" s="49"/>
+      <c r="O24" s="44"/>
       <c r="P24" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="49"/>
+      <c r="Q24" s="44"/>
       <c r="R24" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S24" s="49"/>
+      <c r="S24" s="44"/>
       <c r="T24" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U24" s="49"/>
+      <c r="U24" s="44"/>
       <c r="V24" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W24" s="49"/>
+      <c r="W24" s="44"/>
       <c r="X24" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y24" s="49"/>
+      <c r="Y24" s="44"/>
       <c r="Z24" s="6" t="s">
         <v>232</v>
       </c>
@@ -6732,51 +6800,51 @@
       <c r="B25" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="49"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M25" s="49"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O25" s="49"/>
+      <c r="O25" s="44"/>
       <c r="P25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q25" s="49"/>
+      <c r="Q25" s="44"/>
       <c r="R25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="49"/>
+      <c r="S25" s="44"/>
       <c r="T25" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="49"/>
+      <c r="U25" s="44"/>
       <c r="V25" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="44"/>
       <c r="X25" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y25" s="49"/>
+      <c r="Y25" s="44"/>
       <c r="Z25" s="14" t="s">
         <v>233</v>
       </c>
@@ -6788,51 +6856,51 @@
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="49"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M26" s="49"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O26" s="49"/>
+      <c r="O26" s="44"/>
       <c r="P26" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" s="49"/>
+      <c r="Q26" s="44"/>
       <c r="R26" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="49"/>
+      <c r="S26" s="44"/>
       <c r="T26" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U26" s="49"/>
+      <c r="U26" s="44"/>
       <c r="V26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W26" s="49"/>
+      <c r="W26" s="44"/>
       <c r="X26" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y26" s="49"/>
+      <c r="Y26" s="44"/>
       <c r="Z26" s="15" t="s">
         <v>234</v>
       </c>
@@ -6844,51 +6912,51 @@
       <c r="B27" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="49"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="44"/>
       <c r="N27" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O27" s="49"/>
+      <c r="O27" s="44"/>
       <c r="P27" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="49"/>
+      <c r="Q27" s="44"/>
       <c r="R27" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="49"/>
+      <c r="S27" s="44"/>
       <c r="T27" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U27" s="49"/>
+      <c r="U27" s="44"/>
       <c r="V27" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W27" s="49"/>
+      <c r="W27" s="44"/>
       <c r="X27" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y27" s="49"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
@@ -7102,73 +7170,73 @@
       <c r="B33" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="43" t="s">
         <v>369</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="43" t="s">
         <v>368</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="43" t="s">
         <v>358</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="43" t="s">
         <v>359</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="43" t="s">
         <v>360</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="M33" s="43" t="s">
         <v>361</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="43" t="s">
         <v>362</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="50" t="s">
+      <c r="Q33" s="43" t="s">
         <v>363</v>
       </c>
       <c r="R33" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S33" s="50" t="s">
+      <c r="S33" s="43" t="s">
         <v>365</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="50" t="s">
+      <c r="U33" s="43" t="s">
         <v>366</v>
       </c>
       <c r="V33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W33" s="50" t="s">
+      <c r="W33" s="43" t="s">
         <v>367</v>
       </c>
       <c r="X33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y33" s="50" t="s">
+      <c r="Y33" s="43" t="s">
         <v>370</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -7182,51 +7250,51 @@
       <c r="B34" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="49"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="49"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="49"/>
+      <c r="I34" s="44"/>
       <c r="J34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="49"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="49"/>
+      <c r="M34" s="44"/>
       <c r="N34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="49"/>
+      <c r="O34" s="44"/>
       <c r="P34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q34" s="49"/>
+      <c r="Q34" s="44"/>
       <c r="R34" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="49"/>
+      <c r="S34" s="44"/>
       <c r="T34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="49"/>
+      <c r="U34" s="44"/>
       <c r="V34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="49"/>
+      <c r="W34" s="44"/>
       <c r="X34" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y34" s="49"/>
+      <c r="Y34" s="44"/>
       <c r="Z34" s="2" t="s">
         <v>354</v>
       </c>
@@ -7238,51 +7306,51 @@
       <c r="B35" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="49"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="49"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="49"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="49"/>
+      <c r="M35" s="44"/>
       <c r="N35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O35" s="49"/>
+      <c r="O35" s="44"/>
       <c r="P35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q35" s="49"/>
+      <c r="Q35" s="44"/>
       <c r="R35" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S35" s="49"/>
+      <c r="S35" s="44"/>
       <c r="T35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U35" s="49"/>
+      <c r="U35" s="44"/>
       <c r="V35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W35" s="49"/>
+      <c r="W35" s="44"/>
       <c r="X35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y35" s="49"/>
+      <c r="Y35" s="44"/>
       <c r="Z35" s="2" t="s">
         <v>357</v>
       </c>
@@ -7294,51 +7362,51 @@
       <c r="B36" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="49"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="49"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="49"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="44"/>
       <c r="N36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="49"/>
+      <c r="O36" s="44"/>
       <c r="P36" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="49"/>
+      <c r="Q36" s="44"/>
       <c r="R36" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="S36" s="49"/>
+      <c r="S36" s="44"/>
       <c r="T36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="49"/>
+      <c r="U36" s="44"/>
       <c r="V36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="49"/>
+      <c r="W36" s="44"/>
       <c r="X36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y36" s="49"/>
+      <c r="Y36" s="44"/>
       <c r="Z36" s="2" t="s">
         <v>209</v>
       </c>
@@ -7350,51 +7418,51 @@
       <c r="B37" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="49"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="49"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="49"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="49"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="49"/>
+      <c r="M37" s="44"/>
       <c r="N37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O37" s="49"/>
+      <c r="O37" s="44"/>
       <c r="P37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="49"/>
+      <c r="Q37" s="44"/>
       <c r="R37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S37" s="49"/>
+      <c r="S37" s="44"/>
       <c r="T37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="49"/>
+      <c r="U37" s="44"/>
       <c r="V37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W37" s="49"/>
+      <c r="W37" s="44"/>
       <c r="X37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y37" s="49"/>
+      <c r="Y37" s="44"/>
       <c r="Z37" s="2" t="s">
         <v>210</v>
       </c>
@@ -7406,51 +7474,51 @@
       <c r="B38" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="49"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="49"/>
+      <c r="I38" s="44"/>
       <c r="J38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="49"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="49"/>
+      <c r="M38" s="44"/>
       <c r="N38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O38" s="49"/>
+      <c r="O38" s="44"/>
       <c r="P38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q38" s="49"/>
+      <c r="Q38" s="44"/>
       <c r="R38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="49"/>
+      <c r="S38" s="44"/>
       <c r="T38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U38" s="49"/>
+      <c r="U38" s="44"/>
       <c r="V38" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W38" s="49"/>
+      <c r="W38" s="44"/>
       <c r="X38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y38" s="49"/>
+      <c r="Y38" s="44"/>
       <c r="Z38" s="11" t="s">
         <v>227</v>
       </c>
@@ -7462,51 +7530,51 @@
       <c r="B39" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="49"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="49"/>
+      <c r="I39" s="44"/>
       <c r="J39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K39" s="49"/>
+      <c r="K39" s="44"/>
       <c r="L39" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M39" s="49"/>
+      <c r="M39" s="44"/>
       <c r="N39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="49"/>
+      <c r="O39" s="44"/>
       <c r="P39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q39" s="49"/>
+      <c r="Q39" s="44"/>
       <c r="R39" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S39" s="49"/>
+      <c r="S39" s="44"/>
       <c r="T39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="49"/>
+      <c r="U39" s="44"/>
       <c r="V39" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W39" s="49"/>
+      <c r="W39" s="44"/>
       <c r="X39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y39" s="49"/>
+      <c r="Y39" s="44"/>
       <c r="Z39" s="11" t="s">
         <v>229</v>
       </c>
@@ -7518,51 +7586,51 @@
       <c r="B40" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="49"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="49"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="49"/>
+      <c r="K40" s="44"/>
       <c r="L40" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M40" s="49"/>
+      <c r="M40" s="44"/>
       <c r="N40" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="49"/>
+      <c r="O40" s="44"/>
       <c r="P40" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q40" s="49"/>
+      <c r="Q40" s="44"/>
       <c r="R40" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S40" s="49"/>
+      <c r="S40" s="44"/>
       <c r="T40" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U40" s="49"/>
+      <c r="U40" s="44"/>
       <c r="V40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W40" s="49"/>
+      <c r="W40" s="44"/>
       <c r="X40" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y40" s="49"/>
+      <c r="Y40" s="44"/>
       <c r="Z40" s="11" t="s">
         <v>236</v>
       </c>
@@ -7574,51 +7642,51 @@
       <c r="B41" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="49"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="49"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="49"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="49"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M41" s="49"/>
+      <c r="M41" s="44"/>
       <c r="N41" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O41" s="49"/>
+      <c r="O41" s="44"/>
       <c r="P41" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q41" s="49"/>
+      <c r="Q41" s="44"/>
       <c r="R41" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S41" s="49"/>
+      <c r="S41" s="44"/>
       <c r="T41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U41" s="49"/>
+      <c r="U41" s="44"/>
       <c r="V41" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="49"/>
+      <c r="W41" s="44"/>
       <c r="X41" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y41" s="49"/>
+      <c r="Y41" s="44"/>
       <c r="Z41" s="11" t="s">
         <v>231</v>
       </c>
@@ -7630,51 +7698,51 @@
       <c r="B42" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="49"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="49"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="49"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="49"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="49"/>
+      <c r="M42" s="44"/>
       <c r="N42" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="49"/>
+      <c r="O42" s="44"/>
       <c r="P42" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q42" s="49"/>
+      <c r="Q42" s="44"/>
       <c r="R42" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S42" s="49"/>
+      <c r="S42" s="44"/>
       <c r="T42" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U42" s="49"/>
+      <c r="U42" s="44"/>
       <c r="V42" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W42" s="49"/>
+      <c r="W42" s="44"/>
       <c r="X42" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y42" s="49"/>
+      <c r="Y42" s="44"/>
       <c r="Z42" s="6" t="s">
         <v>232</v>
       </c>
@@ -7686,51 +7754,51 @@
       <c r="B43" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="49"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="49"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="49"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="49"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M43" s="49"/>
+      <c r="M43" s="44"/>
       <c r="N43" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O43" s="49"/>
+      <c r="O43" s="44"/>
       <c r="P43" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q43" s="49"/>
+      <c r="Q43" s="44"/>
       <c r="R43" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S43" s="49"/>
+      <c r="S43" s="44"/>
       <c r="T43" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U43" s="49"/>
+      <c r="U43" s="44"/>
       <c r="V43" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W43" s="49"/>
+      <c r="W43" s="44"/>
       <c r="X43" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y43" s="49"/>
+      <c r="Y43" s="44"/>
       <c r="Z43" s="14" t="s">
         <v>233</v>
       </c>
@@ -7742,51 +7810,51 @@
       <c r="B44" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="49"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="49"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="49"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K44" s="49"/>
+      <c r="K44" s="44"/>
       <c r="L44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M44" s="49"/>
+      <c r="M44" s="44"/>
       <c r="N44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O44" s="49"/>
+      <c r="O44" s="44"/>
       <c r="P44" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q44" s="49"/>
+      <c r="Q44" s="44"/>
       <c r="R44" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S44" s="49"/>
+      <c r="S44" s="44"/>
       <c r="T44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U44" s="49"/>
+      <c r="U44" s="44"/>
       <c r="V44" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W44" s="49"/>
+      <c r="W44" s="44"/>
       <c r="X44" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y44" s="49"/>
+      <c r="Y44" s="44"/>
       <c r="Z44" s="15" t="s">
         <v>234</v>
       </c>
@@ -7798,51 +7866,51 @@
       <c r="B45" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="49"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G45" s="49"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="49"/>
+      <c r="I45" s="44"/>
       <c r="J45" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="49"/>
+      <c r="K45" s="44"/>
       <c r="L45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M45" s="49"/>
+      <c r="M45" s="44"/>
       <c r="N45" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O45" s="49"/>
+      <c r="O45" s="44"/>
       <c r="P45" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q45" s="49"/>
+      <c r="Q45" s="44"/>
       <c r="R45" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S45" s="49"/>
+      <c r="S45" s="44"/>
       <c r="T45" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U45" s="49"/>
+      <c r="U45" s="44"/>
       <c r="V45" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W45" s="49"/>
+      <c r="W45" s="44"/>
       <c r="X45" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y45" s="49"/>
+      <c r="Y45" s="44"/>
     </row>
     <row r="46" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
@@ -8216,23 +8284,23 @@
       <c r="A57" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
     </row>
@@ -8240,23 +8308,23 @@
       <c r="A58" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
     </row>
@@ -8264,23 +8332,23 @@
       <c r="A59" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
     </row>
@@ -8288,23 +8356,23 @@
       <c r="A60" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
@@ -8312,28 +8380,33 @@
       <c r="A61" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B62" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
@@ -8378,7 +8451,7 @@
       <c r="X68">
         <v>4.5</v>
       </c>
-      <c r="Z68" s="45" t="s">
+      <c r="Z68" s="50" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8422,7 +8495,7 @@
       <c r="X69">
         <v>-0.5</v>
       </c>
-      <c r="Z69" s="45"/>
+      <c r="Z69" s="50"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -8465,10 +8538,10 @@
       <c r="X70">
         <v>-5</v>
       </c>
-      <c r="Z70" s="44"/>
+      <c r="Z70" s="46"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z71" s="44"/>
+      <c r="Z71" s="46"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -14539,11 +14612,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="W33:W45"/>
-    <mergeCell ref="Y33:Y45"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="B57:P57"/>
-    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="Z68:Z71"/>
+    <mergeCell ref="B58:P58"/>
+    <mergeCell ref="B59:P59"/>
+    <mergeCell ref="B60:P60"/>
+    <mergeCell ref="B61:P61"/>
     <mergeCell ref="Z3:Z6"/>
     <mergeCell ref="C15:C27"/>
     <mergeCell ref="E15:E27"/>
@@ -14558,11 +14631,11 @@
     <mergeCell ref="W15:W27"/>
     <mergeCell ref="Y15:Y27"/>
     <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Z68:Z71"/>
-    <mergeCell ref="B58:P58"/>
-    <mergeCell ref="B59:P59"/>
-    <mergeCell ref="B60:P60"/>
-    <mergeCell ref="B61:P61"/>
+    <mergeCell ref="W33:W45"/>
+    <mergeCell ref="Y33:Y45"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="B57:P57"/>
+    <mergeCell ref="B1:X1"/>
     <mergeCell ref="C33:C45"/>
     <mergeCell ref="E33:E45"/>
     <mergeCell ref="G33:G45"/>

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2019宏观经济数据  " sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="667">
   <si>
     <t>涨</t>
     <rPh sb="0" eb="1">
@@ -5609,6 +5609,58 @@
   </si>
   <si>
     <t>50700（10.7）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.8(-23.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.9(-13.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.3(-22.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.8(-15.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.1(-17.8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.7(-20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.9(-17.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.3(-21.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.4(-2.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.3(-4.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.1(0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.6(-10.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.8(-16.1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5872,29 +5924,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6178,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z269"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="X147" sqref="X147"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6213,31 +6265,31 @@
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
       <c r="Y1" s="23"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -6368,7 +6420,7 @@
       <c r="Y3" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="53" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6426,7 +6478,7 @@
       <c r="Y4" t="s">
         <v>428</v>
       </c>
-      <c r="Z4" s="50"/>
+      <c r="Z4" s="53"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
@@ -6482,7 +6534,7 @@
       <c r="Y5" t="s">
         <v>428</v>
       </c>
-      <c r="Z5" s="51"/>
+      <c r="Z5" s="48"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
@@ -6538,27 +6590,27 @@
       <c r="Y6" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="Z6" s="51"/>
+      <c r="Z6" s="48"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -6573,21 +6625,21 @@
       <c r="A8" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -6804,73 +6856,73 @@
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="47" t="s">
         <v>369</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="47" t="s">
         <v>368</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="47" t="s">
         <v>358</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="47" t="s">
         <v>359</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="47" t="s">
         <v>360</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="47" t="s">
         <v>361</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="47" t="s">
         <v>362</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="47" t="s">
         <v>363</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="47" t="s">
         <v>365</v>
       </c>
       <c r="T15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="52" t="s">
+      <c r="U15" s="47" t="s">
         <v>366</v>
       </c>
       <c r="V15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W15" s="52" t="s">
+      <c r="W15" s="47" t="s">
         <v>367</v>
       </c>
       <c r="X15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="52" t="s">
+      <c r="Y15" s="47" t="s">
         <v>370</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -6884,51 +6936,51 @@
       <c r="B16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="51"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="51"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="51"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="51"/>
+      <c r="Q16" s="48"/>
       <c r="R16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="51"/>
+      <c r="S16" s="48"/>
       <c r="T16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="51"/>
+      <c r="U16" s="48"/>
       <c r="V16" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W16" s="51"/>
+      <c r="W16" s="48"/>
       <c r="X16" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y16" s="51"/>
+      <c r="Y16" s="48"/>
       <c r="Z16" s="2" t="s">
         <v>354</v>
       </c>
@@ -6940,51 +6992,51 @@
       <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="51"/>
+      <c r="O17" s="48"/>
       <c r="P17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="51"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="51"/>
+      <c r="S17" s="48"/>
       <c r="T17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="51"/>
+      <c r="U17" s="48"/>
       <c r="V17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W17" s="51"/>
+      <c r="W17" s="48"/>
       <c r="X17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y17" s="51"/>
+      <c r="Y17" s="48"/>
       <c r="Z17" s="2" t="s">
         <v>357</v>
       </c>
@@ -6996,51 +7048,51 @@
       <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="51"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="51"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="51"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="S18" s="51"/>
+      <c r="S18" s="48"/>
       <c r="T18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="51"/>
+      <c r="U18" s="48"/>
       <c r="V18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="51"/>
+      <c r="W18" s="48"/>
       <c r="X18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y18" s="51"/>
+      <c r="Y18" s="48"/>
       <c r="Z18" s="2" t="s">
         <v>209</v>
       </c>
@@ -7052,51 +7104,51 @@
       <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="51"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="48"/>
       <c r="N19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="51"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="51"/>
+      <c r="Q19" s="48"/>
       <c r="R19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="51"/>
+      <c r="S19" s="48"/>
       <c r="T19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="51"/>
+      <c r="U19" s="48"/>
       <c r="V19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W19" s="51"/>
+      <c r="W19" s="48"/>
       <c r="X19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y19" s="51"/>
+      <c r="Y19" s="48"/>
       <c r="Z19" s="2" t="s">
         <v>210</v>
       </c>
@@ -7108,51 +7160,51 @@
       <c r="B20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="51"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="51"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="51"/>
+      <c r="Q20" s="48"/>
       <c r="R20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="51"/>
+      <c r="S20" s="48"/>
       <c r="T20" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="51"/>
+      <c r="U20" s="48"/>
       <c r="V20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="51"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y20" s="51"/>
+      <c r="Y20" s="48"/>
       <c r="Z20" s="11" t="s">
         <v>227</v>
       </c>
@@ -7164,51 +7216,51 @@
       <c r="B21" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="51"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="51"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="48"/>
       <c r="N21" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="51"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q21" s="51"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S21" s="51"/>
+      <c r="S21" s="48"/>
       <c r="T21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="51"/>
+      <c r="U21" s="48"/>
       <c r="V21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W21" s="51"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y21" s="51"/>
+      <c r="Y21" s="48"/>
       <c r="Z21" s="11" t="s">
         <v>229</v>
       </c>
@@ -7220,51 +7272,51 @@
       <c r="B22" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="51"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="48"/>
       <c r="N22" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O22" s="51"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="51"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S22" s="51"/>
+      <c r="S22" s="48"/>
       <c r="T22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U22" s="51"/>
+      <c r="U22" s="48"/>
       <c r="V22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="51"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y22" s="51"/>
+      <c r="Y22" s="48"/>
       <c r="Z22" s="11" t="s">
         <v>236</v>
       </c>
@@ -7276,51 +7328,51 @@
       <c r="B23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="51"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="48"/>
       <c r="N23" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O23" s="51"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q23" s="51"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="51"/>
+      <c r="S23" s="48"/>
       <c r="T23" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U23" s="51"/>
+      <c r="U23" s="48"/>
       <c r="V23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W23" s="51"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y23" s="51"/>
+      <c r="Y23" s="48"/>
       <c r="Z23" s="11" t="s">
         <v>231</v>
       </c>
@@ -7332,51 +7384,51 @@
       <c r="B24" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="51"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="51"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="48"/>
       <c r="N24" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O24" s="51"/>
+      <c r="O24" s="48"/>
       <c r="P24" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="51"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S24" s="51"/>
+      <c r="S24" s="48"/>
       <c r="T24" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U24" s="51"/>
+      <c r="U24" s="48"/>
       <c r="V24" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W24" s="51"/>
+      <c r="W24" s="48"/>
       <c r="X24" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y24" s="51"/>
+      <c r="Y24" s="48"/>
       <c r="Z24" s="6" t="s">
         <v>232</v>
       </c>
@@ -7388,51 +7440,51 @@
       <c r="B25" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="51"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="48"/>
       <c r="N25" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O25" s="51"/>
+      <c r="O25" s="48"/>
       <c r="P25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q25" s="51"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="51"/>
+      <c r="S25" s="48"/>
       <c r="T25" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="51"/>
+      <c r="U25" s="48"/>
       <c r="V25" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W25" s="51"/>
+      <c r="W25" s="48"/>
       <c r="X25" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y25" s="51"/>
+      <c r="Y25" s="48"/>
       <c r="Z25" s="14" t="s">
         <v>233</v>
       </c>
@@ -7444,51 +7496,51 @@
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="51"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O26" s="51"/>
+      <c r="O26" s="48"/>
       <c r="P26" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" s="51"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="51"/>
+      <c r="S26" s="48"/>
       <c r="T26" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U26" s="51"/>
+      <c r="U26" s="48"/>
       <c r="V26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W26" s="51"/>
+      <c r="W26" s="48"/>
       <c r="X26" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y26" s="51"/>
+      <c r="Y26" s="48"/>
       <c r="Z26" s="15" t="s">
         <v>234</v>
       </c>
@@ -7500,51 +7552,51 @@
       <c r="B27" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="51"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="51"/>
+      <c r="M27" s="48"/>
       <c r="N27" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O27" s="51"/>
+      <c r="O27" s="48"/>
       <c r="P27" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="51"/>
+      <c r="Q27" s="48"/>
       <c r="R27" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="51"/>
+      <c r="S27" s="48"/>
       <c r="T27" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U27" s="51"/>
+      <c r="U27" s="48"/>
       <c r="V27" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W27" s="51"/>
+      <c r="W27" s="48"/>
       <c r="X27" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y27" s="51"/>
+      <c r="Y27" s="48"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
@@ -7758,73 +7810,73 @@
       <c r="B33" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="47" t="s">
         <v>369</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="47" t="s">
         <v>368</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="47" t="s">
         <v>358</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="47" t="s">
         <v>359</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="47" t="s">
         <v>360</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="47" t="s">
         <v>361</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="O33" s="47" t="s">
         <v>362</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="47" t="s">
         <v>363</v>
       </c>
       <c r="R33" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S33" s="52" t="s">
+      <c r="S33" s="47" t="s">
         <v>365</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="52" t="s">
+      <c r="U33" s="47" t="s">
         <v>366</v>
       </c>
       <c r="V33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W33" s="52" t="s">
+      <c r="W33" s="47" t="s">
         <v>367</v>
       </c>
       <c r="X33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y33" s="52" t="s">
+      <c r="Y33" s="47" t="s">
         <v>370</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -7838,51 +7890,51 @@
       <c r="B34" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="51"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="51"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="51"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="48"/>
       <c r="N34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="51"/>
+      <c r="O34" s="48"/>
       <c r="P34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q34" s="51"/>
+      <c r="Q34" s="48"/>
       <c r="R34" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="51"/>
+      <c r="S34" s="48"/>
       <c r="T34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="51"/>
+      <c r="U34" s="48"/>
       <c r="V34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="51"/>
+      <c r="W34" s="48"/>
       <c r="X34" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y34" s="51"/>
+      <c r="Y34" s="48"/>
       <c r="Z34" s="2" t="s">
         <v>354</v>
       </c>
@@ -7894,51 +7946,51 @@
       <c r="B35" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="51"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="51"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="51"/>
+      <c r="K35" s="48"/>
       <c r="L35" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="48"/>
       <c r="N35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O35" s="51"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q35" s="51"/>
+      <c r="Q35" s="48"/>
       <c r="R35" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S35" s="51"/>
+      <c r="S35" s="48"/>
       <c r="T35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U35" s="51"/>
+      <c r="U35" s="48"/>
       <c r="V35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W35" s="51"/>
+      <c r="W35" s="48"/>
       <c r="X35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y35" s="51"/>
+      <c r="Y35" s="48"/>
       <c r="Z35" s="2" t="s">
         <v>357</v>
       </c>
@@ -7950,51 +8002,51 @@
       <c r="B36" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="51"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="51"/>
+      <c r="I36" s="48"/>
       <c r="J36" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="51"/>
+      <c r="K36" s="48"/>
       <c r="L36" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="48"/>
       <c r="N36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="51"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="51"/>
+      <c r="Q36" s="48"/>
       <c r="R36" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="S36" s="51"/>
+      <c r="S36" s="48"/>
       <c r="T36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="51"/>
+      <c r="U36" s="48"/>
       <c r="V36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="51"/>
+      <c r="W36" s="48"/>
       <c r="X36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y36" s="51"/>
+      <c r="Y36" s="48"/>
       <c r="Z36" s="2" t="s">
         <v>209</v>
       </c>
@@ -8006,51 +8058,51 @@
       <c r="B37" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="51"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="51"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="48"/>
       <c r="N37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O37" s="51"/>
+      <c r="O37" s="48"/>
       <c r="P37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="51"/>
+      <c r="Q37" s="48"/>
       <c r="R37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S37" s="51"/>
+      <c r="S37" s="48"/>
       <c r="T37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="51"/>
+      <c r="U37" s="48"/>
       <c r="V37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W37" s="51"/>
+      <c r="W37" s="48"/>
       <c r="X37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y37" s="51"/>
+      <c r="Y37" s="48"/>
       <c r="Z37" s="2" t="s">
         <v>210</v>
       </c>
@@ -8062,51 +8114,51 @@
       <c r="B38" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="51"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="51"/>
+      <c r="K38" s="48"/>
       <c r="L38" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="51"/>
+      <c r="M38" s="48"/>
       <c r="N38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O38" s="51"/>
+      <c r="O38" s="48"/>
       <c r="P38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q38" s="51"/>
+      <c r="Q38" s="48"/>
       <c r="R38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="51"/>
+      <c r="S38" s="48"/>
       <c r="T38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U38" s="51"/>
+      <c r="U38" s="48"/>
       <c r="V38" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W38" s="51"/>
+      <c r="W38" s="48"/>
       <c r="X38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y38" s="51"/>
+      <c r="Y38" s="48"/>
       <c r="Z38" s="11" t="s">
         <v>227</v>
       </c>
@@ -8118,51 +8170,51 @@
       <c r="B39" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="51"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="51"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K39" s="51"/>
+      <c r="K39" s="48"/>
       <c r="L39" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M39" s="51"/>
+      <c r="M39" s="48"/>
       <c r="N39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="51"/>
+      <c r="O39" s="48"/>
       <c r="P39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q39" s="51"/>
+      <c r="Q39" s="48"/>
       <c r="R39" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S39" s="51"/>
+      <c r="S39" s="48"/>
       <c r="T39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="51"/>
+      <c r="U39" s="48"/>
       <c r="V39" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W39" s="51"/>
+      <c r="W39" s="48"/>
       <c r="X39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y39" s="51"/>
+      <c r="Y39" s="48"/>
       <c r="Z39" s="11" t="s">
         <v>229</v>
       </c>
@@ -8174,51 +8226,51 @@
       <c r="B40" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="51"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="51"/>
+      <c r="I40" s="48"/>
       <c r="J40" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="51"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="48"/>
       <c r="N40" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="51"/>
+      <c r="O40" s="48"/>
       <c r="P40" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q40" s="51"/>
+      <c r="Q40" s="48"/>
       <c r="R40" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S40" s="51"/>
+      <c r="S40" s="48"/>
       <c r="T40" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U40" s="51"/>
+      <c r="U40" s="48"/>
       <c r="V40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W40" s="51"/>
+      <c r="W40" s="48"/>
       <c r="X40" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y40" s="51"/>
+      <c r="Y40" s="48"/>
       <c r="Z40" s="11" t="s">
         <v>236</v>
       </c>
@@ -8230,51 +8282,51 @@
       <c r="B41" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="51"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="51"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="51"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M41" s="51"/>
+      <c r="M41" s="48"/>
       <c r="N41" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="48"/>
       <c r="P41" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q41" s="51"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S41" s="51"/>
+      <c r="S41" s="48"/>
       <c r="T41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U41" s="51"/>
+      <c r="U41" s="48"/>
       <c r="V41" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="51"/>
+      <c r="W41" s="48"/>
       <c r="X41" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y41" s="51"/>
+      <c r="Y41" s="48"/>
       <c r="Z41" s="11" t="s">
         <v>231</v>
       </c>
@@ -8286,51 +8338,51 @@
       <c r="B42" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="51"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="51"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="51"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="51"/>
+      <c r="M42" s="48"/>
       <c r="N42" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="51"/>
+      <c r="O42" s="48"/>
       <c r="P42" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q42" s="51"/>
+      <c r="Q42" s="48"/>
       <c r="R42" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S42" s="51"/>
+      <c r="S42" s="48"/>
       <c r="T42" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U42" s="51"/>
+      <c r="U42" s="48"/>
       <c r="V42" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W42" s="51"/>
+      <c r="W42" s="48"/>
       <c r="X42" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y42" s="51"/>
+      <c r="Y42" s="48"/>
       <c r="Z42" s="6" t="s">
         <v>232</v>
       </c>
@@ -8342,51 +8394,51 @@
       <c r="B43" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="51"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="51"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M43" s="51"/>
+      <c r="M43" s="48"/>
       <c r="N43" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O43" s="51"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q43" s="51"/>
+      <c r="Q43" s="48"/>
       <c r="R43" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S43" s="51"/>
+      <c r="S43" s="48"/>
       <c r="T43" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U43" s="51"/>
+      <c r="U43" s="48"/>
       <c r="V43" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W43" s="51"/>
+      <c r="W43" s="48"/>
       <c r="X43" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y43" s="51"/>
+      <c r="Y43" s="48"/>
       <c r="Z43" s="14" t="s">
         <v>233</v>
       </c>
@@ -8398,51 +8450,51 @@
       <c r="B44" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="51"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="51"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K44" s="51"/>
+      <c r="K44" s="48"/>
       <c r="L44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M44" s="51"/>
+      <c r="M44" s="48"/>
       <c r="N44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O44" s="51"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q44" s="51"/>
+      <c r="Q44" s="48"/>
       <c r="R44" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S44" s="51"/>
+      <c r="S44" s="48"/>
       <c r="T44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U44" s="51"/>
+      <c r="U44" s="48"/>
       <c r="V44" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W44" s="51"/>
+      <c r="W44" s="48"/>
       <c r="X44" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y44" s="51"/>
+      <c r="Y44" s="48"/>
       <c r="Z44" s="15" t="s">
         <v>234</v>
       </c>
@@ -8454,51 +8506,51 @@
       <c r="B45" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G45" s="51"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="51"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="51"/>
+      <c r="K45" s="48"/>
       <c r="L45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M45" s="51"/>
+      <c r="M45" s="48"/>
       <c r="N45" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O45" s="51"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q45" s="51"/>
+      <c r="Q45" s="48"/>
       <c r="R45" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S45" s="51"/>
+      <c r="S45" s="48"/>
       <c r="T45" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U45" s="51"/>
+      <c r="U45" s="48"/>
       <c r="V45" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W45" s="51"/>
+      <c r="W45" s="48"/>
       <c r="X45" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y45" s="51"/>
+      <c r="Y45" s="48"/>
     </row>
     <row r="46" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
@@ -8875,20 +8927,20 @@
       <c r="B57" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
     </row>
@@ -8899,20 +8951,20 @@
       <c r="B58" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
     </row>
@@ -8920,23 +8972,23 @@
       <c r="A59" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
     </row>
@@ -8944,23 +8996,23 @@
       <c r="A60" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
@@ -8968,23 +9020,23 @@
       <c r="A61" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
@@ -8998,6 +9050,42 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" t="s">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s">
+        <v>41</v>
+      </c>
+      <c r="X67" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
@@ -9039,7 +9127,7 @@
       <c r="X68">
         <v>4.5</v>
       </c>
-      <c r="Z68" s="47" t="s">
+      <c r="Z68" s="54" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9083,7 +9171,7 @@
       <c r="X69">
         <v>-0.5</v>
       </c>
-      <c r="Z69" s="47"/>
+      <c r="Z69" s="54"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -9126,10 +9214,10 @@
       <c r="X70">
         <v>-5</v>
       </c>
-      <c r="Z70" s="48"/>
+      <c r="Z70" s="50"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z71" s="48"/>
+      <c r="Z71" s="50"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -15242,6 +15330,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="Z68:Z71"/>
+    <mergeCell ref="B58:P58"/>
+    <mergeCell ref="B59:P59"/>
+    <mergeCell ref="B60:P60"/>
+    <mergeCell ref="B61:P61"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="C15:C27"/>
+    <mergeCell ref="E15:E27"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="I15:I27"/>
+    <mergeCell ref="K15:K27"/>
+    <mergeCell ref="M15:M27"/>
+    <mergeCell ref="O15:O27"/>
+    <mergeCell ref="Q15:Q27"/>
+    <mergeCell ref="S15:S27"/>
+    <mergeCell ref="U15:U27"/>
+    <mergeCell ref="W15:W27"/>
+    <mergeCell ref="Y15:Y27"/>
+    <mergeCell ref="A8:P8"/>
     <mergeCell ref="W33:W45"/>
     <mergeCell ref="Y33:Y45"/>
     <mergeCell ref="A7:P7"/>
@@ -15257,25 +15364,6 @@
     <mergeCell ref="Q33:Q45"/>
     <mergeCell ref="S33:S45"/>
     <mergeCell ref="U33:U45"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="C15:C27"/>
-    <mergeCell ref="E15:E27"/>
-    <mergeCell ref="G15:G27"/>
-    <mergeCell ref="I15:I27"/>
-    <mergeCell ref="K15:K27"/>
-    <mergeCell ref="M15:M27"/>
-    <mergeCell ref="O15:O27"/>
-    <mergeCell ref="Q15:Q27"/>
-    <mergeCell ref="S15:S27"/>
-    <mergeCell ref="U15:U27"/>
-    <mergeCell ref="W15:W27"/>
-    <mergeCell ref="Y15:Y27"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Z68:Z71"/>
-    <mergeCell ref="B58:P58"/>
-    <mergeCell ref="B59:P59"/>
-    <mergeCell ref="B60:P60"/>
-    <mergeCell ref="B61:P61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15286,8 +15374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15299,31 +15387,31 @@
       <c r="A1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
       <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -15430,7 +15518,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3" s="43"/>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="53" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15463,7 +15551,7 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="Y4"/>
-      <c r="Z4" s="50"/>
+      <c r="Z4" s="53"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
@@ -15494,7 +15582,7 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="Y5"/>
-      <c r="Z5" s="51"/>
+      <c r="Z5" s="48"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="44" t="s">
@@ -15524,27 +15612,27 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="Z6" s="51"/>
+      <c r="Z6" s="48"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>566</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -15559,21 +15647,21 @@
       <c r="A8" s="49" t="s">
         <v>650</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -15745,7 +15833,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="34">
-        <v>49.2</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F13" s="34">
         <v>50.5</v>
@@ -15786,7 +15874,7 @@
         <v>-0.2</v>
       </c>
       <c r="D14" s="10">
-        <v>-0.3</v>
+        <v>-14.3</v>
       </c>
       <c r="F14" s="10">
         <v>1.3</v>
@@ -15831,31 +15919,33 @@
       <c r="B16" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E16" s="47"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="52"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="52"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="52"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="52"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="52"/>
+      <c r="S16" s="47"/>
       <c r="T16" s="20"/>
-      <c r="U16" s="52"/>
+      <c r="U16" s="47"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="52"/>
+      <c r="W16" s="47"/>
       <c r="X16" s="22"/>
-      <c r="Y16" s="52"/>
+      <c r="Y16" s="47"/>
       <c r="Z16" s="2" t="s">
         <v>353</v>
       </c>
@@ -15867,29 +15957,31 @@
       <c r="B17" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="51"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="E17" s="48"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="51"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="51"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="51"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="51"/>
+      <c r="O17" s="48"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="51"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="51"/>
+      <c r="S17" s="48"/>
       <c r="T17" s="20"/>
-      <c r="U17" s="51"/>
+      <c r="U17" s="48"/>
       <c r="V17" s="22"/>
-      <c r="W17" s="51"/>
+      <c r="W17" s="48"/>
       <c r="X17" s="20"/>
-      <c r="Y17" s="51"/>
+      <c r="Y17" s="48"/>
       <c r="Z17" s="2" t="s">
         <v>354</v>
       </c>
@@ -15901,29 +15993,31 @@
       <c r="B18" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="51"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="E18" s="48"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="51"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="51"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="51"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="51"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="51"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="51"/>
+      <c r="S18" s="48"/>
       <c r="T18" s="20"/>
-      <c r="U18" s="51"/>
+      <c r="U18" s="48"/>
       <c r="V18" s="22"/>
-      <c r="W18" s="51"/>
+      <c r="W18" s="48"/>
       <c r="X18" s="20"/>
-      <c r="Y18" s="51"/>
+      <c r="Y18" s="48"/>
       <c r="Z18" s="2" t="s">
         <v>357</v>
       </c>
@@ -15935,29 +16029,31 @@
       <c r="B19" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="E19" s="48"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="51"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="51"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="51"/>
+      <c r="M19" s="48"/>
       <c r="N19" s="22"/>
-      <c r="O19" s="51"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="51"/>
+      <c r="Q19" s="48"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="51"/>
+      <c r="S19" s="48"/>
       <c r="T19" s="20"/>
-      <c r="U19" s="51"/>
+      <c r="U19" s="48"/>
       <c r="V19" s="24"/>
-      <c r="W19" s="51"/>
+      <c r="W19" s="48"/>
       <c r="X19" s="24"/>
-      <c r="Y19" s="51"/>
+      <c r="Y19" s="48"/>
       <c r="Z19" s="2" t="s">
         <v>209</v>
       </c>
@@ -15969,29 +16065,31 @@
       <c r="B20" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="51"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E20" s="48"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="51"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="51"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="51"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="51"/>
+      <c r="Q20" s="48"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="51"/>
+      <c r="S20" s="48"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="51"/>
+      <c r="U20" s="48"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="51"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="51"/>
+      <c r="Y20" s="48"/>
       <c r="Z20" s="2" t="s">
         <v>210</v>
       </c>
@@ -16003,29 +16101,31 @@
       <c r="B21" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="51"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E21" s="48"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="51"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="51"/>
+      <c r="M21" s="48"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="51"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="51"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="51"/>
+      <c r="S21" s="48"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="51"/>
+      <c r="U21" s="48"/>
       <c r="V21" s="18"/>
-      <c r="W21" s="51"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="18"/>
-      <c r="Y21" s="51"/>
+      <c r="Y21" s="48"/>
       <c r="Z21" s="11" t="s">
         <v>227</v>
       </c>
@@ -16037,29 +16137,31 @@
       <c r="B22" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="51"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="E22" s="48"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="51"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="51"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="51"/>
+      <c r="M22" s="48"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="51"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="13"/>
-      <c r="Q22" s="51"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="51"/>
+      <c r="S22" s="48"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="51"/>
+      <c r="U22" s="48"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="51"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="13"/>
-      <c r="Y22" s="51"/>
+      <c r="Y22" s="48"/>
       <c r="Z22" s="11" t="s">
         <v>229</v>
       </c>
@@ -16071,29 +16173,31 @@
       <c r="B23" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="51"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E23" s="48"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="51"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="51"/>
+      <c r="M23" s="48"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="51"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="51"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="51"/>
+      <c r="S23" s="48"/>
       <c r="T23" s="19"/>
-      <c r="U23" s="51"/>
+      <c r="U23" s="48"/>
       <c r="V23" s="18"/>
-      <c r="W23" s="51"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="18"/>
-      <c r="Y23" s="51"/>
+      <c r="Y23" s="48"/>
       <c r="Z23" s="11" t="s">
         <v>236</v>
       </c>
@@ -16105,29 +16209,31 @@
       <c r="B24" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E24" s="48"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="51"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="51"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="51"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="51"/>
+      <c r="M24" s="48"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="51"/>
+      <c r="O24" s="48"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="51"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="51"/>
+      <c r="S24" s="48"/>
       <c r="T24" s="19"/>
-      <c r="U24" s="51"/>
+      <c r="U24" s="48"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="51"/>
+      <c r="W24" s="48"/>
       <c r="X24" s="18"/>
-      <c r="Y24" s="51"/>
+      <c r="Y24" s="48"/>
       <c r="Z24" s="11" t="s">
         <v>231</v>
       </c>
@@ -16139,29 +16245,31 @@
       <c r="B25" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="51"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E25" s="48"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="51"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="51"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="51"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="51"/>
+      <c r="M25" s="48"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="51"/>
+      <c r="O25" s="48"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="51"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="51"/>
+      <c r="S25" s="48"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="51"/>
+      <c r="U25" s="48"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="51"/>
+      <c r="W25" s="48"/>
       <c r="X25" s="13"/>
-      <c r="Y25" s="51"/>
+      <c r="Y25" s="48"/>
       <c r="Z25" s="6" t="s">
         <v>232</v>
       </c>
@@ -16173,29 +16281,31 @@
       <c r="B26" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="51"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="48"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="51"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="51"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="51"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="51"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="51"/>
+      <c r="O26" s="48"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="51"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="19"/>
-      <c r="S26" s="51"/>
+      <c r="S26" s="48"/>
       <c r="T26" s="19"/>
-      <c r="U26" s="51"/>
+      <c r="U26" s="48"/>
       <c r="V26" s="19"/>
-      <c r="W26" s="51"/>
+      <c r="W26" s="48"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="51"/>
+      <c r="Y26" s="48"/>
       <c r="Z26" s="14" t="s">
         <v>233</v>
       </c>
@@ -16207,29 +16317,31 @@
       <c r="B27" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="51"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="48"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="51"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="51"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="51"/>
+      <c r="M27" s="48"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="51"/>
+      <c r="O27" s="48"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="51"/>
+      <c r="Q27" s="48"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="51"/>
+      <c r="S27" s="48"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="51"/>
+      <c r="U27" s="48"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="51"/>
+      <c r="W27" s="48"/>
       <c r="X27" s="13"/>
-      <c r="Y27" s="51"/>
+      <c r="Y27" s="48"/>
       <c r="Z27" s="15" t="s">
         <v>234</v>
       </c>
@@ -16241,29 +16353,31 @@
       <c r="B28" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E28" s="48"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="51"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="51"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="51"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="51"/>
+      <c r="M28" s="48"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="51"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="51"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="51"/>
+      <c r="S28" s="48"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="51"/>
+      <c r="U28" s="48"/>
       <c r="V28" s="13"/>
-      <c r="W28" s="51"/>
+      <c r="W28" s="48"/>
       <c r="X28" s="13"/>
-      <c r="Y28" s="51"/>
+      <c r="Y28" s="48"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
@@ -16314,6 +16428,9 @@
       <c r="B31">
         <v>51.1</v>
       </c>
+      <c r="D31">
+        <v>40.299999999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:26" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
@@ -16372,34 +16489,7 @@
         <v>51.9</v>
       </c>
       <c r="D34">
-        <v>51.1</v>
-      </c>
-      <c r="F34">
-        <v>54.4</v>
-      </c>
-      <c r="H34">
-        <v>54.5</v>
-      </c>
-      <c r="J34">
-        <v>52.7</v>
-      </c>
-      <c r="L34">
-        <v>52</v>
-      </c>
-      <c r="N34">
-        <v>51.6</v>
-      </c>
-      <c r="P34">
-        <v>52.1</v>
-      </c>
-      <c r="R34">
-        <v>51.3</v>
-      </c>
-      <c r="T34">
-        <v>51.1</v>
-      </c>
-      <c r="V34">
-        <v>53.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -16418,20 +16508,20 @@
       <c r="B37" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
     </row>
@@ -16442,20 +16532,20 @@
       <c r="B38" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
     </row>
@@ -16463,23 +16553,23 @@
       <c r="A39" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
     </row>
@@ -16487,23 +16577,23 @@
       <c r="A40" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
     </row>
@@ -16511,23 +16601,23 @@
       <c r="A41" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
     </row>
@@ -16541,48 +16631,54 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+      <c r="R47" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B48">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="D48">
-        <v>1.5</v>
-      </c>
-      <c r="F48">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H48">
-        <v>2.5</v>
-      </c>
-      <c r="J48">
-        <v>2.7</v>
-      </c>
-      <c r="L48">
-        <v>2.7</v>
-      </c>
-      <c r="N48">
-        <v>2.8</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="R48">
-        <v>3</v>
-      </c>
-      <c r="T48">
-        <v>3.8</v>
-      </c>
-      <c r="V48">
-        <v>4.5</v>
-      </c>
-      <c r="X48">
-        <v>4.5</v>
-      </c>
-      <c r="Z48" s="47" t="s">
+        <v>5.2</v>
+      </c>
+      <c r="Z48" s="54" t="s">
         <v>375</v>
       </c>
     </row>
@@ -16594,85 +16690,27 @@
         <v>0.1</v>
       </c>
       <c r="D49">
-        <v>0.1</v>
-      </c>
-      <c r="F49">
-        <v>0.4</v>
-      </c>
-      <c r="H49">
-        <v>0.9</v>
-      </c>
-      <c r="J49">
-        <v>0.6</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>-0.3</v>
-      </c>
-      <c r="P49">
-        <v>-0.8</v>
-      </c>
-      <c r="R49">
-        <v>-1.2</v>
-      </c>
-      <c r="T49">
-        <v>-1.6</v>
-      </c>
-      <c r="V49">
-        <v>-1.4</v>
-      </c>
-      <c r="X49">
-        <v>-0.5</v>
-      </c>
-      <c r="Z49" s="47"/>
+        <v>-0.4</v>
+      </c>
+      <c r="Z49" s="54"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B50" s="27">
-        <v>-1.6</v>
+        <f>B49-B48</f>
+        <v>-5.3000000000000007</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50">
-        <v>-1.4</v>
-      </c>
-      <c r="F50">
-        <v>-1.9</v>
-      </c>
-      <c r="H50">
-        <v>-1.6</v>
-      </c>
-      <c r="J50">
-        <v>-2.1</v>
-      </c>
-      <c r="L50">
-        <v>-2.7</v>
-      </c>
-      <c r="N50">
-        <v>-3.1</v>
-      </c>
-      <c r="P50">
-        <v>-3.6</v>
-      </c>
-      <c r="R50">
-        <v>-4.2</v>
-      </c>
-      <c r="T50">
-        <v>-5.4</v>
-      </c>
-      <c r="V50">
-        <v>-5.9</v>
-      </c>
-      <c r="X50">
-        <v>-5</v>
-      </c>
-      <c r="Z50" s="48"/>
+        <f>D49-D48</f>
+        <v>-5.6000000000000005</v>
+      </c>
+      <c r="Z50" s="50"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z51" s="48"/>
+      <c r="Z51" s="50"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -22749,16 +22787,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M16:M28"/>
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="E16:E28"/>
-    <mergeCell ref="G16:G28"/>
-    <mergeCell ref="I16:I28"/>
-    <mergeCell ref="K16:K28"/>
     <mergeCell ref="Z48:Z51"/>
     <mergeCell ref="O16:O28"/>
     <mergeCell ref="Q16:Q28"/>
@@ -22771,6 +22799,16 @@
     <mergeCell ref="B39:P39"/>
     <mergeCell ref="B40:P40"/>
     <mergeCell ref="B41:P41"/>
+    <mergeCell ref="M16:M28"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="E16:E28"/>
+    <mergeCell ref="G16:G28"/>
+    <mergeCell ref="I16:I28"/>
+    <mergeCell ref="K16:K28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2019宏观经济数据  " sheetId="1" r:id="rId1"/>
@@ -5924,29 +5924,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6230,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6265,31 +6265,31 @@
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
       <c r="Y1" s="23"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -6420,7 +6420,7 @@
       <c r="Y3" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="Z3" s="53" t="s">
+      <c r="Z3" s="50" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6478,7 +6478,7 @@
       <c r="Y4" t="s">
         <v>428</v>
       </c>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="50"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
@@ -6534,7 +6534,7 @@
       <c r="Y5" t="s">
         <v>428</v>
       </c>
-      <c r="Z5" s="48"/>
+      <c r="Z5" s="51"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
@@ -6590,27 +6590,27 @@
       <c r="Y6" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="Z6" s="48"/>
+      <c r="Z6" s="51"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -6625,21 +6625,21 @@
       <c r="A8" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -6856,73 +6856,73 @@
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="52" t="s">
         <v>369</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="52" t="s">
         <v>368</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="52" t="s">
         <v>358</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="52" t="s">
         <v>359</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="52" t="s">
         <v>360</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="52" t="s">
         <v>361</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="52" t="s">
         <v>362</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="52" t="s">
         <v>363</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S15" s="47" t="s">
+      <c r="S15" s="52" t="s">
         <v>365</v>
       </c>
       <c r="T15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="47" t="s">
+      <c r="U15" s="52" t="s">
         <v>366</v>
       </c>
       <c r="V15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W15" s="47" t="s">
+      <c r="W15" s="52" t="s">
         <v>367</v>
       </c>
       <c r="X15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="47" t="s">
+      <c r="Y15" s="52" t="s">
         <v>370</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -6936,51 +6936,51 @@
       <c r="B16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="48"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="48"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="48"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="48"/>
+      <c r="O16" s="51"/>
       <c r="P16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="48"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="48"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="48"/>
+      <c r="U16" s="51"/>
       <c r="V16" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W16" s="48"/>
+      <c r="W16" s="51"/>
       <c r="X16" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y16" s="48"/>
+      <c r="Y16" s="51"/>
       <c r="Z16" s="2" t="s">
         <v>354</v>
       </c>
@@ -6992,51 +6992,51 @@
       <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="48"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="48"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="48"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="48"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="48"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="48"/>
+      <c r="U17" s="51"/>
       <c r="V17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W17" s="48"/>
+      <c r="W17" s="51"/>
       <c r="X17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y17" s="48"/>
+      <c r="Y17" s="51"/>
       <c r="Z17" s="2" t="s">
         <v>357</v>
       </c>
@@ -7048,51 +7048,51 @@
       <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="48"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="48"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="48"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="48"/>
+      <c r="O18" s="51"/>
       <c r="P18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="48"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="S18" s="48"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="48"/>
+      <c r="U18" s="51"/>
       <c r="V18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="48"/>
+      <c r="W18" s="51"/>
       <c r="X18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y18" s="48"/>
+      <c r="Y18" s="51"/>
       <c r="Z18" s="2" t="s">
         <v>209</v>
       </c>
@@ -7104,51 +7104,51 @@
       <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="48"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="48"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="48"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="48"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="48"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="48"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="48"/>
+      <c r="U19" s="51"/>
       <c r="V19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W19" s="48"/>
+      <c r="W19" s="51"/>
       <c r="X19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y19" s="48"/>
+      <c r="Y19" s="51"/>
       <c r="Z19" s="2" t="s">
         <v>210</v>
       </c>
@@ -7160,51 +7160,51 @@
       <c r="B20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="48"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="48"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="48"/>
+      <c r="O20" s="51"/>
       <c r="P20" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="48"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="48"/>
+      <c r="S20" s="51"/>
       <c r="T20" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="48"/>
+      <c r="U20" s="51"/>
       <c r="V20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="48"/>
+      <c r="W20" s="51"/>
       <c r="X20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y20" s="48"/>
+      <c r="Y20" s="51"/>
       <c r="Z20" s="11" t="s">
         <v>227</v>
       </c>
@@ -7216,51 +7216,51 @@
       <c r="B21" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="48"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="48"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="48"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q21" s="48"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S21" s="48"/>
+      <c r="S21" s="51"/>
       <c r="T21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="48"/>
+      <c r="U21" s="51"/>
       <c r="V21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W21" s="48"/>
+      <c r="W21" s="51"/>
       <c r="X21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y21" s="48"/>
+      <c r="Y21" s="51"/>
       <c r="Z21" s="11" t="s">
         <v>229</v>
       </c>
@@ -7272,51 +7272,51 @@
       <c r="B22" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="48"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="48"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="48"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O22" s="48"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="48"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S22" s="48"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U22" s="48"/>
+      <c r="U22" s="51"/>
       <c r="V22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="48"/>
+      <c r="W22" s="51"/>
       <c r="X22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y22" s="48"/>
+      <c r="Y22" s="51"/>
       <c r="Z22" s="11" t="s">
         <v>236</v>
       </c>
@@ -7328,51 +7328,51 @@
       <c r="B23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="48"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="48"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O23" s="48"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q23" s="48"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="48"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U23" s="48"/>
+      <c r="U23" s="51"/>
       <c r="V23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W23" s="48"/>
+      <c r="W23" s="51"/>
       <c r="X23" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y23" s="48"/>
+      <c r="Y23" s="51"/>
       <c r="Z23" s="11" t="s">
         <v>231</v>
       </c>
@@ -7384,51 +7384,51 @@
       <c r="B24" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="48"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="48"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="48"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O24" s="48"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S24" s="48"/>
+      <c r="S24" s="51"/>
       <c r="T24" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U24" s="48"/>
+      <c r="U24" s="51"/>
       <c r="V24" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W24" s="48"/>
+      <c r="W24" s="51"/>
       <c r="X24" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y24" s="48"/>
+      <c r="Y24" s="51"/>
       <c r="Z24" s="6" t="s">
         <v>232</v>
       </c>
@@ -7440,51 +7440,51 @@
       <c r="B25" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="48"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="48"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M25" s="48"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O25" s="48"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q25" s="48"/>
+      <c r="Q25" s="51"/>
       <c r="R25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="48"/>
+      <c r="S25" s="51"/>
       <c r="T25" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="48"/>
+      <c r="U25" s="51"/>
       <c r="V25" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W25" s="48"/>
+      <c r="W25" s="51"/>
       <c r="X25" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y25" s="48"/>
+      <c r="Y25" s="51"/>
       <c r="Z25" s="14" t="s">
         <v>233</v>
       </c>
@@ -7496,51 +7496,51 @@
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="48"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="48"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O26" s="48"/>
+      <c r="O26" s="51"/>
       <c r="P26" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" s="48"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="48"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U26" s="48"/>
+      <c r="U26" s="51"/>
       <c r="V26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W26" s="48"/>
+      <c r="W26" s="51"/>
       <c r="X26" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y26" s="48"/>
+      <c r="Y26" s="51"/>
       <c r="Z26" s="15" t="s">
         <v>234</v>
       </c>
@@ -7552,51 +7552,51 @@
       <c r="B27" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="48"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="48"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="48"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="48"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O27" s="48"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="48"/>
+      <c r="Q27" s="51"/>
       <c r="R27" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="48"/>
+      <c r="S27" s="51"/>
       <c r="T27" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U27" s="48"/>
+      <c r="U27" s="51"/>
       <c r="V27" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W27" s="48"/>
+      <c r="W27" s="51"/>
       <c r="X27" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y27" s="48"/>
+      <c r="Y27" s="51"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
@@ -7810,73 +7810,73 @@
       <c r="B33" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="52" t="s">
         <v>369</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="52" t="s">
         <v>368</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="52" t="s">
         <v>358</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="52" t="s">
         <v>359</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="52" t="s">
         <v>360</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="52" t="s">
         <v>361</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="47" t="s">
+      <c r="O33" s="52" t="s">
         <v>362</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="47" t="s">
+      <c r="Q33" s="52" t="s">
         <v>363</v>
       </c>
       <c r="R33" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S33" s="47" t="s">
+      <c r="S33" s="52" t="s">
         <v>365</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="47" t="s">
+      <c r="U33" s="52" t="s">
         <v>366</v>
       </c>
       <c r="V33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W33" s="47" t="s">
+      <c r="W33" s="52" t="s">
         <v>367</v>
       </c>
       <c r="X33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y33" s="47" t="s">
+      <c r="Y33" s="52" t="s">
         <v>370</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -7890,51 +7890,51 @@
       <c r="B34" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="48"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="48"/>
+      <c r="I34" s="51"/>
       <c r="J34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="48"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="48"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="48"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q34" s="48"/>
+      <c r="Q34" s="51"/>
       <c r="R34" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="48"/>
+      <c r="S34" s="51"/>
       <c r="T34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="48"/>
+      <c r="U34" s="51"/>
       <c r="V34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="48"/>
+      <c r="W34" s="51"/>
       <c r="X34" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y34" s="48"/>
+      <c r="Y34" s="51"/>
       <c r="Z34" s="2" t="s">
         <v>354</v>
       </c>
@@ -7946,51 +7946,51 @@
       <c r="B35" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="48"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="48"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="48"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="48"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O35" s="48"/>
+      <c r="O35" s="51"/>
       <c r="P35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q35" s="48"/>
+      <c r="Q35" s="51"/>
       <c r="R35" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S35" s="48"/>
+      <c r="S35" s="51"/>
       <c r="T35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U35" s="48"/>
+      <c r="U35" s="51"/>
       <c r="V35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W35" s="48"/>
+      <c r="W35" s="51"/>
       <c r="X35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y35" s="48"/>
+      <c r="Y35" s="51"/>
       <c r="Z35" s="2" t="s">
         <v>357</v>
       </c>
@@ -8002,51 +8002,51 @@
       <c r="B36" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="48"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="48"/>
+      <c r="I36" s="51"/>
       <c r="J36" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="48"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="48"/>
+      <c r="M36" s="51"/>
       <c r="N36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="48"/>
+      <c r="O36" s="51"/>
       <c r="P36" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="48"/>
+      <c r="Q36" s="51"/>
       <c r="R36" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="S36" s="48"/>
+      <c r="S36" s="51"/>
       <c r="T36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="48"/>
+      <c r="U36" s="51"/>
       <c r="V36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="48"/>
+      <c r="W36" s="51"/>
       <c r="X36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y36" s="48"/>
+      <c r="Y36" s="51"/>
       <c r="Z36" s="2" t="s">
         <v>209</v>
       </c>
@@ -8058,51 +8058,51 @@
       <c r="B37" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="48"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="48"/>
+      <c r="I37" s="51"/>
       <c r="J37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="48"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="48"/>
+      <c r="M37" s="51"/>
       <c r="N37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O37" s="48"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="48"/>
+      <c r="Q37" s="51"/>
       <c r="R37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S37" s="48"/>
+      <c r="S37" s="51"/>
       <c r="T37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="48"/>
+      <c r="U37" s="51"/>
       <c r="V37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W37" s="48"/>
+      <c r="W37" s="51"/>
       <c r="X37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y37" s="48"/>
+      <c r="Y37" s="51"/>
       <c r="Z37" s="2" t="s">
         <v>210</v>
       </c>
@@ -8114,51 +8114,51 @@
       <c r="B38" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="48"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="48"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="48"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="48"/>
+      <c r="M38" s="51"/>
       <c r="N38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O38" s="48"/>
+      <c r="O38" s="51"/>
       <c r="P38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q38" s="48"/>
+      <c r="Q38" s="51"/>
       <c r="R38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="48"/>
+      <c r="S38" s="51"/>
       <c r="T38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U38" s="48"/>
+      <c r="U38" s="51"/>
       <c r="V38" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W38" s="48"/>
+      <c r="W38" s="51"/>
       <c r="X38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y38" s="48"/>
+      <c r="Y38" s="51"/>
       <c r="Z38" s="11" t="s">
         <v>227</v>
       </c>
@@ -8170,51 +8170,51 @@
       <c r="B39" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C39" s="48"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="48"/>
+      <c r="I39" s="51"/>
       <c r="J39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K39" s="48"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M39" s="48"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="48"/>
+      <c r="O39" s="51"/>
       <c r="P39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q39" s="48"/>
+      <c r="Q39" s="51"/>
       <c r="R39" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S39" s="48"/>
+      <c r="S39" s="51"/>
       <c r="T39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="48"/>
+      <c r="U39" s="51"/>
       <c r="V39" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W39" s="48"/>
+      <c r="W39" s="51"/>
       <c r="X39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y39" s="48"/>
+      <c r="Y39" s="51"/>
       <c r="Z39" s="11" t="s">
         <v>229</v>
       </c>
@@ -8226,51 +8226,51 @@
       <c r="B40" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="48"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="48"/>
+      <c r="I40" s="51"/>
       <c r="J40" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="48"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M40" s="48"/>
+      <c r="M40" s="51"/>
       <c r="N40" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="48"/>
+      <c r="O40" s="51"/>
       <c r="P40" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q40" s="48"/>
+      <c r="Q40" s="51"/>
       <c r="R40" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S40" s="48"/>
+      <c r="S40" s="51"/>
       <c r="T40" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U40" s="48"/>
+      <c r="U40" s="51"/>
       <c r="V40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W40" s="48"/>
+      <c r="W40" s="51"/>
       <c r="X40" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y40" s="48"/>
+      <c r="Y40" s="51"/>
       <c r="Z40" s="11" t="s">
         <v>236</v>
       </c>
@@ -8282,51 +8282,51 @@
       <c r="B41" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="48"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="48"/>
+      <c r="I41" s="51"/>
       <c r="J41" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="48"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M41" s="48"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O41" s="48"/>
+      <c r="O41" s="51"/>
       <c r="P41" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q41" s="48"/>
+      <c r="Q41" s="51"/>
       <c r="R41" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S41" s="48"/>
+      <c r="S41" s="51"/>
       <c r="T41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U41" s="48"/>
+      <c r="U41" s="51"/>
       <c r="V41" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="48"/>
+      <c r="W41" s="51"/>
       <c r="X41" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y41" s="48"/>
+      <c r="Y41" s="51"/>
       <c r="Z41" s="11" t="s">
         <v>231</v>
       </c>
@@ -8338,51 +8338,51 @@
       <c r="B42" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="48"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="48"/>
+      <c r="I42" s="51"/>
       <c r="J42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="48"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="48"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="48"/>
+      <c r="O42" s="51"/>
       <c r="P42" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q42" s="48"/>
+      <c r="Q42" s="51"/>
       <c r="R42" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S42" s="48"/>
+      <c r="S42" s="51"/>
       <c r="T42" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U42" s="48"/>
+      <c r="U42" s="51"/>
       <c r="V42" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W42" s="48"/>
+      <c r="W42" s="51"/>
       <c r="X42" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y42" s="48"/>
+      <c r="Y42" s="51"/>
       <c r="Z42" s="6" t="s">
         <v>232</v>
       </c>
@@ -8394,51 +8394,51 @@
       <c r="B43" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C43" s="48"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="48"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="48"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="48"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M43" s="48"/>
+      <c r="M43" s="51"/>
       <c r="N43" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O43" s="48"/>
+      <c r="O43" s="51"/>
       <c r="P43" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q43" s="48"/>
+      <c r="Q43" s="51"/>
       <c r="R43" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S43" s="48"/>
+      <c r="S43" s="51"/>
       <c r="T43" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U43" s="48"/>
+      <c r="U43" s="51"/>
       <c r="V43" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W43" s="48"/>
+      <c r="W43" s="51"/>
       <c r="X43" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y43" s="48"/>
+      <c r="Y43" s="51"/>
       <c r="Z43" s="14" t="s">
         <v>233</v>
       </c>
@@ -8450,51 +8450,51 @@
       <c r="B44" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="48"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="48"/>
+      <c r="I44" s="51"/>
       <c r="J44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K44" s="48"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M44" s="48"/>
+      <c r="M44" s="51"/>
       <c r="N44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O44" s="48"/>
+      <c r="O44" s="51"/>
       <c r="P44" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q44" s="48"/>
+      <c r="Q44" s="51"/>
       <c r="R44" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S44" s="48"/>
+      <c r="S44" s="51"/>
       <c r="T44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U44" s="48"/>
+      <c r="U44" s="51"/>
       <c r="V44" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W44" s="48"/>
+      <c r="W44" s="51"/>
       <c r="X44" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y44" s="48"/>
+      <c r="Y44" s="51"/>
       <c r="Z44" s="15" t="s">
         <v>234</v>
       </c>
@@ -8506,51 +8506,51 @@
       <c r="B45" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G45" s="48"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="48"/>
+      <c r="I45" s="51"/>
       <c r="J45" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="48"/>
+      <c r="K45" s="51"/>
       <c r="L45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M45" s="48"/>
+      <c r="M45" s="51"/>
       <c r="N45" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O45" s="48"/>
+      <c r="O45" s="51"/>
       <c r="P45" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q45" s="48"/>
+      <c r="Q45" s="51"/>
       <c r="R45" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S45" s="48"/>
+      <c r="S45" s="51"/>
       <c r="T45" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U45" s="48"/>
+      <c r="U45" s="51"/>
       <c r="V45" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W45" s="48"/>
+      <c r="W45" s="51"/>
       <c r="X45" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y45" s="48"/>
+      <c r="Y45" s="51"/>
     </row>
     <row r="46" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
@@ -8927,20 +8927,20 @@
       <c r="B57" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
     </row>
@@ -8951,20 +8951,20 @@
       <c r="B58" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
     </row>
@@ -8972,23 +8972,23 @@
       <c r="A59" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
     </row>
@@ -8996,23 +8996,23 @@
       <c r="A60" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
@@ -9020,23 +9020,23 @@
       <c r="A61" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="X68">
         <v>4.5</v>
       </c>
-      <c r="Z68" s="54" t="s">
+      <c r="Z68" s="47" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       <c r="X69">
         <v>-0.5</v>
       </c>
-      <c r="Z69" s="54"/>
+      <c r="Z69" s="47"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -9214,10 +9214,10 @@
       <c r="X70">
         <v>-5</v>
       </c>
-      <c r="Z70" s="50"/>
+      <c r="Z70" s="48"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z71" s="50"/>
+      <c r="Z71" s="48"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -15330,25 +15330,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Z68:Z71"/>
-    <mergeCell ref="B58:P58"/>
-    <mergeCell ref="B59:P59"/>
-    <mergeCell ref="B60:P60"/>
-    <mergeCell ref="B61:P61"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="C15:C27"/>
-    <mergeCell ref="E15:E27"/>
-    <mergeCell ref="G15:G27"/>
-    <mergeCell ref="I15:I27"/>
-    <mergeCell ref="K15:K27"/>
-    <mergeCell ref="M15:M27"/>
-    <mergeCell ref="O15:O27"/>
-    <mergeCell ref="Q15:Q27"/>
-    <mergeCell ref="S15:S27"/>
-    <mergeCell ref="U15:U27"/>
-    <mergeCell ref="W15:W27"/>
-    <mergeCell ref="Y15:Y27"/>
-    <mergeCell ref="A8:P8"/>
     <mergeCell ref="W33:W45"/>
     <mergeCell ref="Y33:Y45"/>
     <mergeCell ref="A7:P7"/>
@@ -15364,6 +15345,25 @@
     <mergeCell ref="Q33:Q45"/>
     <mergeCell ref="S33:S45"/>
     <mergeCell ref="U33:U45"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="C15:C27"/>
+    <mergeCell ref="E15:E27"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="I15:I27"/>
+    <mergeCell ref="K15:K27"/>
+    <mergeCell ref="M15:M27"/>
+    <mergeCell ref="O15:O27"/>
+    <mergeCell ref="Q15:Q27"/>
+    <mergeCell ref="S15:S27"/>
+    <mergeCell ref="U15:U27"/>
+    <mergeCell ref="W15:W27"/>
+    <mergeCell ref="Y15:Y27"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Z68:Z71"/>
+    <mergeCell ref="B58:P58"/>
+    <mergeCell ref="B59:P59"/>
+    <mergeCell ref="B60:P60"/>
+    <mergeCell ref="B61:P61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15374,8 +15374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z249"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15387,31 +15387,31 @@
       <c r="A1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
       <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -15518,7 +15518,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3" s="43"/>
-      <c r="Z3" s="53" t="s">
+      <c r="Z3" s="50" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15551,7 +15551,7 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="Y4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="50"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
@@ -15582,7 +15582,7 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="Y5"/>
-      <c r="Z5" s="48"/>
+      <c r="Z5" s="51"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="44" t="s">
@@ -15612,27 +15612,27 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="Z6" s="48"/>
+      <c r="Z6" s="51"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>566</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -15647,21 +15647,21 @@
       <c r="A8" s="49" t="s">
         <v>650</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -15919,33 +15919,33 @@
       <c r="B16" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="52" t="s">
         <v>369</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="47"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="47"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="47"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="47"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="47"/>
+      <c r="S16" s="52"/>
       <c r="T16" s="20"/>
-      <c r="U16" s="47"/>
+      <c r="U16" s="52"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="47"/>
+      <c r="W16" s="52"/>
       <c r="X16" s="22"/>
-      <c r="Y16" s="47"/>
+      <c r="Y16" s="52"/>
       <c r="Z16" s="2" t="s">
         <v>353</v>
       </c>
@@ -15957,31 +15957,31 @@
       <c r="B17" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="48"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="48"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="48"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="20"/>
-      <c r="U17" s="48"/>
+      <c r="U17" s="51"/>
       <c r="V17" s="22"/>
-      <c r="W17" s="48"/>
+      <c r="W17" s="51"/>
       <c r="X17" s="20"/>
-      <c r="Y17" s="48"/>
+      <c r="Y17" s="51"/>
       <c r="Z17" s="2" t="s">
         <v>354</v>
       </c>
@@ -15993,31 +15993,31 @@
       <c r="B18" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="48"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="48"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="51"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="48"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="48"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="20"/>
-      <c r="U18" s="48"/>
+      <c r="U18" s="51"/>
       <c r="V18" s="22"/>
-      <c r="W18" s="48"/>
+      <c r="W18" s="51"/>
       <c r="X18" s="20"/>
-      <c r="Y18" s="48"/>
+      <c r="Y18" s="51"/>
       <c r="Z18" s="2" t="s">
         <v>357</v>
       </c>
@@ -16029,31 +16029,31 @@
       <c r="B19" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="48"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="48"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="48"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="22"/>
-      <c r="O19" s="48"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="48"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="48"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="20"/>
-      <c r="U19" s="48"/>
+      <c r="U19" s="51"/>
       <c r="V19" s="24"/>
-      <c r="W19" s="48"/>
+      <c r="W19" s="51"/>
       <c r="X19" s="24"/>
-      <c r="Y19" s="48"/>
+      <c r="Y19" s="51"/>
       <c r="Z19" s="2" t="s">
         <v>209</v>
       </c>
@@ -16065,31 +16065,31 @@
       <c r="B20" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="48"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="48"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="48"/>
+      <c r="O20" s="51"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="48"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="48"/>
+      <c r="S20" s="51"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="48"/>
+      <c r="U20" s="51"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="48"/>
+      <c r="W20" s="51"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="48"/>
+      <c r="Y20" s="51"/>
       <c r="Z20" s="2" t="s">
         <v>210</v>
       </c>
@@ -16101,31 +16101,31 @@
       <c r="B21" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="48"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="48"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="48"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="48"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="48"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="48"/>
+      <c r="S21" s="51"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="48"/>
+      <c r="U21" s="51"/>
       <c r="V21" s="18"/>
-      <c r="W21" s="48"/>
+      <c r="W21" s="51"/>
       <c r="X21" s="18"/>
-      <c r="Y21" s="48"/>
+      <c r="Y21" s="51"/>
       <c r="Z21" s="11" t="s">
         <v>227</v>
       </c>
@@ -16137,31 +16137,31 @@
       <c r="B22" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="48"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="48"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="13"/>
-      <c r="Q22" s="48"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="48"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="48"/>
+      <c r="U22" s="51"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="48"/>
+      <c r="W22" s="51"/>
       <c r="X22" s="13"/>
-      <c r="Y22" s="48"/>
+      <c r="Y22" s="51"/>
       <c r="Z22" s="11" t="s">
         <v>229</v>
       </c>
@@ -16173,31 +16173,31 @@
       <c r="B23" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="48"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="48"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="48"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="48"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="48"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="19"/>
-      <c r="U23" s="48"/>
+      <c r="U23" s="51"/>
       <c r="V23" s="18"/>
-      <c r="W23" s="48"/>
+      <c r="W23" s="51"/>
       <c r="X23" s="18"/>
-      <c r="Y23" s="48"/>
+      <c r="Y23" s="51"/>
       <c r="Z23" s="11" t="s">
         <v>236</v>
       </c>
@@ -16209,31 +16209,31 @@
       <c r="B24" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="48"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="48"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="48"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="48"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="48"/>
+      <c r="S24" s="51"/>
       <c r="T24" s="19"/>
-      <c r="U24" s="48"/>
+      <c r="U24" s="51"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="48"/>
+      <c r="W24" s="51"/>
       <c r="X24" s="18"/>
-      <c r="Y24" s="48"/>
+      <c r="Y24" s="51"/>
       <c r="Z24" s="11" t="s">
         <v>231</v>
       </c>
@@ -16245,31 +16245,31 @@
       <c r="B25" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="48"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="48"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="48"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="48"/>
+      <c r="Q25" s="51"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="48"/>
+      <c r="S25" s="51"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="48"/>
+      <c r="U25" s="51"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="48"/>
+      <c r="W25" s="51"/>
       <c r="X25" s="13"/>
-      <c r="Y25" s="48"/>
+      <c r="Y25" s="51"/>
       <c r="Z25" s="6" t="s">
         <v>232</v>
       </c>
@@ -16281,31 +16281,31 @@
       <c r="B26" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="48"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="48"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="48"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="48"/>
+      <c r="O26" s="51"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="48"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="19"/>
-      <c r="S26" s="48"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="19"/>
-      <c r="U26" s="48"/>
+      <c r="U26" s="51"/>
       <c r="V26" s="19"/>
-      <c r="W26" s="48"/>
+      <c r="W26" s="51"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="48"/>
+      <c r="Y26" s="51"/>
       <c r="Z26" s="14" t="s">
         <v>233</v>
       </c>
@@ -16317,31 +16317,31 @@
       <c r="B27" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="E27" s="48"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="48"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="48"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="48"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="48"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="48"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="48"/>
+      <c r="Q27" s="51"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="48"/>
+      <c r="S27" s="51"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="48"/>
+      <c r="U27" s="51"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="48"/>
+      <c r="W27" s="51"/>
       <c r="X27" s="13"/>
-      <c r="Y27" s="48"/>
+      <c r="Y27" s="51"/>
       <c r="Z27" s="15" t="s">
         <v>234</v>
       </c>
@@ -16353,31 +16353,31 @@
       <c r="B28" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="48"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="48"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="48"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="51"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="48"/>
+      <c r="Q28" s="51"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="48"/>
+      <c r="S28" s="51"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="48"/>
+      <c r="U28" s="51"/>
       <c r="V28" s="13"/>
-      <c r="W28" s="48"/>
+      <c r="W28" s="51"/>
       <c r="X28" s="13"/>
-      <c r="Y28" s="48"/>
+      <c r="Y28" s="51"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
@@ -16508,20 +16508,20 @@
       <c r="B37" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
     </row>
@@ -16532,20 +16532,20 @@
       <c r="B38" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
     </row>
@@ -16553,23 +16553,23 @@
       <c r="A39" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
     </row>
@@ -16577,23 +16577,23 @@
       <c r="A40" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
     </row>
@@ -16601,23 +16601,23 @@
       <c r="A41" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
     </row>
@@ -16678,7 +16678,7 @@
       <c r="D48">
         <v>5.2</v>
       </c>
-      <c r="Z48" s="54" t="s">
+      <c r="Z48" s="47" t="s">
         <v>375</v>
       </c>
     </row>
@@ -16692,7 +16692,7 @@
       <c r="D49">
         <v>-0.4</v>
       </c>
-      <c r="Z49" s="54"/>
+      <c r="Z49" s="47"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -16707,10 +16707,10 @@
         <f>D49-D48</f>
         <v>-5.6000000000000005</v>
       </c>
-      <c r="Z50" s="50"/>
+      <c r="Z50" s="48"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z51" s="50"/>
+      <c r="Z51" s="48"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -16799,7 +16799,7 @@
         <v>571</v>
       </c>
       <c r="D54">
-        <v>5.3</v>
+        <v>-13.5</v>
       </c>
       <c r="F54">
         <v>8.5</v>
@@ -16953,7 +16953,7 @@
     <row r="59" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="35"/>
       <c r="D59" s="34">
-        <v>6.1</v>
+        <v>-24.5</v>
       </c>
       <c r="F59" s="34">
         <v>6.3</v>
@@ -16991,7 +16991,7 @@
         <v>576</v>
       </c>
       <c r="D60" s="2">
-        <v>-4.4000000000000004</v>
+        <v>-38.9</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2">
@@ -17040,7 +17040,7 @@
         <v>577</v>
       </c>
       <c r="D61" s="2">
-        <v>3</v>
+        <v>-35.1</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2">
@@ -17089,7 +17089,7 @@
         <v>578</v>
       </c>
       <c r="D62" s="2">
-        <v>17.8</v>
+        <v>-44</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
@@ -17138,7 +17138,7 @@
         <v>579</v>
       </c>
       <c r="D63" s="2">
-        <v>8.1</v>
+        <v>-33</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
@@ -17187,7 +17187,7 @@
         <v>580</v>
       </c>
       <c r="D64" s="2">
-        <v>10.5</v>
+        <v>-22.1</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
@@ -17236,7 +17236,7 @@
         <v>581</v>
       </c>
       <c r="D65" s="2">
-        <v>-10.6</v>
+        <v>-17.3</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
@@ -17285,7 +17285,7 @@
         <v>582</v>
       </c>
       <c r="D66" s="2">
-        <v>6.4</v>
+        <v>-38.1</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
@@ -17334,7 +17334,7 @@
         <v>583</v>
       </c>
       <c r="D67" s="2">
-        <v>12.7</v>
+        <v>-40.1</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2">
@@ -17383,7 +17383,7 @@
         <v>584</v>
       </c>
       <c r="D68" s="2">
-        <v>16.3</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
@@ -17432,7 +17432,7 @@
         <v>585</v>
       </c>
       <c r="D69" s="2">
-        <v>8.1</v>
+        <v>-41.1</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
@@ -17481,7 +17481,7 @@
         <v>586</v>
       </c>
       <c r="D70" s="2">
-        <v>-9.6999999999999993</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2">
@@ -17530,7 +17530,7 @@
         <v>587</v>
       </c>
       <c r="D71" s="2">
-        <v>-2.2000000000000002</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
@@ -17579,7 +17579,7 @@
         <v>588</v>
       </c>
       <c r="D72" s="2">
-        <v>-2.6</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
@@ -17628,7 +17628,7 @@
         <v>589</v>
       </c>
       <c r="D73" s="2">
-        <v>-1.4</v>
+        <v>-6.4</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
@@ -17677,7 +17677,7 @@
         <v>590</v>
       </c>
       <c r="D74" s="2">
-        <v>16.100000000000001</v>
+        <v>-23.1</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
@@ -17726,7 +17726,7 @@
         <v>591</v>
       </c>
       <c r="D75" s="2">
-        <v>4.3</v>
+        <v>-30.3</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
@@ -17960,7 +17960,7 @@
     <row r="84" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="35"/>
       <c r="D84" s="34">
-        <v>5.3</v>
+        <v>-13.5</v>
       </c>
       <c r="F84" s="34">
         <v>8.5</v>
@@ -17998,7 +17998,7 @@
         <v>593</v>
       </c>
       <c r="D85" s="2">
-        <v>6.3</v>
+        <v>-16</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
@@ -18047,7 +18047,7 @@
         <v>594</v>
       </c>
       <c r="D86" s="2">
-        <v>6</v>
+        <v>-18.2</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
@@ -18096,7 +18096,7 @@
         <v>595</v>
       </c>
       <c r="D87" s="2">
-        <v>0.2</v>
+        <v>-27.2</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
@@ -18145,7 +18145,7 @@
         <v>596</v>
       </c>
       <c r="D88">
-        <v>4.3</v>
+        <v>-12.3</v>
       </c>
       <c r="F88">
         <v>7.1</v>
@@ -18182,8 +18182,8 @@
       <c r="A89" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D89" s="2">
-        <v>5.9</v>
+      <c r="D89">
+        <v>-12.3</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
@@ -18232,7 +18232,7 @@
         <v>598</v>
       </c>
       <c r="D90" s="2">
-        <v>8.8000000000000007</v>
+        <v>-21.1</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
@@ -18281,7 +18281,7 @@
         <v>599</v>
       </c>
       <c r="D91" s="2">
-        <v>7.5</v>
+        <v>-2</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
@@ -18330,7 +18330,7 @@
         <v>600</v>
       </c>
       <c r="D92" s="2">
-        <v>9.3000000000000007</v>
+        <v>-8.5</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
@@ -18379,7 +18379,7 @@
         <v>601</v>
       </c>
       <c r="D93" s="2">
-        <v>8.5</v>
+        <v>-26.9</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2">
@@ -18428,7 +18428,7 @@
         <v>602</v>
       </c>
       <c r="D94" s="2">
-        <v>4.4000000000000004</v>
+        <v>-28.2</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
@@ -18477,7 +18477,7 @@
         <v>603</v>
       </c>
       <c r="D95" s="2">
-        <v>10</v>
+        <v>-24.4</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
@@ -18526,7 +18526,7 @@
         <v>604</v>
       </c>
       <c r="D96" s="2">
-        <v>-5.3</v>
+        <v>-31.8</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2">
@@ -18575,7 +18575,7 @@
         <v>605</v>
       </c>
       <c r="D97" s="2">
-        <v>7.9</v>
+        <v>-28.2</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2">
@@ -18624,7 +18624,7 @@
         <v>606</v>
       </c>
       <c r="D98" s="2">
-        <v>8</v>
+        <v>-24.7</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2">
@@ -18673,7 +18673,7 @@
         <v>607</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>-13.8</v>
       </c>
       <c r="F99">
         <v>10.199999999999999</v>
@@ -18711,7 +18711,7 @@
         <v>608</v>
       </c>
       <c r="D100" s="2">
-        <v>6.1</v>
+        <v>-7.3</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2">
@@ -22787,6 +22787,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="E16:E28"/>
+    <mergeCell ref="G16:G28"/>
+    <mergeCell ref="I16:I28"/>
+    <mergeCell ref="K16:K28"/>
     <mergeCell ref="Z48:Z51"/>
     <mergeCell ref="O16:O28"/>
     <mergeCell ref="Q16:Q28"/>
@@ -22800,15 +22809,6 @@
     <mergeCell ref="B40:P40"/>
     <mergeCell ref="B41:P41"/>
     <mergeCell ref="M16:M28"/>
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="E16:E28"/>
-    <mergeCell ref="G16:G28"/>
-    <mergeCell ref="I16:I28"/>
-    <mergeCell ref="K16:K28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -8313,23 +8313,18 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8337,16 +8332,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8355,6 +8348,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -8364,36 +8365,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9257,31 +9257,31 @@
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="125" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
       <c r="Y1" s="23"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -9412,7 +9412,7 @@
       <c r="Y3" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="Z3" s="123" t="s">
+      <c r="Z3" s="127" t="s">
         <v>216</v>
       </c>
     </row>
@@ -9470,7 +9470,7 @@
       <c r="Y4" t="s">
         <v>427</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="127"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
@@ -9526,7 +9526,7 @@
       <c r="Y5" t="s">
         <v>427</v>
       </c>
-      <c r="Z5" s="124"/>
+      <c r="Z5" s="122"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
@@ -9582,27 +9582,27 @@
       <c r="Y6" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="Z6" s="124"/>
+      <c r="Z6" s="122"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -9614,24 +9614,24 @@
       <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="123" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -9848,73 +9848,73 @@
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="121" t="s">
         <v>368</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="121" t="s">
         <v>367</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="125" t="s">
+      <c r="G15" s="121" t="s">
         <v>357</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="121" t="s">
         <v>358</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="125" t="s">
+      <c r="K15" s="121" t="s">
         <v>359</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="125" t="s">
+      <c r="M15" s="121" t="s">
         <v>360</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="125" t="s">
+      <c r="O15" s="121" t="s">
         <v>361</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="125" t="s">
+      <c r="Q15" s="121" t="s">
         <v>362</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S15" s="125" t="s">
+      <c r="S15" s="121" t="s">
         <v>364</v>
       </c>
       <c r="T15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="125" t="s">
+      <c r="U15" s="121" t="s">
         <v>365</v>
       </c>
       <c r="V15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W15" s="125" t="s">
+      <c r="W15" s="121" t="s">
         <v>366</v>
       </c>
       <c r="X15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="125" t="s">
+      <c r="Y15" s="121" t="s">
         <v>369</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -9928,51 +9928,51 @@
       <c r="B16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="124"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="124"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="124"/>
+      <c r="K16" s="122"/>
       <c r="L16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="124"/>
+      <c r="M16" s="122"/>
       <c r="N16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="124"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="124"/>
+      <c r="Q16" s="122"/>
       <c r="R16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="124"/>
+      <c r="S16" s="122"/>
       <c r="T16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="124"/>
+      <c r="U16" s="122"/>
       <c r="V16" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W16" s="124"/>
+      <c r="W16" s="122"/>
       <c r="X16" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="Y16" s="124"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="2" t="s">
         <v>353</v>
       </c>
@@ -9984,51 +9984,51 @@
       <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="124"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="124"/>
+      <c r="K17" s="122"/>
       <c r="L17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="124"/>
+      <c r="M17" s="122"/>
       <c r="N17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="124"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="124"/>
+      <c r="Q17" s="122"/>
       <c r="R17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="124"/>
+      <c r="S17" s="122"/>
       <c r="T17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="124"/>
+      <c r="U17" s="122"/>
       <c r="V17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W17" s="124"/>
+      <c r="W17" s="122"/>
       <c r="X17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y17" s="124"/>
+      <c r="Y17" s="122"/>
       <c r="Z17" s="2" t="s">
         <v>356</v>
       </c>
@@ -10040,51 +10040,51 @@
       <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="124"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="124"/>
+      <c r="K18" s="122"/>
       <c r="L18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="124"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="124"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="124"/>
+      <c r="Q18" s="122"/>
       <c r="R18" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="S18" s="124"/>
+      <c r="S18" s="122"/>
       <c r="T18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="124"/>
+      <c r="U18" s="122"/>
       <c r="V18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="124"/>
+      <c r="W18" s="122"/>
       <c r="X18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y18" s="124"/>
+      <c r="Y18" s="122"/>
       <c r="Z18" s="2" t="s">
         <v>209</v>
       </c>
@@ -10096,51 +10096,51 @@
       <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="124"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="124"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="124"/>
+      <c r="G19" s="122"/>
       <c r="H19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="124"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="124"/>
+      <c r="K19" s="122"/>
       <c r="L19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="124"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="124"/>
+      <c r="O19" s="122"/>
       <c r="P19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="124"/>
+      <c r="Q19" s="122"/>
       <c r="R19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="124"/>
+      <c r="S19" s="122"/>
       <c r="T19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="124"/>
+      <c r="U19" s="122"/>
       <c r="V19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W19" s="124"/>
+      <c r="W19" s="122"/>
       <c r="X19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y19" s="124"/>
+      <c r="Y19" s="122"/>
       <c r="Z19" s="2" t="s">
         <v>210</v>
       </c>
@@ -10152,51 +10152,51 @@
       <c r="B20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="124"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="124"/>
+      <c r="G20" s="122"/>
       <c r="H20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="122"/>
       <c r="J20" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="124"/>
+      <c r="K20" s="122"/>
       <c r="L20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="124"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="124"/>
+      <c r="O20" s="122"/>
       <c r="P20" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="124"/>
+      <c r="Q20" s="122"/>
       <c r="R20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="124"/>
+      <c r="S20" s="122"/>
       <c r="T20" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="124"/>
+      <c r="U20" s="122"/>
       <c r="V20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="124"/>
+      <c r="W20" s="122"/>
       <c r="X20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y20" s="124"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="11" t="s">
         <v>227</v>
       </c>
@@ -10208,51 +10208,51 @@
       <c r="B21" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="124"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="124"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="124"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="124"/>
+      <c r="I21" s="122"/>
       <c r="J21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="124"/>
+      <c r="K21" s="122"/>
       <c r="L21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="124"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="124"/>
+      <c r="O21" s="122"/>
       <c r="P21" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q21" s="124"/>
+      <c r="Q21" s="122"/>
       <c r="R21" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S21" s="124"/>
+      <c r="S21" s="122"/>
       <c r="T21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="124"/>
+      <c r="U21" s="122"/>
       <c r="V21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W21" s="124"/>
+      <c r="W21" s="122"/>
       <c r="X21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y21" s="124"/>
+      <c r="Y21" s="122"/>
       <c r="Z21" s="11" t="s">
         <v>229</v>
       </c>
@@ -10264,51 +10264,51 @@
       <c r="B22" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="124"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="124"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="124"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="122"/>
       <c r="J22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="124"/>
+      <c r="K22" s="122"/>
       <c r="L22" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="124"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O22" s="124"/>
+      <c r="O22" s="122"/>
       <c r="P22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="124"/>
+      <c r="Q22" s="122"/>
       <c r="R22" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S22" s="124"/>
+      <c r="S22" s="122"/>
       <c r="T22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U22" s="124"/>
+      <c r="U22" s="122"/>
       <c r="V22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="124"/>
+      <c r="W22" s="122"/>
       <c r="X22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y22" s="124"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="11" t="s">
         <v>236</v>
       </c>
@@ -10320,51 +10320,51 @@
       <c r="B23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="124"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="124"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="124"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="122"/>
       <c r="J23" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="124"/>
+      <c r="K23" s="122"/>
       <c r="L23" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="124"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O23" s="124"/>
+      <c r="O23" s="122"/>
       <c r="P23" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q23" s="124"/>
+      <c r="Q23" s="122"/>
       <c r="R23" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="124"/>
+      <c r="S23" s="122"/>
       <c r="T23" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U23" s="124"/>
+      <c r="U23" s="122"/>
       <c r="V23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W23" s="124"/>
+      <c r="W23" s="122"/>
       <c r="X23" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y23" s="124"/>
+      <c r="Y23" s="122"/>
       <c r="Z23" s="11" t="s">
         <v>231</v>
       </c>
@@ -10376,51 +10376,51 @@
       <c r="B24" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="124"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="124"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="124"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="122"/>
       <c r="J24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="124"/>
+      <c r="K24" s="122"/>
       <c r="L24" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="124"/>
+      <c r="M24" s="122"/>
       <c r="N24" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O24" s="124"/>
+      <c r="O24" s="122"/>
       <c r="P24" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="124"/>
+      <c r="Q24" s="122"/>
       <c r="R24" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S24" s="124"/>
+      <c r="S24" s="122"/>
       <c r="T24" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U24" s="124"/>
+      <c r="U24" s="122"/>
       <c r="V24" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W24" s="124"/>
+      <c r="W24" s="122"/>
       <c r="X24" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y24" s="124"/>
+      <c r="Y24" s="122"/>
       <c r="Z24" s="6" t="s">
         <v>232</v>
       </c>
@@ -10432,51 +10432,51 @@
       <c r="B25" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="124"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="124"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="124"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="124"/>
+      <c r="I25" s="122"/>
       <c r="J25" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="124"/>
+      <c r="K25" s="122"/>
       <c r="L25" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M25" s="124"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O25" s="124"/>
+      <c r="O25" s="122"/>
       <c r="P25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q25" s="124"/>
+      <c r="Q25" s="122"/>
       <c r="R25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="124"/>
+      <c r="S25" s="122"/>
       <c r="T25" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="124"/>
+      <c r="U25" s="122"/>
       <c r="V25" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W25" s="124"/>
+      <c r="W25" s="122"/>
       <c r="X25" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y25" s="124"/>
+      <c r="Y25" s="122"/>
       <c r="Z25" s="14" t="s">
         <v>233</v>
       </c>
@@ -10488,51 +10488,51 @@
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="124"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="124"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="124"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="122"/>
       <c r="J26" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="124"/>
+      <c r="K26" s="122"/>
       <c r="L26" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M26" s="124"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O26" s="124"/>
+      <c r="O26" s="122"/>
       <c r="P26" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" s="124"/>
+      <c r="Q26" s="122"/>
       <c r="R26" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="124"/>
+      <c r="S26" s="122"/>
       <c r="T26" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U26" s="124"/>
+      <c r="U26" s="122"/>
       <c r="V26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W26" s="124"/>
+      <c r="W26" s="122"/>
       <c r="X26" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y26" s="124"/>
+      <c r="Y26" s="122"/>
       <c r="Z26" s="15" t="s">
         <v>234</v>
       </c>
@@ -10544,51 +10544,51 @@
       <c r="B27" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="124"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="124"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="122"/>
       <c r="J27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="124"/>
+      <c r="K27" s="122"/>
       <c r="L27" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="124"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O27" s="124"/>
+      <c r="O27" s="122"/>
       <c r="P27" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="124"/>
+      <c r="Q27" s="122"/>
       <c r="R27" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="124"/>
+      <c r="S27" s="122"/>
       <c r="T27" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U27" s="124"/>
+      <c r="U27" s="122"/>
       <c r="V27" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W27" s="124"/>
+      <c r="W27" s="122"/>
       <c r="X27" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y27" s="124"/>
+      <c r="Y27" s="122"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
@@ -10802,73 +10802,73 @@
       <c r="B33" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="121" t="s">
         <v>368</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="125" t="s">
+      <c r="E33" s="121" t="s">
         <v>367</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="125" t="s">
+      <c r="G33" s="121" t="s">
         <v>357</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="125" t="s">
+      <c r="I33" s="121" t="s">
         <v>358</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="125" t="s">
+      <c r="K33" s="121" t="s">
         <v>359</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="125" t="s">
+      <c r="M33" s="121" t="s">
         <v>360</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="125" t="s">
+      <c r="O33" s="121" t="s">
         <v>361</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="125" t="s">
+      <c r="Q33" s="121" t="s">
         <v>362</v>
       </c>
       <c r="R33" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S33" s="125" t="s">
+      <c r="S33" s="121" t="s">
         <v>364</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="125" t="s">
+      <c r="U33" s="121" t="s">
         <v>365</v>
       </c>
       <c r="V33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W33" s="125" t="s">
+      <c r="W33" s="121" t="s">
         <v>366</v>
       </c>
       <c r="X33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y33" s="125" t="s">
+      <c r="Y33" s="121" t="s">
         <v>369</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -10882,51 +10882,51 @@
       <c r="B34" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="C34" s="124"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="124"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="124"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="124"/>
+      <c r="I34" s="122"/>
       <c r="J34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="124"/>
+      <c r="K34" s="122"/>
       <c r="L34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="124"/>
+      <c r="M34" s="122"/>
       <c r="N34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="124"/>
+      <c r="O34" s="122"/>
       <c r="P34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q34" s="124"/>
+      <c r="Q34" s="122"/>
       <c r="R34" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="124"/>
+      <c r="S34" s="122"/>
       <c r="T34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="124"/>
+      <c r="U34" s="122"/>
       <c r="V34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="124"/>
+      <c r="W34" s="122"/>
       <c r="X34" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="Y34" s="124"/>
+      <c r="Y34" s="122"/>
       <c r="Z34" s="2" t="s">
         <v>353</v>
       </c>
@@ -10938,51 +10938,51 @@
       <c r="B35" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="C35" s="124"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="124"/>
+      <c r="E35" s="122"/>
       <c r="F35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="124"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="124"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="124"/>
+      <c r="K35" s="122"/>
       <c r="L35" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="124"/>
+      <c r="M35" s="122"/>
       <c r="N35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O35" s="124"/>
+      <c r="O35" s="122"/>
       <c r="P35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q35" s="124"/>
+      <c r="Q35" s="122"/>
       <c r="R35" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="S35" s="124"/>
+      <c r="S35" s="122"/>
       <c r="T35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U35" s="124"/>
+      <c r="U35" s="122"/>
       <c r="V35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="W35" s="124"/>
+      <c r="W35" s="122"/>
       <c r="X35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y35" s="124"/>
+      <c r="Y35" s="122"/>
       <c r="Z35" s="2" t="s">
         <v>356</v>
       </c>
@@ -10994,51 +10994,51 @@
       <c r="B36" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="C36" s="124"/>
+      <c r="C36" s="122"/>
       <c r="D36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="124"/>
+      <c r="E36" s="122"/>
       <c r="F36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="124"/>
+      <c r="G36" s="122"/>
       <c r="H36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="124"/>
+      <c r="I36" s="122"/>
       <c r="J36" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="124"/>
+      <c r="K36" s="122"/>
       <c r="L36" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="124"/>
+      <c r="M36" s="122"/>
       <c r="N36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="124"/>
+      <c r="O36" s="122"/>
       <c r="P36" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="124"/>
+      <c r="Q36" s="122"/>
       <c r="R36" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="S36" s="124"/>
+      <c r="S36" s="122"/>
       <c r="T36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="124"/>
+      <c r="U36" s="122"/>
       <c r="V36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="124"/>
+      <c r="W36" s="122"/>
       <c r="X36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y36" s="124"/>
+      <c r="Y36" s="122"/>
       <c r="Z36" s="2" t="s">
         <v>209</v>
       </c>
@@ -11050,51 +11050,51 @@
       <c r="B37" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C37" s="124"/>
+      <c r="C37" s="122"/>
       <c r="D37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="124"/>
+      <c r="E37" s="122"/>
       <c r="F37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="124"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="124"/>
+      <c r="I37" s="122"/>
       <c r="J37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="124"/>
+      <c r="K37" s="122"/>
       <c r="L37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="124"/>
+      <c r="M37" s="122"/>
       <c r="N37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O37" s="124"/>
+      <c r="O37" s="122"/>
       <c r="P37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="124"/>
+      <c r="Q37" s="122"/>
       <c r="R37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S37" s="124"/>
+      <c r="S37" s="122"/>
       <c r="T37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="124"/>
+      <c r="U37" s="122"/>
       <c r="V37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W37" s="124"/>
+      <c r="W37" s="122"/>
       <c r="X37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y37" s="124"/>
+      <c r="Y37" s="122"/>
       <c r="Z37" s="2" t="s">
         <v>210</v>
       </c>
@@ -11106,51 +11106,51 @@
       <c r="B38" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="C38" s="124"/>
+      <c r="C38" s="122"/>
       <c r="D38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="124"/>
+      <c r="E38" s="122"/>
       <c r="F38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="124"/>
+      <c r="G38" s="122"/>
       <c r="H38" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="124"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="124"/>
+      <c r="K38" s="122"/>
       <c r="L38" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="124"/>
+      <c r="M38" s="122"/>
       <c r="N38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O38" s="124"/>
+      <c r="O38" s="122"/>
       <c r="P38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q38" s="124"/>
+      <c r="Q38" s="122"/>
       <c r="R38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="124"/>
+      <c r="S38" s="122"/>
       <c r="T38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U38" s="124"/>
+      <c r="U38" s="122"/>
       <c r="V38" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W38" s="124"/>
+      <c r="W38" s="122"/>
       <c r="X38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y38" s="124"/>
+      <c r="Y38" s="122"/>
       <c r="Z38" s="11" t="s">
         <v>227</v>
       </c>
@@ -11162,51 +11162,51 @@
       <c r="B39" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C39" s="124"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="124"/>
+      <c r="E39" s="122"/>
       <c r="F39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="124"/>
+      <c r="G39" s="122"/>
       <c r="H39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="124"/>
+      <c r="I39" s="122"/>
       <c r="J39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K39" s="124"/>
+      <c r="K39" s="122"/>
       <c r="L39" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M39" s="124"/>
+      <c r="M39" s="122"/>
       <c r="N39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="124"/>
+      <c r="O39" s="122"/>
       <c r="P39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q39" s="124"/>
+      <c r="Q39" s="122"/>
       <c r="R39" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S39" s="124"/>
+      <c r="S39" s="122"/>
       <c r="T39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="124"/>
+      <c r="U39" s="122"/>
       <c r="V39" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="W39" s="124"/>
+      <c r="W39" s="122"/>
       <c r="X39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Y39" s="124"/>
+      <c r="Y39" s="122"/>
       <c r="Z39" s="11" t="s">
         <v>229</v>
       </c>
@@ -11218,51 +11218,51 @@
       <c r="B40" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="C40" s="124"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="124"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="124"/>
+      <c r="G40" s="122"/>
       <c r="H40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="124"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="124"/>
+      <c r="K40" s="122"/>
       <c r="L40" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M40" s="124"/>
+      <c r="M40" s="122"/>
       <c r="N40" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="124"/>
+      <c r="O40" s="122"/>
       <c r="P40" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q40" s="124"/>
+      <c r="Q40" s="122"/>
       <c r="R40" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S40" s="124"/>
+      <c r="S40" s="122"/>
       <c r="T40" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="U40" s="124"/>
+      <c r="U40" s="122"/>
       <c r="V40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W40" s="124"/>
+      <c r="W40" s="122"/>
       <c r="X40" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y40" s="124"/>
+      <c r="Y40" s="122"/>
       <c r="Z40" s="11" t="s">
         <v>236</v>
       </c>
@@ -11274,51 +11274,51 @@
       <c r="B41" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="C41" s="124"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="124"/>
+      <c r="E41" s="122"/>
       <c r="F41" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="124"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="124"/>
+      <c r="I41" s="122"/>
       <c r="J41" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="124"/>
+      <c r="K41" s="122"/>
       <c r="L41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M41" s="124"/>
+      <c r="M41" s="122"/>
       <c r="N41" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="O41" s="124"/>
+      <c r="O41" s="122"/>
       <c r="P41" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q41" s="124"/>
+      <c r="Q41" s="122"/>
       <c r="R41" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S41" s="124"/>
+      <c r="S41" s="122"/>
       <c r="T41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U41" s="124"/>
+      <c r="U41" s="122"/>
       <c r="V41" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="124"/>
+      <c r="W41" s="122"/>
       <c r="X41" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Y41" s="124"/>
+      <c r="Y41" s="122"/>
       <c r="Z41" s="11" t="s">
         <v>231</v>
       </c>
@@ -11330,51 +11330,51 @@
       <c r="B42" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C42" s="124"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="124"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="124"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="124"/>
+      <c r="I42" s="122"/>
       <c r="J42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="124"/>
+      <c r="K42" s="122"/>
       <c r="L42" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="124"/>
+      <c r="M42" s="122"/>
       <c r="N42" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="124"/>
+      <c r="O42" s="122"/>
       <c r="P42" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q42" s="124"/>
+      <c r="Q42" s="122"/>
       <c r="R42" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S42" s="124"/>
+      <c r="S42" s="122"/>
       <c r="T42" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U42" s="124"/>
+      <c r="U42" s="122"/>
       <c r="V42" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W42" s="124"/>
+      <c r="W42" s="122"/>
       <c r="X42" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y42" s="124"/>
+      <c r="Y42" s="122"/>
       <c r="Z42" s="6" t="s">
         <v>232</v>
       </c>
@@ -11386,51 +11386,51 @@
       <c r="B43" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="C43" s="124"/>
+      <c r="C43" s="122"/>
       <c r="D43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="124"/>
+      <c r="E43" s="122"/>
       <c r="F43" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="124"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="124"/>
+      <c r="I43" s="122"/>
       <c r="J43" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="124"/>
+      <c r="K43" s="122"/>
       <c r="L43" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M43" s="124"/>
+      <c r="M43" s="122"/>
       <c r="N43" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O43" s="124"/>
+      <c r="O43" s="122"/>
       <c r="P43" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q43" s="124"/>
+      <c r="Q43" s="122"/>
       <c r="R43" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="S43" s="124"/>
+      <c r="S43" s="122"/>
       <c r="T43" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U43" s="124"/>
+      <c r="U43" s="122"/>
       <c r="V43" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="W43" s="124"/>
+      <c r="W43" s="122"/>
       <c r="X43" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y43" s="124"/>
+      <c r="Y43" s="122"/>
       <c r="Z43" s="14" t="s">
         <v>233</v>
       </c>
@@ -11442,51 +11442,51 @@
       <c r="B44" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C44" s="124"/>
+      <c r="C44" s="122"/>
       <c r="D44" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="124"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="124"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="124"/>
+      <c r="I44" s="122"/>
       <c r="J44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K44" s="124"/>
+      <c r="K44" s="122"/>
       <c r="L44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M44" s="124"/>
+      <c r="M44" s="122"/>
       <c r="N44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O44" s="124"/>
+      <c r="O44" s="122"/>
       <c r="P44" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Q44" s="124"/>
+      <c r="Q44" s="122"/>
       <c r="R44" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S44" s="124"/>
+      <c r="S44" s="122"/>
       <c r="T44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U44" s="124"/>
+      <c r="U44" s="122"/>
       <c r="V44" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="W44" s="124"/>
+      <c r="W44" s="122"/>
       <c r="X44" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Y44" s="124"/>
+      <c r="Y44" s="122"/>
       <c r="Z44" s="15" t="s">
         <v>234</v>
       </c>
@@ -11498,51 +11498,51 @@
       <c r="B45" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C45" s="124"/>
+      <c r="C45" s="122"/>
       <c r="D45" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="124"/>
+      <c r="E45" s="122"/>
       <c r="F45" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G45" s="124"/>
+      <c r="G45" s="122"/>
       <c r="H45" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="124"/>
+      <c r="I45" s="122"/>
       <c r="J45" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="124"/>
+      <c r="K45" s="122"/>
       <c r="L45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="M45" s="124"/>
+      <c r="M45" s="122"/>
       <c r="N45" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="O45" s="124"/>
+      <c r="O45" s="122"/>
       <c r="P45" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q45" s="124"/>
+      <c r="Q45" s="122"/>
       <c r="R45" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S45" s="124"/>
+      <c r="S45" s="122"/>
       <c r="T45" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U45" s="124"/>
+      <c r="U45" s="122"/>
       <c r="V45" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W45" s="124"/>
+      <c r="W45" s="122"/>
       <c r="X45" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y45" s="124"/>
+      <c r="Y45" s="122"/>
     </row>
     <row r="46" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
@@ -11916,23 +11916,23 @@
       <c r="A57" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="123" t="s">
         <v>429</v>
       </c>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="121"/>
-      <c r="K57" s="121"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="121"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="121"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
     </row>
@@ -11940,23 +11940,23 @@
       <c r="A58" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="B58" s="122" t="s">
+      <c r="B58" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121"/>
-      <c r="P58" s="121"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="124"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
     </row>
@@ -11964,23 +11964,23 @@
       <c r="A59" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="127" t="s">
         <v>383</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="128"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="128"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
     </row>
@@ -11988,23 +11988,23 @@
       <c r="A60" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="127" t="s">
         <v>386</v>
       </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="120"/>
-      <c r="K60" s="120"/>
-      <c r="L60" s="120"/>
-      <c r="M60" s="120"/>
-      <c r="N60" s="120"/>
-      <c r="O60" s="120"/>
-      <c r="P60" s="120"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
+      <c r="M60" s="128"/>
+      <c r="N60" s="128"/>
+      <c r="O60" s="128"/>
+      <c r="P60" s="128"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
@@ -12012,23 +12012,23 @@
       <c r="A61" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="127" t="s">
         <v>388</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="120"/>
-      <c r="L61" s="120"/>
-      <c r="M61" s="120"/>
-      <c r="N61" s="120"/>
-      <c r="O61" s="120"/>
-      <c r="P61" s="120"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="128"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="128"/>
+      <c r="O61" s="128"/>
+      <c r="P61" s="128"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
@@ -12119,7 +12119,7 @@
       <c r="X68">
         <v>4.5</v>
       </c>
-      <c r="Z68" s="120" t="s">
+      <c r="Z68" s="128" t="s">
         <v>374</v>
       </c>
     </row>
@@ -12163,7 +12163,7 @@
       <c r="X69">
         <v>-0.5</v>
       </c>
-      <c r="Z69" s="120"/>
+      <c r="Z69" s="128"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -12206,10 +12206,10 @@
       <c r="X70">
         <v>-5</v>
       </c>
-      <c r="Z70" s="121"/>
+      <c r="Z70" s="124"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z71" s="121"/>
+      <c r="Z71" s="124"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -18915,6 +18915,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="Z68:Z71"/>
+    <mergeCell ref="B58:P58"/>
+    <mergeCell ref="B59:P59"/>
+    <mergeCell ref="B60:P60"/>
+    <mergeCell ref="B61:P61"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="C15:C27"/>
+    <mergeCell ref="E15:E27"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="I15:I27"/>
+    <mergeCell ref="K15:K27"/>
+    <mergeCell ref="M15:M27"/>
+    <mergeCell ref="O15:O27"/>
+    <mergeCell ref="Q15:Q27"/>
+    <mergeCell ref="S15:S27"/>
+    <mergeCell ref="U15:U27"/>
+    <mergeCell ref="W15:W27"/>
+    <mergeCell ref="Y15:Y27"/>
+    <mergeCell ref="A8:P8"/>
     <mergeCell ref="W33:W45"/>
     <mergeCell ref="Y33:Y45"/>
     <mergeCell ref="A7:P7"/>
@@ -18930,25 +18949,6 @@
     <mergeCell ref="Q33:Q45"/>
     <mergeCell ref="S33:S45"/>
     <mergeCell ref="U33:U45"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="C15:C27"/>
-    <mergeCell ref="E15:E27"/>
-    <mergeCell ref="G15:G27"/>
-    <mergeCell ref="I15:I27"/>
-    <mergeCell ref="K15:K27"/>
-    <mergeCell ref="M15:M27"/>
-    <mergeCell ref="O15:O27"/>
-    <mergeCell ref="Q15:Q27"/>
-    <mergeCell ref="S15:S27"/>
-    <mergeCell ref="U15:U27"/>
-    <mergeCell ref="W15:W27"/>
-    <mergeCell ref="Y15:Y27"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Z68:Z71"/>
-    <mergeCell ref="B58:P58"/>
-    <mergeCell ref="B59:P59"/>
-    <mergeCell ref="B60:P60"/>
-    <mergeCell ref="B61:P61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18980,31 +18980,31 @@
       <c r="A2" s="43" t="s">
         <v>758</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>760</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="132" t="s">
         <v>761</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
     </row>
@@ -19015,27 +19015,27 @@
       <c r="B4" s="148" t="s">
         <v>763</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>774</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="132" t="s">
         <v>764</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
@@ -19048,36 +19048,36 @@
       <c r="A6" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="132" t="s">
         <v>765</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>776</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="132" t="s">
         <v>766</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="71"/>
       <c r="K7" s="71"/>
       <c r="L7" s="71"/>
@@ -19088,11 +19088,11 @@
       <c r="A8" s="43" t="s">
         <v>777</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="132" t="s">
         <v>767</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
@@ -19108,12 +19108,12 @@
       <c r="A9" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="132" t="s">
         <v>768</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
       <c r="H9" s="71"/>
@@ -19128,13 +19128,13 @@
       <c r="A10" s="43" t="s">
         <v>779</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="132" t="s">
         <v>769</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="71"/>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -19148,39 +19148,39 @@
       <c r="A11" s="43" t="s">
         <v>780</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="132" t="s">
         <v>770</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="132" t="s">
         <v>771</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
       <c r="K12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="71"/>
@@ -19192,20 +19192,20 @@
       <c r="A13" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="132" t="s">
         <v>772</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
       <c r="P13" s="71"/>
@@ -19214,15 +19214,15 @@
       <c r="A14" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="132" t="s">
         <v>773</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="71"/>
       <c r="J14" s="78"/>
       <c r="K14" s="71"/>
@@ -19269,19 +19269,19 @@
       <c r="P16" s="71"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="122" t="s">
         <v>784</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I18" s="78"/>
@@ -19333,23 +19333,23 @@
       <c r="A2" s="43" t="s">
         <v>834</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>835</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
     </row>
     <row r="3" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
@@ -19358,19 +19358,19 @@
       <c r="B3" s="148" t="s">
         <v>837</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
@@ -19379,30 +19379,30 @@
       <c r="B4" s="148" t="s">
         <v>839</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>840</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="132" t="s">
         <v>841</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
@@ -19412,21 +19412,21 @@
       <c r="A6" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="132" t="s">
         <v>842</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="43"/>
@@ -19465,19 +19465,19 @@
       <c r="P8" s="71"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="122" t="s">
         <v>844</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -21157,8 +21157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -21170,31 +21170,31 @@
       <c r="A1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="125" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
       <c r="Y1" s="42"/>
     </row>
     <row r="2" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.15">
@@ -21313,14 +21313,14 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3" s="39"/>
-      <c r="Z3" s="123" t="s">
+      <c r="Z3" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
     </row>
     <row r="4" spans="1:31" s="6" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="s">
@@ -21360,12 +21360,12 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="Y4"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
     </row>
     <row r="5" spans="1:31" s="6" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40" t="s">
@@ -21405,12 +21405,12 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="Y5"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
     </row>
     <row r="6" spans="1:31" s="6" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40" t="s">
@@ -21449,32 +21449,32 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
     </row>
     <row r="7" spans="1:31" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>519</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -21486,24 +21486,24 @@
       <c r="Z7" s="41"/>
     </row>
     <row r="8" spans="1:31" s="6" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
     </row>
     <row r="9" spans="1:31" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -21905,23 +21905,23 @@
       <c r="A24" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="123" t="s">
         <v>429</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
     </row>
@@ -21929,23 +21929,23 @@
       <c r="A25" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
     </row>
@@ -21953,23 +21953,23 @@
       <c r="A26" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="127" t="s">
         <v>383</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
     </row>
@@ -21977,23 +21977,23 @@
       <c r="A27" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="127" t="s">
         <v>386</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
     </row>
@@ -22001,23 +22001,23 @@
       <c r="A28" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="127" t="s">
         <v>388</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
     </row>
@@ -22092,7 +22092,7 @@
       <c r="L35">
         <v>2.5</v>
       </c>
-      <c r="Z35" s="120" t="s">
+      <c r="Z35" s="128" t="s">
         <v>374</v>
       </c>
     </row>
@@ -22118,7 +22118,7 @@
       <c r="L36">
         <v>-3</v>
       </c>
-      <c r="Z36" s="120"/>
+      <c r="Z36" s="128"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -22149,10 +22149,10 @@
         <f>L36-L35</f>
         <v>-5.5</v>
       </c>
-      <c r="Z37" s="121"/>
+      <c r="Z37" s="124"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Z38" s="121"/>
+      <c r="Z38" s="124"/>
     </row>
     <row r="39" spans="1:26" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A39" s="58" t="s">
@@ -22373,7 +22373,7 @@
         <v>-0.1</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="152">
+      <c r="L48" s="120">
         <v>2.2999999999999998</v>
       </c>
       <c r="M48" s="2"/>
@@ -22437,15 +22437,15 @@
         <v>-0.8</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="152">
+      <c r="H50" s="120">
         <v>3.7</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="152">
+      <c r="J50" s="120">
         <v>5.6</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="152">
+      <c r="L50" s="120">
         <v>7.6</v>
       </c>
       <c r="M50" s="2"/>
@@ -25820,7 +25820,7 @@
       </c>
     </row>
     <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="128" t="s">
+      <c r="A179" s="129" t="s">
         <v>695</v>
       </c>
       <c r="B179" s="2">
@@ -25846,7 +25846,7 @@
       </c>
     </row>
     <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="124"/>
+      <c r="A180" s="122"/>
       <c r="B180" s="2">
         <v>5887</v>
       </c>
@@ -25865,9 +25865,12 @@
       <c r="L180" s="2">
         <v>3539</v>
       </c>
+      <c r="N180" s="2">
+        <v>3207.8</v>
+      </c>
     </row>
     <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="124"/>
+      <c r="A181" s="122"/>
       <c r="B181" s="2">
         <v>5851</v>
       </c>
@@ -25890,7 +25893,7 @@
       <c r="M181" s="1"/>
     </row>
     <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="128" t="s">
+      <c r="A182" s="129" t="s">
         <v>996</v>
       </c>
       <c r="B182" s="2">
@@ -25918,7 +25921,7 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A183" s="124"/>
+      <c r="A183" s="122"/>
       <c r="B183" s="2">
         <v>12378.5</v>
       </c>
@@ -25938,9 +25941,12 @@
       <c r="L183" s="2">
         <v>10150.700000000001</v>
       </c>
+      <c r="N183" s="2">
+        <v>10473.1</v>
+      </c>
     </row>
     <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="124"/>
+      <c r="A184" s="122"/>
       <c r="B184" s="2">
         <v>11918.3</v>
       </c>
@@ -26013,11 +26019,11 @@
       <c r="A2" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
@@ -26033,11 +26039,11 @@
       <c r="A3" s="43" t="s">
         <v>860</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="75"/>
       <c r="J3" s="78"/>
       <c r="K3" s="75"/>
@@ -26051,11 +26057,11 @@
       <c r="A4" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
       <c r="J4" s="78"/>
@@ -26070,11 +26076,11 @@
       <c r="A5" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="I5" s="75"/>
       <c r="J5" s="78"/>
       <c r="K5" s="75"/>
@@ -26085,27 +26091,27 @@
       <c r="P5" s="75"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="122" t="s">
         <v>944</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="131" t="s">
         <v>887</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
         <v>845</v>
@@ -26122,12 +26128,12 @@
       <c r="M8" s="134" t="s">
         <v>538</v>
       </c>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
       <c r="T8" s="99"/>
     </row>
     <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -26224,21 +26230,21 @@
       <c r="O10" s="115">
         <v>0.46710000000000002</v>
       </c>
-      <c r="P10" s="132" t="s">
+      <c r="P10" s="133" t="s">
         <v>954</v>
       </c>
-      <c r="Q10" s="132">
+      <c r="Q10" s="133">
         <v>23.2</v>
       </c>
-      <c r="R10" s="130">
+      <c r="R10" s="135">
         <f>3.59/23.2</f>
         <v>0.15474137931034482</v>
       </c>
-      <c r="S10" s="129">
+      <c r="S10" s="136">
         <f>(M10+M11)/3.59</f>
         <v>27730028.133704737</v>
       </c>
-      <c r="T10" s="130">
+      <c r="T10" s="135">
         <f>(M10+M11)/B10*1000</f>
         <v>0.63395907190616074</v>
       </c>
@@ -26283,11 +26289,11 @@
       <c r="O11" s="115">
         <v>0.48530000000000001</v>
       </c>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="130"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="135"/>
     </row>
     <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
@@ -26603,12 +26609,12 @@
       <c r="M19" s="134" t="s">
         <v>561</v>
       </c>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
       <c r="T19" s="99"/>
       <c r="U19" s="99"/>
       <c r="V19" s="99"/>
@@ -26699,41 +26705,41 @@
       <c r="L21" s="99" t="s">
         <v>947</v>
       </c>
-      <c r="M21" s="131">
+      <c r="M21" s="137">
         <f>Q21*R21*S21</f>
         <v>12872948.405172413</v>
       </c>
-      <c r="N21" s="131">
+      <c r="N21" s="137">
         <f>M21*(1-O21)</f>
         <v>6859994.2051163781</v>
       </c>
-      <c r="O21" s="133">
+      <c r="O21" s="138">
         <f>O10</f>
         <v>0.46710000000000002</v>
       </c>
-      <c r="P21" s="132" t="s">
+      <c r="P21" s="133" t="s">
         <v>954</v>
       </c>
-      <c r="Q21" s="132">
+      <c r="Q21" s="133">
         <v>3</v>
       </c>
-      <c r="R21" s="130">
+      <c r="R21" s="135">
         <f>3.59/23.2</f>
         <v>0.15474137931034482</v>
       </c>
-      <c r="S21" s="129">
+      <c r="S21" s="136">
         <f>S10</f>
         <v>27730028.133704737</v>
       </c>
-      <c r="T21" s="130">
+      <c r="T21" s="135">
         <f>T10</f>
         <v>0.63395907190616074</v>
       </c>
-      <c r="U21" s="129">
+      <c r="U21" s="136">
         <f>M21/T21</f>
         <v>20305645.862068962</v>
       </c>
-      <c r="V21" s="129">
+      <c r="V21" s="136">
         <v>23207077</v>
       </c>
     </row>
@@ -26756,16 +26762,16 @@
       <c r="L22" s="99" t="s">
         <v>948</v>
       </c>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
     </row>
     <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
@@ -27399,44 +27405,44 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="135" t="s">
+      <c r="A52" s="130" t="s">
         <v>921</v>
       </c>
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="135"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="135"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="135"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="136" t="s">
+      <c r="A59" s="131" t="s">
         <v>888</v>
       </c>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
     </row>
     <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
@@ -27676,14 +27682,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A52:D56"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="S10:S11"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="M19:S19"/>
     <mergeCell ref="P21:P22"/>
@@ -27693,14 +27699,14 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="R10:R11"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="A52:D56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27733,11 +27739,11 @@
       <c r="A2" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
@@ -27753,11 +27759,11 @@
       <c r="A3" s="43" t="s">
         <v>860</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="75"/>
       <c r="J3" s="78"/>
       <c r="K3" s="75"/>
@@ -27771,11 +27777,11 @@
       <c r="A4" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
       <c r="J4" s="78"/>
@@ -27790,11 +27796,11 @@
       <c r="A5" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="I5" s="75"/>
       <c r="J5" s="78"/>
       <c r="K5" s="75"/>
@@ -27805,27 +27811,27 @@
       <c r="P5" s="75"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="122" t="s">
         <v>919</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="131" t="s">
         <v>887</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
         <v>845</v>
@@ -28665,44 +28671,44 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="135" t="s">
+      <c r="A46" s="130" t="s">
         <v>921</v>
       </c>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="135"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="135"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="135"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="135"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="131" t="s">
         <v>888</v>
       </c>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
     </row>
     <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
@@ -28981,13 +28987,13 @@
       <c r="A2" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>858</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
@@ -29003,13 +29009,13 @@
       <c r="A3" s="43" t="s">
         <v>860</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="132" t="s">
         <v>861</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
@@ -29025,13 +29031,13 @@
       <c r="A4" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="132" t="s">
         <v>863</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
       <c r="J4" s="78"/>
@@ -29046,13 +29052,13 @@
       <c r="A5" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="132" t="s">
         <v>865</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="H5" s="75"/>
       <c r="I5" s="75"/>
       <c r="J5" s="78"/>
@@ -29064,27 +29070,27 @@
       <c r="P5" s="75"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="122" t="s">
         <v>850</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="131" t="s">
         <v>887</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="F7" s="74"/>
       <c r="G7" s="90" t="s">
         <v>845</v>
@@ -29734,44 +29740,44 @@
       <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="124" t="s">
         <v>857</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="131" t="s">
         <v>888</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
@@ -30042,10 +30048,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>911</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="133"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -30059,20 +30065,20 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="36" t="s">
@@ -30376,20 +30382,20 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="140" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="36" t="s">
@@ -30597,20 +30603,20 @@
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="141" t="s">
         <v>538</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
     </row>
     <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
@@ -30777,20 +30783,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="141" t="s">
         <v>539</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
     </row>
     <row r="26" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34" t="s">
@@ -30889,20 +30895,20 @@
       <c r="B30" s="38"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="141" t="s">
         <v>538</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
     </row>
     <row r="33" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34" t="s">
@@ -31069,20 +31075,20 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="141" t="s">
         <v>539</v>
       </c>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
     </row>
     <row r="38" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="34" t="s">
@@ -31181,20 +31187,20 @@
       <c r="B42" s="38"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="141" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="141"/>
+      <c r="M44" s="141"/>
     </row>
     <row r="45" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
@@ -31361,20 +31367,20 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="141" t="s">
         <v>539</v>
       </c>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="140"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
+      <c r="K49" s="141"/>
+      <c r="L49" s="141"/>
+      <c r="M49" s="141"/>
     </row>
     <row r="50" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="34" t="s">
@@ -31473,20 +31479,20 @@
       <c r="B54" s="38"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="141" t="s">
         <v>538</v>
       </c>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="140"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="141"/>
+      <c r="L56" s="141"/>
+      <c r="M56" s="141"/>
     </row>
     <row r="57" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="34" t="s">
@@ -31653,20 +31659,20 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B61" s="140" t="s">
+      <c r="B61" s="141" t="s">
         <v>539</v>
       </c>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
+      <c r="M61" s="141"/>
     </row>
     <row r="62" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="34" t="s">
@@ -31822,28 +31828,28 @@
       <c r="B2" s="147" t="s">
         <v>713</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>714</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="132" t="s">
         <v>715</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
@@ -31854,27 +31860,27 @@
       <c r="B4" s="148" t="s">
         <v>717</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="132" t="s">
         <v>719</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
@@ -31887,36 +31893,36 @@
       <c r="A6" s="43" t="s">
         <v>720</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="132" t="s">
         <v>721</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>722</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="132" t="s">
         <v>742</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="57"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
@@ -31927,11 +31933,11 @@
       <c r="A8" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="132" t="s">
         <v>723</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
@@ -31947,11 +31953,11 @@
       <c r="A9" s="43" t="s">
         <v>827</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="132" t="s">
         <v>724</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
@@ -31967,11 +31973,11 @@
       <c r="A10" s="43" t="s">
         <v>826</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="132" t="s">
         <v>725</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
@@ -31987,39 +31993,39 @@
       <c r="A11" s="43" t="s">
         <v>828</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="132" t="s">
         <v>727</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
     </row>
     <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="43" t="s">
         <v>829</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="132" t="s">
         <v>728</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
@@ -32031,11 +32037,11 @@
       <c r="A13" s="43" t="s">
         <v>830</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="132" t="s">
         <v>729</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -32053,15 +32059,15 @@
       <c r="A14" s="43" t="s">
         <v>831</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="132" t="s">
         <v>730</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
@@ -32075,15 +32081,15 @@
       <c r="A15" s="43" t="s">
         <v>832</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="132" t="s">
         <v>731</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -32097,15 +32103,15 @@
       <c r="A16" s="43" t="s">
         <v>833</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="132" t="s">
         <v>732</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
@@ -32116,26 +32122,26 @@
       <c r="P16" s="57"/>
     </row>
     <row r="18" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="139" t="s">
         <v>551</v>
       </c>
-      <c r="B18" s="132"/>
+      <c r="B18" s="133"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="140" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B20" s="36" t="s">
@@ -32920,20 +32926,20 @@
       </c>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="140" t="s">
         <v>539</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B28" s="36" t="s">
@@ -33726,31 +33732,31 @@
       <c r="U37" s="37"/>
     </row>
     <row r="38" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="139" t="s">
         <v>733</v>
       </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="146" t="s">
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="132"/>
-      <c r="S38" s="132"/>
-      <c r="T38" s="132"/>
-      <c r="U38" s="132"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="133"/>
+      <c r="U38" s="133"/>
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="53"/>
@@ -33774,31 +33780,31 @@
       <c r="U39" s="37"/>
     </row>
     <row r="40" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="139" t="s">
         <v>734</v>
       </c>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="146" t="s">
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="150" t="s">
         <v>738</v>
       </c>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="132"/>
-      <c r="S40" s="132"/>
-      <c r="T40" s="132"/>
-      <c r="U40" s="132"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133"/>
+      <c r="T40" s="133"/>
+      <c r="U40" s="133"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="53"/>
@@ -33822,31 +33828,31 @@
       <c r="U41" s="37"/>
     </row>
     <row r="42" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="139" t="s">
         <v>735</v>
       </c>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="146" t="s">
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="150" t="s">
         <v>739</v>
       </c>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="133"/>
+      <c r="P42" s="133"/>
+      <c r="Q42" s="133"/>
+      <c r="R42" s="133"/>
+      <c r="S42" s="133"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="53"/>
@@ -33870,104 +33876,104 @@
       <c r="U43" s="37"/>
     </row>
     <row r="44" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="139" t="s">
         <v>736</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="146" t="s">
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="150" t="s">
         <v>740</v>
       </c>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
-      <c r="S44" s="132"/>
-      <c r="T44" s="132"/>
-      <c r="U44" s="132"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
+      <c r="O44" s="133"/>
+      <c r="P44" s="133"/>
+      <c r="Q44" s="133"/>
+      <c r="R44" s="133"/>
+      <c r="S44" s="133"/>
+      <c r="T44" s="133"/>
+      <c r="U44" s="133"/>
     </row>
     <row r="46" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="139" t="s">
         <v>552</v>
       </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="132"/>
-      <c r="O46" s="141" t="s">
+      <c r="B46" s="149"/>
+      <c r="C46" s="133"/>
+      <c r="O46" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="P46" s="141"/>
-      <c r="Q46" s="141"/>
-      <c r="R46" s="141"/>
-      <c r="S46" s="141"/>
-      <c r="T46" s="141"/>
-      <c r="U46" s="141"/>
-      <c r="V46" s="141"/>
-      <c r="W46" s="141"/>
-      <c r="Y46" s="141" t="s">
+      <c r="P46" s="151"/>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="151"/>
+      <c r="S46" s="151"/>
+      <c r="T46" s="151"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="151"/>
+      <c r="W46" s="151"/>
+      <c r="Y46" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="Z46" s="141"/>
-      <c r="AA46" s="141"/>
-      <c r="AB46" s="141"/>
-      <c r="AC46" s="141"/>
-      <c r="AD46" s="141"/>
-      <c r="AE46" s="141"/>
-      <c r="AF46" s="141"/>
-      <c r="AG46" s="141"/>
+      <c r="Z46" s="151"/>
+      <c r="AA46" s="151"/>
+      <c r="AB46" s="151"/>
+      <c r="AC46" s="151"/>
+      <c r="AD46" s="151"/>
+      <c r="AE46" s="151"/>
+      <c r="AF46" s="151"/>
+      <c r="AG46" s="151"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B47" s="139" t="s">
+      <c r="B47" s="140" t="s">
         <v>538</v>
       </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="O47" s="142" t="s">
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="140"/>
+      <c r="O47" s="144" t="s">
         <v>572</v>
       </c>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="139"/>
-      <c r="S47" s="139"/>
-      <c r="T47" s="139"/>
-      <c r="U47" s="139"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="139"/>
-      <c r="Y47" s="142" t="s">
+      <c r="P47" s="140"/>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="140"/>
+      <c r="S47" s="140"/>
+      <c r="T47" s="140"/>
+      <c r="U47" s="140"/>
+      <c r="V47" s="140"/>
+      <c r="W47" s="140"/>
+      <c r="Y47" s="144" t="s">
         <v>553</v>
       </c>
-      <c r="Z47" s="142" t="s">
+      <c r="Z47" s="144" t="s">
         <v>576</v>
       </c>
-      <c r="AA47" s="139"/>
-      <c r="AB47" s="139"/>
-      <c r="AC47" s="139"/>
-      <c r="AD47" s="139"/>
-      <c r="AE47" s="139"/>
-      <c r="AF47" s="139"/>
-      <c r="AG47" s="139"/>
-      <c r="AH47" s="139"/>
-      <c r="AI47" s="132"/>
-      <c r="AJ47" s="132"/>
-      <c r="AK47" s="132"/>
+      <c r="AA47" s="140"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="140"/>
+      <c r="AG47" s="140"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="133"/>
+      <c r="AJ47" s="133"/>
+      <c r="AK47" s="133"/>
     </row>
     <row r="48" spans="1:45" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
@@ -34010,19 +34016,19 @@
         <v>443</v>
       </c>
       <c r="N48"/>
-      <c r="O48" s="142" t="s">
+      <c r="O48" s="144" t="s">
         <v>573</v>
       </c>
-      <c r="P48" s="139"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="139"/>
-      <c r="S48" s="139"/>
-      <c r="T48" s="139"/>
-      <c r="U48" s="139"/>
-      <c r="V48" s="139"/>
-      <c r="W48" s="139"/>
+      <c r="P48" s="140"/>
+      <c r="Q48" s="140"/>
+      <c r="R48" s="140"/>
+      <c r="S48" s="140"/>
+      <c r="T48" s="140"/>
+      <c r="U48" s="140"/>
+      <c r="V48" s="140"/>
+      <c r="W48" s="140"/>
       <c r="X48"/>
-      <c r="Y48" s="142"/>
+      <c r="Y48" s="144"/>
       <c r="Z48" s="52" t="s">
         <v>31</v>
       </c>
@@ -34108,22 +34114,22 @@
       <c r="M49" s="37">
         <v>0.13400000000000001</v>
       </c>
-      <c r="O49" s="142" t="s">
+      <c r="O49" s="144" t="s">
         <v>553</v>
       </c>
-      <c r="P49" s="142" t="s">
+      <c r="P49" s="144" t="s">
         <v>538</v>
       </c>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="139"/>
-      <c r="S49" s="142" t="s">
+      <c r="Q49" s="140"/>
+      <c r="R49" s="140"/>
+      <c r="S49" s="144" t="s">
         <v>561</v>
       </c>
-      <c r="T49" s="139"/>
-      <c r="U49" s="139"/>
-      <c r="V49" s="139"/>
-      <c r="W49" s="139"/>
-      <c r="Y49" s="142"/>
+      <c r="T49" s="140"/>
+      <c r="U49" s="140"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="140"/>
+      <c r="Y49" s="144"/>
       <c r="Z49" s="52"/>
       <c r="AA49" s="52"/>
       <c r="AB49" s="52"/>
@@ -34177,29 +34183,29 @@
       <c r="M50" s="37">
         <v>-1.1299999999999999E-2</v>
       </c>
-      <c r="O50" s="142"/>
-      <c r="P50" s="142" t="s">
+      <c r="O50" s="144"/>
+      <c r="P50" s="144" t="s">
         <v>558</v>
       </c>
-      <c r="Q50" s="142" t="s">
+      <c r="Q50" s="144" t="s">
         <v>559</v>
       </c>
-      <c r="R50" s="144" t="s">
+      <c r="R50" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="S50" s="144" t="s">
+      <c r="S50" s="146" t="s">
         <v>562</v>
       </c>
-      <c r="T50" s="144" t="s">
+      <c r="T50" s="146" t="s">
         <v>563</v>
       </c>
-      <c r="U50" s="144" t="s">
+      <c r="U50" s="146" t="s">
         <v>564</v>
       </c>
-      <c r="V50" s="144" t="s">
+      <c r="V50" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="W50" s="144" t="s">
+      <c r="W50" s="146" t="s">
         <v>754</v>
       </c>
       <c r="Y50" t="s">
@@ -34294,15 +34300,15 @@
         <f>(1+M49)*(1+M50)</f>
         <v>1.1211857999999999</v>
       </c>
-      <c r="O51" s="142"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="144"/>
-      <c r="S51" s="144"/>
-      <c r="T51" s="144"/>
-      <c r="U51" s="144"/>
-      <c r="V51" s="144"/>
-      <c r="W51" s="144"/>
+      <c r="O51" s="144"/>
+      <c r="P51" s="144"/>
+      <c r="Q51" s="144"/>
+      <c r="R51" s="146"/>
+      <c r="S51" s="146"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="146"/>
       <c r="Y51" t="s">
         <v>578</v>
       </c>
@@ -34344,20 +34350,20 @@
       </c>
     </row>
     <row r="52" spans="1:44" ht="30" x14ac:dyDescent="0.15">
-      <c r="B52" s="139" t="s">
+      <c r="B52" s="140" t="s">
         <v>539</v>
       </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="140"/>
       <c r="O52" s="51" t="s">
         <v>554</v>
       </c>
@@ -34391,30 +34397,30 @@
       <c r="Y52" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="Z52" s="139">
+      <c r="Z52" s="140">
         <f>Z50+AA50+AB50</f>
         <v>573091.10000000009</v>
       </c>
-      <c r="AA52" s="139"/>
-      <c r="AB52" s="139"/>
-      <c r="AC52" s="139">
+      <c r="AA52" s="140"/>
+      <c r="AB52" s="140"/>
+      <c r="AC52" s="140">
         <f>AC50+AD50+AE50</f>
         <v>573091.10000000009</v>
       </c>
-      <c r="AD52" s="139"/>
-      <c r="AE52" s="139"/>
-      <c r="AF52" s="139">
+      <c r="AD52" s="140"/>
+      <c r="AE52" s="140"/>
+      <c r="AF52" s="140">
         <f>AF50+AG50+AH50</f>
         <v>573091.10000000009</v>
       </c>
-      <c r="AG52" s="139"/>
-      <c r="AH52" s="139"/>
-      <c r="AI52" s="139">
+      <c r="AG52" s="140"/>
+      <c r="AH52" s="140"/>
+      <c r="AI52" s="140">
         <f>AI50+AJ50+AK50</f>
         <v>573091.10000000009</v>
       </c>
-      <c r="AJ52" s="139"/>
-      <c r="AK52" s="139"/>
+      <c r="AJ52" s="140"/>
+      <c r="AK52" s="140"/>
     </row>
     <row r="53" spans="1:44" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A53" s="34" t="s">
@@ -34604,30 +34610,30 @@
       <c r="Y54" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="Z54" s="139">
+      <c r="Z54" s="140">
         <f>(Z53+AA53+AB53)/Z52</f>
         <v>7.6072640109050753E-3</v>
       </c>
-      <c r="AA54" s="139"/>
-      <c r="AB54" s="139"/>
-      <c r="AC54" s="139">
+      <c r="AA54" s="140"/>
+      <c r="AB54" s="140"/>
+      <c r="AC54" s="140">
         <f>(AC53+AD53+AE53)/AC52</f>
         <v>7.6072640109050753E-3</v>
       </c>
-      <c r="AD54" s="139"/>
-      <c r="AE54" s="139"/>
-      <c r="AF54" s="139">
+      <c r="AD54" s="140"/>
+      <c r="AE54" s="140"/>
+      <c r="AF54" s="140">
         <f>(AF53+AG53+AH53)/AF52</f>
         <v>7.6072640109050753E-3</v>
       </c>
-      <c r="AG54" s="139"/>
-      <c r="AH54" s="139"/>
-      <c r="AI54" s="139">
+      <c r="AG54" s="140"/>
+      <c r="AH54" s="140"/>
+      <c r="AI54" s="140">
         <f>(AI53+AJ53+AK53)/AI52</f>
         <v>7.6072640109050753E-3</v>
       </c>
-      <c r="AJ54" s="139"/>
-      <c r="AK54" s="139"/>
+      <c r="AJ54" s="140"/>
+      <c r="AK54" s="140"/>
     </row>
     <row r="55" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="34" t="s">
@@ -34668,26 +34674,26 @@
       <c r="Y55" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="Z55" s="149">
+      <c r="Z55" s="143">
         <v>3639626871</v>
       </c>
-      <c r="AA55" s="149"/>
-      <c r="AB55" s="149"/>
-      <c r="AC55" s="149">
+      <c r="AA55" s="143"/>
+      <c r="AB55" s="143"/>
+      <c r="AC55" s="143">
         <v>3509535184</v>
       </c>
-      <c r="AD55" s="149"/>
-      <c r="AE55" s="149"/>
-      <c r="AF55" s="149">
+      <c r="AD55" s="143"/>
+      <c r="AE55" s="143"/>
+      <c r="AF55" s="143">
         <v>4415217290</v>
       </c>
-      <c r="AG55" s="149"/>
-      <c r="AH55" s="149"/>
-      <c r="AI55" s="149">
+      <c r="AG55" s="143"/>
+      <c r="AH55" s="143"/>
+      <c r="AI55" s="143">
         <v>3239137779</v>
       </c>
-      <c r="AJ55" s="149"/>
-      <c r="AK55" s="149"/>
+      <c r="AJ55" s="143"/>
+      <c r="AK55" s="143"/>
     </row>
     <row r="56" spans="1:44" ht="30" x14ac:dyDescent="0.15">
       <c r="A56" s="34" t="s">
@@ -34717,149 +34723,149 @@
       <c r="K56" s="37"/>
       <c r="L56" s="37"/>
       <c r="M56" s="37"/>
-      <c r="O56" s="142" t="s">
+      <c r="O56" s="144" t="s">
         <v>574</v>
       </c>
-      <c r="P56" s="139"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="139"/>
-      <c r="S56" s="139"/>
-      <c r="T56" s="139"/>
-      <c r="U56" s="139"/>
-      <c r="V56" s="139"/>
-      <c r="W56" s="139"/>
+      <c r="P56" s="140"/>
+      <c r="Q56" s="140"/>
+      <c r="R56" s="140"/>
+      <c r="S56" s="140"/>
+      <c r="T56" s="140"/>
+      <c r="U56" s="140"/>
+      <c r="V56" s="140"/>
+      <c r="W56" s="140"/>
       <c r="Y56" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="Z56" s="150">
+      <c r="Z56" s="145">
         <v>0.98</v>
       </c>
-      <c r="AA56" s="139"/>
-      <c r="AB56" s="139"/>
-      <c r="AC56" s="150">
+      <c r="AA56" s="140"/>
+      <c r="AB56" s="140"/>
+      <c r="AC56" s="145">
         <v>0.98</v>
       </c>
-      <c r="AD56" s="139"/>
-      <c r="AE56" s="139"/>
-      <c r="AF56" s="150">
+      <c r="AD56" s="140"/>
+      <c r="AE56" s="140"/>
+      <c r="AF56" s="145">
         <v>0.98</v>
       </c>
-      <c r="AG56" s="139"/>
-      <c r="AH56" s="139"/>
-      <c r="AI56" s="150">
+      <c r="AG56" s="140"/>
+      <c r="AH56" s="140"/>
+      <c r="AI56" s="145">
         <v>0.98</v>
       </c>
-      <c r="AJ56" s="139"/>
-      <c r="AK56" s="139"/>
+      <c r="AJ56" s="140"/>
+      <c r="AK56" s="140"/>
     </row>
     <row r="57" spans="1:44" ht="30" x14ac:dyDescent="0.15">
-      <c r="O57" s="142" t="s">
+      <c r="O57" s="144" t="s">
         <v>553</v>
       </c>
-      <c r="P57" s="142" t="s">
+      <c r="P57" s="144" t="s">
         <v>707</v>
       </c>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="142" t="s">
+      <c r="Q57" s="140"/>
+      <c r="R57" s="140"/>
+      <c r="S57" s="144" t="s">
         <v>561</v>
       </c>
-      <c r="T57" s="139"/>
-      <c r="U57" s="139"/>
-      <c r="V57" s="139"/>
-      <c r="W57" s="139"/>
+      <c r="T57" s="140"/>
+      <c r="U57" s="140"/>
+      <c r="V57" s="140"/>
+      <c r="W57" s="140"/>
       <c r="Y57" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="Z57" s="139">
+      <c r="Z57" s="140">
         <v>936222.65</v>
       </c>
-      <c r="AA57" s="139"/>
-      <c r="AB57" s="139"/>
-      <c r="AC57" s="139">
+      <c r="AA57" s="140"/>
+      <c r="AB57" s="140"/>
+      <c r="AC57" s="140">
         <f>1907199.66-Z57</f>
         <v>970977.00999999989</v>
       </c>
-      <c r="AD57" s="139"/>
-      <c r="AE57" s="139"/>
-      <c r="AF57" s="139">
+      <c r="AD57" s="140"/>
+      <c r="AE57" s="140"/>
+      <c r="AF57" s="140">
         <f>2956817.31-AC57-Z57</f>
         <v>1049617.6500000004</v>
       </c>
-      <c r="AG57" s="139"/>
-      <c r="AH57" s="139"/>
-      <c r="AI57" s="139">
+      <c r="AG57" s="140"/>
+      <c r="AH57" s="140"/>
+      <c r="AI57" s="140">
         <f>3969122.02-AF57-AC57-Z57</f>
         <v>1012304.7099999998</v>
       </c>
-      <c r="AJ57" s="139"/>
-      <c r="AK57" s="139"/>
+      <c r="AJ57" s="140"/>
+      <c r="AK57" s="140"/>
     </row>
     <row r="58" spans="1:44" ht="30" x14ac:dyDescent="0.15">
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="139"/>
-      <c r="O58" s="142"/>
-      <c r="P58" s="142" t="s">
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="140"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144" t="s">
         <v>558</v>
       </c>
-      <c r="Q58" s="142" t="s">
+      <c r="Q58" s="144" t="s">
         <v>559</v>
       </c>
-      <c r="R58" s="144" t="s">
+      <c r="R58" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="S58" s="144" t="s">
+      <c r="S58" s="146" t="s">
         <v>562</v>
       </c>
-      <c r="T58" s="144" t="s">
+      <c r="T58" s="146" t="s">
         <v>563</v>
       </c>
-      <c r="U58" s="144" t="s">
+      <c r="U58" s="146" t="s">
         <v>564</v>
       </c>
-      <c r="V58" s="144" t="s">
+      <c r="V58" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="W58" s="144" t="s">
+      <c r="W58" s="146" t="s">
         <v>565</v>
       </c>
       <c r="Y58" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="Z58" s="139">
+      <c r="Z58" s="140">
         <f>Z55*Z56/Z57/10000</f>
         <v>0.3809814186379703</v>
       </c>
-      <c r="AA58" s="139"/>
-      <c r="AB58" s="139"/>
-      <c r="AC58" s="139">
+      <c r="AA58" s="140"/>
+      <c r="AB58" s="140"/>
+      <c r="AC58" s="140">
         <f>AC55*AC56/AC57/10000</f>
         <v>0.35421482124690062</v>
       </c>
-      <c r="AD58" s="139"/>
-      <c r="AE58" s="139"/>
-      <c r="AF58" s="139">
+      <c r="AD58" s="140"/>
+      <c r="AE58" s="140"/>
+      <c r="AF58" s="140">
         <f>AF55*AF56/AF57/10000</f>
         <v>0.4122370602476052</v>
       </c>
-      <c r="AG58" s="139"/>
-      <c r="AH58" s="139"/>
-      <c r="AI58" s="139">
+      <c r="AG58" s="140"/>
+      <c r="AH58" s="140"/>
+      <c r="AI58" s="140">
         <f>AI55*AI56/AI57/10000</f>
         <v>0.31357702795040837</v>
       </c>
-      <c r="AJ58" s="139"/>
-      <c r="AK58" s="139"/>
+      <c r="AJ58" s="140"/>
+      <c r="AK58" s="140"/>
     </row>
     <row r="59" spans="1:44" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59"/>
@@ -34876,43 +34882,43 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
-      <c r="O59" s="142"/>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="144"/>
-      <c r="S59" s="144"/>
-      <c r="T59" s="144"/>
-      <c r="U59" s="144"/>
-      <c r="V59" s="144"/>
-      <c r="W59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="146"/>
+      <c r="S59" s="146"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="146"/>
+      <c r="V59" s="146"/>
+      <c r="W59" s="146"/>
       <c r="X59"/>
       <c r="Y59" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="Z59" s="139">
+      <c r="Z59" s="140">
         <f>Z58*(1+Z54)</f>
         <v>0.38387964487279846</v>
       </c>
-      <c r="AA59" s="139"/>
-      <c r="AB59" s="139"/>
-      <c r="AC59" s="139">
+      <c r="AA59" s="140"/>
+      <c r="AB59" s="140"/>
+      <c r="AC59" s="140">
         <f>AC58*(1+AC54)</f>
         <v>0.35690942690870137</v>
       </c>
-      <c r="AD59" s="139"/>
-      <c r="AE59" s="139"/>
-      <c r="AF59" s="139">
+      <c r="AD59" s="140"/>
+      <c r="AE59" s="140"/>
+      <c r="AF59" s="140">
         <f>AF58*(1+AF54)</f>
         <v>0.41537305639998812</v>
       </c>
-      <c r="AG59" s="139"/>
-      <c r="AH59" s="139"/>
-      <c r="AI59" s="139">
+      <c r="AG59" s="140"/>
+      <c r="AH59" s="140"/>
+      <c r="AI59" s="140">
         <f>AI58*(1+AI54)</f>
         <v>0.31596249118978209</v>
       </c>
-      <c r="AJ59" s="139"/>
-      <c r="AK59" s="139"/>
+      <c r="AJ59" s="140"/>
+      <c r="AK59" s="140"/>
       <c r="AL59"/>
       <c r="AM59"/>
       <c r="AN59"/>
@@ -34955,30 +34961,30 @@
       <c r="Y60" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="Z60" s="149">
+      <c r="Z60" s="143">
         <f>Z52*Z59*10000</f>
         <v>2199980079.4776149</v>
       </c>
-      <c r="AA60" s="149"/>
-      <c r="AB60" s="149"/>
-      <c r="AC60" s="149">
+      <c r="AA60" s="143"/>
+      <c r="AB60" s="143"/>
+      <c r="AC60" s="143">
         <f>AC52*AC59*10000</f>
         <v>2045416160.674773</v>
       </c>
-      <c r="AD60" s="149"/>
-      <c r="AE60" s="149"/>
-      <c r="AF60" s="149">
+      <c r="AD60" s="143"/>
+      <c r="AE60" s="143"/>
+      <c r="AF60" s="143">
         <f>AF52*AF59*10000</f>
         <v>2380466018.0263128</v>
       </c>
-      <c r="AG60" s="149"/>
-      <c r="AH60" s="149"/>
-      <c r="AI60" s="149">
+      <c r="AG60" s="143"/>
+      <c r="AH60" s="143"/>
+      <c r="AI60" s="143">
         <f>AI52*AI59*10000</f>
         <v>1810752916.3469255</v>
       </c>
-      <c r="AJ60" s="149"/>
-      <c r="AK60" s="149"/>
+      <c r="AJ60" s="143"/>
+      <c r="AK60" s="143"/>
     </row>
     <row r="61" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O61" s="54" t="s">
@@ -35014,18 +35020,18 @@
       <c r="Y61" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="Z61" s="139"/>
-      <c r="AA61" s="139"/>
-      <c r="AB61" s="139"/>
-      <c r="AC61" s="139"/>
-      <c r="AD61" s="139"/>
-      <c r="AE61" s="139"/>
-      <c r="AF61" s="139"/>
-      <c r="AG61" s="139"/>
-      <c r="AH61" s="139"/>
-      <c r="AI61" s="139"/>
-      <c r="AJ61" s="139"/>
-      <c r="AK61" s="139"/>
+      <c r="Z61" s="140"/>
+      <c r="AA61" s="140"/>
+      <c r="AB61" s="140"/>
+      <c r="AC61" s="140"/>
+      <c r="AD61" s="140"/>
+      <c r="AE61" s="140"/>
+      <c r="AF61" s="140"/>
+      <c r="AG61" s="140"/>
+      <c r="AH61" s="140"/>
+      <c r="AI61" s="140"/>
+      <c r="AJ61" s="140"/>
+      <c r="AK61" s="140"/>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.15">
       <c r="O62" s="47" t="s">
@@ -35061,18 +35067,18 @@
       <c r="Y62" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="Z62" s="149"/>
-      <c r="AA62" s="149"/>
-      <c r="AB62" s="149"/>
-      <c r="AC62" s="149"/>
-      <c r="AD62" s="149"/>
-      <c r="AE62" s="149"/>
-      <c r="AF62" s="149"/>
-      <c r="AG62" s="149"/>
-      <c r="AH62" s="149"/>
-      <c r="AI62" s="149"/>
-      <c r="AJ62" s="149"/>
-      <c r="AK62" s="149"/>
+      <c r="Z62" s="143"/>
+      <c r="AA62" s="143"/>
+      <c r="AB62" s="143"/>
+      <c r="AC62" s="143"/>
+      <c r="AD62" s="143"/>
+      <c r="AE62" s="143"/>
+      <c r="AF62" s="143"/>
+      <c r="AG62" s="143"/>
+      <c r="AH62" s="143"/>
+      <c r="AI62" s="143"/>
+      <c r="AJ62" s="143"/>
+      <c r="AK62" s="143"/>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.15">
       <c r="O63" s="50" t="s">
@@ -35108,26 +35114,26 @@
       <c r="Y63" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="Z63" s="149">
+      <c r="Z63" s="143">
         <v>50000000</v>
       </c>
-      <c r="AA63" s="149"/>
-      <c r="AB63" s="149"/>
-      <c r="AC63" s="149">
+      <c r="AA63" s="143"/>
+      <c r="AB63" s="143"/>
+      <c r="AC63" s="143">
         <v>50000000</v>
       </c>
-      <c r="AD63" s="149"/>
-      <c r="AE63" s="149"/>
-      <c r="AF63" s="149">
+      <c r="AD63" s="143"/>
+      <c r="AE63" s="143"/>
+      <c r="AF63" s="143">
         <v>50000000</v>
       </c>
-      <c r="AG63" s="149"/>
-      <c r="AH63" s="149"/>
-      <c r="AI63" s="149">
+      <c r="AG63" s="143"/>
+      <c r="AH63" s="143"/>
+      <c r="AI63" s="143">
         <v>50000000</v>
       </c>
-      <c r="AJ63" s="149"/>
-      <c r="AK63" s="149"/>
+      <c r="AJ63" s="143"/>
+      <c r="AK63" s="143"/>
     </row>
     <row r="64" spans="1:44" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64"/>
@@ -35178,30 +35184,30 @@
       <c r="Y64" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="Z64" s="149">
+      <c r="Z64" s="143">
         <f>Z60*1.5%</f>
         <v>32999701.192164224</v>
       </c>
-      <c r="AA64" s="149"/>
-      <c r="AB64" s="149"/>
-      <c r="AC64" s="149">
+      <c r="AA64" s="143"/>
+      <c r="AB64" s="143"/>
+      <c r="AC64" s="143">
         <f>AC60*5%</f>
         <v>102270808.03373866</v>
       </c>
-      <c r="AD64" s="149"/>
-      <c r="AE64" s="149"/>
-      <c r="AF64" s="149">
+      <c r="AD64" s="143"/>
+      <c r="AE64" s="143"/>
+      <c r="AF64" s="143">
         <f>AF60*5%</f>
         <v>119023300.90131564</v>
       </c>
-      <c r="AG64" s="149"/>
-      <c r="AH64" s="149"/>
-      <c r="AI64" s="149">
+      <c r="AG64" s="143"/>
+      <c r="AH64" s="143"/>
+      <c r="AI64" s="143">
         <f>AI60*5%</f>
         <v>90537645.817346275</v>
       </c>
-      <c r="AJ64" s="149"/>
-      <c r="AK64" s="149"/>
+      <c r="AJ64" s="143"/>
+      <c r="AK64" s="143"/>
       <c r="AL64"/>
       <c r="AM64"/>
       <c r="AN64"/>
@@ -35244,20 +35250,20 @@
       <c r="Y65" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="Z65" s="149">
+      <c r="Z65" s="143">
         <v>144895286.294337</v>
       </c>
-      <c r="AA65" s="149"/>
-      <c r="AB65" s="149"/>
-      <c r="AC65" s="149"/>
-      <c r="AD65" s="149"/>
-      <c r="AE65" s="149"/>
-      <c r="AF65" s="149"/>
-      <c r="AG65" s="149"/>
-      <c r="AH65" s="149"/>
-      <c r="AI65" s="149"/>
-      <c r="AJ65" s="149"/>
-      <c r="AK65" s="149"/>
+      <c r="AA65" s="143"/>
+      <c r="AB65" s="143"/>
+      <c r="AC65" s="143"/>
+      <c r="AD65" s="143"/>
+      <c r="AE65" s="143"/>
+      <c r="AF65" s="143"/>
+      <c r="AG65" s="143"/>
+      <c r="AH65" s="143"/>
+      <c r="AI65" s="143"/>
+      <c r="AJ65" s="143"/>
+      <c r="AK65" s="143"/>
     </row>
     <row r="66" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O66" s="47" t="s">
@@ -35293,26 +35299,26 @@
       <c r="Y66" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="Z66" s="149">
+      <c r="Z66" s="143">
         <v>80000000</v>
       </c>
-      <c r="AA66" s="149"/>
-      <c r="AB66" s="149"/>
-      <c r="AC66" s="149">
+      <c r="AA66" s="143"/>
+      <c r="AB66" s="143"/>
+      <c r="AC66" s="143">
         <v>80000000</v>
       </c>
-      <c r="AD66" s="149"/>
-      <c r="AE66" s="149"/>
-      <c r="AF66" s="149">
+      <c r="AD66" s="143"/>
+      <c r="AE66" s="143"/>
+      <c r="AF66" s="143">
         <v>80000000</v>
       </c>
-      <c r="AG66" s="149"/>
-      <c r="AH66" s="149"/>
-      <c r="AI66" s="149">
+      <c r="AG66" s="143"/>
+      <c r="AH66" s="143"/>
+      <c r="AI66" s="143">
         <v>80000000</v>
       </c>
-      <c r="AJ66" s="149"/>
-      <c r="AK66" s="149"/>
+      <c r="AJ66" s="143"/>
+      <c r="AK66" s="143"/>
     </row>
     <row r="67" spans="15:37" x14ac:dyDescent="0.15">
       <c r="O67" s="51" t="s">
@@ -35329,83 +35335,83 @@
       </c>
     </row>
     <row r="68" spans="15:37" x14ac:dyDescent="0.15">
-      <c r="O68" s="142" t="s">
+      <c r="O68" s="144" t="s">
         <v>575</v>
       </c>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="139"/>
-      <c r="R68" s="139"/>
-      <c r="S68" s="139"/>
-      <c r="T68" s="139"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="139"/>
-      <c r="W68" s="139"/>
+      <c r="P68" s="140"/>
+      <c r="Q68" s="140"/>
+      <c r="R68" s="140"/>
+      <c r="S68" s="140"/>
+      <c r="T68" s="140"/>
+      <c r="U68" s="140"/>
+      <c r="V68" s="140"/>
+      <c r="W68" s="140"/>
       <c r="X68" s="10"/>
-      <c r="Y68" s="142" t="s">
+      <c r="Y68" s="144" t="s">
         <v>594</v>
       </c>
-      <c r="Z68" s="139"/>
-      <c r="AA68" s="139"/>
-      <c r="AB68" s="139"/>
-      <c r="AC68" s="139"/>
-      <c r="AD68" s="139"/>
-      <c r="AE68" s="139"/>
-      <c r="AF68" s="139"/>
-      <c r="AG68" s="139"/>
+      <c r="Z68" s="140"/>
+      <c r="AA68" s="140"/>
+      <c r="AB68" s="140"/>
+      <c r="AC68" s="140"/>
+      <c r="AD68" s="140"/>
+      <c r="AE68" s="140"/>
+      <c r="AF68" s="140"/>
+      <c r="AG68" s="140"/>
     </row>
     <row r="69" spans="15:37" ht="30" x14ac:dyDescent="0.15">
-      <c r="O69" s="142" t="s">
+      <c r="O69" s="144" t="s">
         <v>553</v>
       </c>
-      <c r="P69" s="142" t="s">
+      <c r="P69" s="144" t="s">
         <v>708</v>
       </c>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="142" t="s">
+      <c r="Q69" s="140"/>
+      <c r="R69" s="140"/>
+      <c r="S69" s="144" t="s">
         <v>561</v>
       </c>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="139"/>
-      <c r="W69" s="139"/>
+      <c r="T69" s="140"/>
+      <c r="U69" s="140"/>
+      <c r="V69" s="140"/>
+      <c r="W69" s="140"/>
       <c r="X69" s="73" t="s">
         <v>756</v>
       </c>
       <c r="Y69" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="Z69" s="151">
+      <c r="Z69" s="142">
         <f>Z60</f>
         <v>2199980079.4776149</v>
       </c>
-      <c r="AA69" s="124"/>
-      <c r="AB69" s="124"/>
+      <c r="AA69" s="122"/>
+      <c r="AB69" s="122"/>
     </row>
     <row r="70" spans="15:37" ht="17" x14ac:dyDescent="0.25">
-      <c r="O70" s="142"/>
-      <c r="P70" s="142" t="s">
+      <c r="O70" s="144"/>
+      <c r="P70" s="144" t="s">
         <v>558</v>
       </c>
-      <c r="Q70" s="142" t="s">
+      <c r="Q70" s="144" t="s">
         <v>559</v>
       </c>
-      <c r="R70" s="144" t="s">
+      <c r="R70" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="S70" s="144" t="s">
+      <c r="S70" s="146" t="s">
         <v>562</v>
       </c>
-      <c r="T70" s="144" t="s">
+      <c r="T70" s="146" t="s">
         <v>563</v>
       </c>
-      <c r="U70" s="144" t="s">
+      <c r="U70" s="146" t="s">
         <v>564</v>
       </c>
-      <c r="V70" s="144" t="s">
+      <c r="V70" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="W70" s="144" t="s">
+      <c r="W70" s="146" t="s">
         <v>565</v>
       </c>
       <c r="X70" s="76">
@@ -35414,35 +35420,35 @@
       <c r="Y70" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="Z70" s="151">
+      <c r="Z70" s="142">
         <f>Z63</f>
         <v>50000000</v>
       </c>
-      <c r="AA70" s="124"/>
-      <c r="AB70" s="124"/>
+      <c r="AA70" s="122"/>
+      <c r="AB70" s="122"/>
     </row>
     <row r="71" spans="15:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O71" s="142"/>
-      <c r="P71" s="142"/>
-      <c r="Q71" s="142"/>
-      <c r="R71" s="144"/>
-      <c r="S71" s="144"/>
-      <c r="T71" s="144"/>
-      <c r="U71" s="144"/>
-      <c r="V71" s="144"/>
-      <c r="W71" s="144"/>
+      <c r="O71" s="144"/>
+      <c r="P71" s="144"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="146"/>
+      <c r="S71" s="146"/>
+      <c r="T71" s="146"/>
+      <c r="U71" s="146"/>
+      <c r="V71" s="146"/>
+      <c r="W71" s="146"/>
       <c r="X71" s="73" t="s">
         <v>757</v>
       </c>
       <c r="Y71" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="Z71" s="151">
+      <c r="Z71" s="142">
         <f>Z64</f>
         <v>32999701.192164224</v>
       </c>
-      <c r="AA71" s="124"/>
-      <c r="AB71" s="124"/>
+      <c r="AA71" s="122"/>
+      <c r="AB71" s="122"/>
     </row>
     <row r="72" spans="15:37" ht="32" x14ac:dyDescent="0.25">
       <c r="O72" s="51" t="s">
@@ -35463,12 +35469,12 @@
       <c r="Y72" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="Z72" s="151">
+      <c r="Z72" s="142">
         <f>Z65</f>
         <v>144895286.294337</v>
       </c>
-      <c r="AA72" s="124"/>
-      <c r="AB72" s="124"/>
+      <c r="AA72" s="122"/>
+      <c r="AB72" s="122"/>
     </row>
     <row r="73" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O73" s="51" t="s">
@@ -35489,12 +35495,12 @@
       <c r="Y73" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="Z73" s="151">
+      <c r="Z73" s="142">
         <f>Z66</f>
         <v>80000000</v>
       </c>
-      <c r="AA73" s="124"/>
-      <c r="AB73" s="124"/>
+      <c r="AA73" s="122"/>
+      <c r="AB73" s="122"/>
     </row>
     <row r="74" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O74" s="51" t="s">
@@ -35516,83 +35522,83 @@
       <c r="Y74" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="Z74" s="151">
+      <c r="Z74" s="142">
         <f>SUM(Z69:Z73)</f>
         <v>2507875066.9641161</v>
       </c>
-      <c r="AA74" s="124"/>
-      <c r="AB74" s="124"/>
+      <c r="AA74" s="122"/>
+      <c r="AB74" s="122"/>
     </row>
     <row r="75" spans="15:37" x14ac:dyDescent="0.15">
       <c r="X75" s="59"/>
     </row>
     <row r="76" spans="15:37" ht="26" x14ac:dyDescent="0.15">
-      <c r="O76" s="141" t="s">
+      <c r="O76" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="P76" s="141"/>
-      <c r="Q76" s="141"/>
-      <c r="R76" s="141"/>
-      <c r="S76" s="141"/>
-      <c r="T76" s="141"/>
-      <c r="U76" s="141"/>
-      <c r="V76" s="141"/>
-      <c r="W76" s="141"/>
-      <c r="Y76" s="142" t="s">
+      <c r="P76" s="151"/>
+      <c r="Q76" s="151"/>
+      <c r="R76" s="151"/>
+      <c r="S76" s="151"/>
+      <c r="T76" s="151"/>
+      <c r="U76" s="151"/>
+      <c r="V76" s="151"/>
+      <c r="W76" s="151"/>
+      <c r="Y76" s="144" t="s">
         <v>596</v>
       </c>
-      <c r="Z76" s="139"/>
-      <c r="AA76" s="139"/>
-      <c r="AB76" s="139"/>
-      <c r="AC76" s="139"/>
-      <c r="AD76" s="139"/>
-      <c r="AE76" s="139"/>
-      <c r="AF76" s="139"/>
-      <c r="AG76" s="139"/>
+      <c r="Z76" s="140"/>
+      <c r="AA76" s="140"/>
+      <c r="AB76" s="140"/>
+      <c r="AC76" s="140"/>
+      <c r="AD76" s="140"/>
+      <c r="AE76" s="140"/>
+      <c r="AF76" s="140"/>
+      <c r="AG76" s="140"/>
     </row>
     <row r="77" spans="15:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O77" s="142" t="s">
+      <c r="O77" s="144" t="s">
         <v>743</v>
       </c>
-      <c r="P77" s="139"/>
-      <c r="Q77" s="139"/>
-      <c r="R77" s="139"/>
-      <c r="S77" s="139"/>
-      <c r="T77" s="139"/>
-      <c r="U77" s="139"/>
-      <c r="V77" s="139"/>
-      <c r="W77" s="139"/>
+      <c r="P77" s="140"/>
+      <c r="Q77" s="140"/>
+      <c r="R77" s="140"/>
+      <c r="S77" s="140"/>
+      <c r="T77" s="140"/>
+      <c r="U77" s="140"/>
+      <c r="V77" s="140"/>
+      <c r="W77" s="140"/>
       <c r="Y77" s="51" t="s">
         <v>597</v>
       </c>
-      <c r="Z77" s="151">
+      <c r="Z77" s="142">
         <f>Z74</f>
         <v>2507875066.9641161</v>
       </c>
-      <c r="AA77" s="124"/>
-      <c r="AB77" s="124"/>
+      <c r="AA77" s="122"/>
+      <c r="AB77" s="122"/>
     </row>
     <row r="78" spans="15:37" x14ac:dyDescent="0.15">
       <c r="O78" s="56"/>
-      <c r="P78" s="142" t="s">
+      <c r="P78" s="144" t="s">
         <v>707</v>
       </c>
-      <c r="Q78" s="139"/>
-      <c r="R78" s="139"/>
-      <c r="S78" s="132"/>
-      <c r="T78" s="132"/>
-      <c r="U78" s="132"/>
-      <c r="V78" s="132"/>
-      <c r="W78" s="132"/>
+      <c r="Q78" s="140"/>
+      <c r="R78" s="140"/>
+      <c r="S78" s="133"/>
+      <c r="T78" s="133"/>
+      <c r="U78" s="133"/>
+      <c r="V78" s="133"/>
+      <c r="W78" s="133"/>
       <c r="Y78" s="51" t="s">
         <v>598</v>
       </c>
-      <c r="Z78" s="151">
+      <c r="Z78" s="142">
         <f>W74</f>
         <v>2664222634.8929539</v>
       </c>
-      <c r="AA78" s="124"/>
-      <c r="AB78" s="124"/>
+      <c r="AA78" s="122"/>
+      <c r="AB78" s="122"/>
     </row>
     <row r="79" spans="15:37" ht="16" x14ac:dyDescent="0.2">
       <c r="O79" s="56" t="s">
@@ -35610,10 +35616,10 @@
       <c r="S79" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="T79" s="142" t="s">
+      <c r="T79" s="144" t="s">
         <v>746</v>
       </c>
-      <c r="U79" s="132"/>
+      <c r="U79" s="133"/>
       <c r="V79" s="66" t="s">
         <v>751</v>
       </c>
@@ -35623,12 +35629,12 @@
       <c r="Y79" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="Z79" s="151">
+      <c r="Z79" s="142">
         <f>Z77-Z78</f>
         <v>-156347567.92883778</v>
       </c>
-      <c r="AA79" s="124"/>
-      <c r="AB79" s="124"/>
+      <c r="AA79" s="122"/>
+      <c r="AB79" s="122"/>
     </row>
     <row r="80" spans="15:37" x14ac:dyDescent="0.15">
       <c r="P80" t="s">
@@ -35643,10 +35649,10 @@
       <c r="S80" s="37">
         <v>0.90800000000000003</v>
       </c>
-      <c r="T80" s="143">
+      <c r="T80" s="152">
         <v>3969122</v>
       </c>
-      <c r="U80" s="124"/>
+      <c r="U80" s="122"/>
       <c r="V80" t="s">
         <v>749</v>
       </c>
@@ -35669,41 +35675,41 @@
       <c r="P83" s="77"/>
     </row>
     <row r="84" spans="15:23" ht="26" x14ac:dyDescent="0.15">
-      <c r="O84" s="141" t="s">
+      <c r="O84" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="P84" s="141"/>
-      <c r="Q84" s="141"/>
-      <c r="R84" s="141"/>
-      <c r="S84" s="141"/>
-      <c r="T84" s="141"/>
-      <c r="U84" s="141"/>
-      <c r="V84" s="141"/>
-      <c r="W84" s="141"/>
+      <c r="P84" s="151"/>
+      <c r="Q84" s="151"/>
+      <c r="R84" s="151"/>
+      <c r="S84" s="151"/>
+      <c r="T84" s="151"/>
+      <c r="U84" s="151"/>
+      <c r="V84" s="151"/>
+      <c r="W84" s="151"/>
     </row>
     <row r="85" spans="15:23" x14ac:dyDescent="0.15">
-      <c r="O85" s="142" t="s">
+      <c r="O85" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="P85" s="139"/>
-      <c r="Q85" s="139"/>
-      <c r="R85" s="139"/>
-      <c r="S85" s="139"/>
-      <c r="T85" s="139"/>
-      <c r="U85" s="139"/>
-      <c r="V85" s="139"/>
-      <c r="W85" s="139"/>
+      <c r="P85" s="140"/>
+      <c r="Q85" s="140"/>
+      <c r="R85" s="140"/>
+      <c r="S85" s="140"/>
+      <c r="T85" s="140"/>
+      <c r="U85" s="140"/>
+      <c r="V85" s="140"/>
+      <c r="W85" s="140"/>
     </row>
     <row r="86" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O86" s="70"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="139"/>
-      <c r="R86" s="139"/>
-      <c r="S86" s="132"/>
-      <c r="T86" s="132"/>
-      <c r="U86" s="132"/>
-      <c r="V86" s="132"/>
-      <c r="W86" s="132"/>
+      <c r="P86" s="144"/>
+      <c r="Q86" s="140"/>
+      <c r="R86" s="140"/>
+      <c r="S86" s="133"/>
+      <c r="T86" s="133"/>
+      <c r="U86" s="133"/>
+      <c r="V86" s="133"/>
+      <c r="W86" s="133"/>
     </row>
     <row r="87" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O87" s="70" t="s">
@@ -36100,71 +36106,63 @@
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="AF63:AH63"/>
-    <mergeCell ref="AF64:AH64"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="Y68:AG68"/>
-    <mergeCell ref="Y76:AG76"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="Z77:AB77"/>
-    <mergeCell ref="Z78:AB78"/>
-    <mergeCell ref="AI62:AK62"/>
-    <mergeCell ref="AI63:AK63"/>
-    <mergeCell ref="AI64:AK64"/>
-    <mergeCell ref="AC52:AE52"/>
-    <mergeCell ref="AC54:AE54"/>
-    <mergeCell ref="AC55:AE55"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="AC58:AE58"/>
-    <mergeCell ref="AC59:AE59"/>
-    <mergeCell ref="AC60:AE60"/>
-    <mergeCell ref="AC61:AE61"/>
-    <mergeCell ref="AC62:AE62"/>
-    <mergeCell ref="AC63:AE63"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="AF59:AH59"/>
-    <mergeCell ref="AF60:AH60"/>
-    <mergeCell ref="AF61:AH61"/>
-    <mergeCell ref="AF62:AH62"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="AI55:AK55"/>
-    <mergeCell ref="AI56:AK56"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="O47:W47"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="AF58:AH58"/>
-    <mergeCell ref="AI52:AK52"/>
-    <mergeCell ref="AI54:AK54"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AI60:AK60"/>
-    <mergeCell ref="AI61:AK61"/>
-    <mergeCell ref="AI57:AK57"/>
-    <mergeCell ref="AI58:AK58"/>
-    <mergeCell ref="AI59:AK59"/>
+    <mergeCell ref="O84:W84"/>
+    <mergeCell ref="O85:W85"/>
+    <mergeCell ref="P86:W86"/>
+    <mergeCell ref="O77:W77"/>
+    <mergeCell ref="P78:W78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="O46:W46"/>
+    <mergeCell ref="Y46:AG46"/>
+    <mergeCell ref="O76:W76"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:W69"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D38:U38"/>
+    <mergeCell ref="D40:U40"/>
+    <mergeCell ref="D42:U42"/>
+    <mergeCell ref="D44:U44"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B52:M52"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="T70:T71"/>
     <mergeCell ref="U70:U71"/>
     <mergeCell ref="V70:V71"/>
@@ -36189,63 +36187,71 @@
     <mergeCell ref="T58:T59"/>
     <mergeCell ref="U58:U59"/>
     <mergeCell ref="V58:V59"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B52:M52"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D38:U38"/>
-    <mergeCell ref="D40:U40"/>
-    <mergeCell ref="D42:U42"/>
-    <mergeCell ref="D44:U44"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="O85:W85"/>
-    <mergeCell ref="P86:W86"/>
-    <mergeCell ref="O77:W77"/>
-    <mergeCell ref="P78:W78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="O46:W46"/>
-    <mergeCell ref="Y46:AG46"/>
-    <mergeCell ref="O76:W76"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:W69"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="O47:W47"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="AF58:AH58"/>
+    <mergeCell ref="AI52:AK52"/>
+    <mergeCell ref="AI54:AK54"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="AI60:AK60"/>
+    <mergeCell ref="AI61:AK61"/>
+    <mergeCell ref="AI57:AK57"/>
+    <mergeCell ref="AI58:AK58"/>
+    <mergeCell ref="AI59:AK59"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI62:AK62"/>
+    <mergeCell ref="AI63:AK63"/>
+    <mergeCell ref="AI64:AK64"/>
+    <mergeCell ref="AC52:AE52"/>
+    <mergeCell ref="AC54:AE54"/>
+    <mergeCell ref="AC55:AE55"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="AC58:AE58"/>
+    <mergeCell ref="AC59:AE59"/>
+    <mergeCell ref="AC60:AE60"/>
+    <mergeCell ref="AC61:AE61"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="AC63:AE63"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AF59:AH59"/>
+    <mergeCell ref="AF60:AH60"/>
+    <mergeCell ref="AF61:AH61"/>
+    <mergeCell ref="AF62:AH62"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="AI55:AK55"/>
+    <mergeCell ref="AI56:AK56"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="AF63:AH63"/>
+    <mergeCell ref="AF64:AH64"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="Y68:AG68"/>
+    <mergeCell ref="Y76:AG76"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="Z77:AB77"/>
+    <mergeCell ref="Z78:AB78"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36276,14 +36282,14 @@
       <c r="A2" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>904</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
       <c r="J2" s="78"/>
@@ -36297,12 +36303,12 @@
       <c r="A3" s="43" t="s">
         <v>860</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
       <c r="J3" s="78"/>
@@ -36316,12 +36322,12 @@
       <c r="A4" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
       <c r="J4" s="78"/>
@@ -36335,12 +36341,12 @@
       <c r="A5" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="75"/>
       <c r="I5" s="75"/>
       <c r="J5" s="78"/>
@@ -36354,14 +36360,14 @@
       <c r="A6" s="43" t="s">
         <v>905</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="132" t="s">
         <v>906</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="75"/>
       <c r="I6" s="75"/>
       <c r="J6" s="78"/>
@@ -36372,27 +36378,27 @@
       <c r="O6" s="75"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="122" t="s">
         <v>903</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="131" t="s">
         <v>887</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
         <v>845</v>
@@ -36408,8 +36414,8 @@
       <c r="M8" s="134" t="s">
         <v>538</v>
       </c>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
@@ -37045,42 +37051,42 @@
       <c r="I33" s="88"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="121"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="136" t="s">
+      <c r="A41" s="131" t="s">
         <v>888</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
@@ -37360,11 +37366,11 @@
       <c r="A2" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
@@ -37379,11 +37385,11 @@
       <c r="A3" s="43" t="s">
         <v>860</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
@@ -37398,11 +37404,11 @@
       <c r="A4" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
       <c r="J4" s="78"/>
@@ -37416,11 +37422,11 @@
       <c r="A5" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="H5" s="75"/>
       <c r="I5" s="75"/>
       <c r="J5" s="78"/>
@@ -37431,27 +37437,27 @@
       <c r="O5" s="75"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="122" t="s">
         <v>902</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="131" t="s">
         <v>887</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="F7" s="74"/>
       <c r="G7" s="90" t="s">
         <v>845</v>
@@ -38101,42 +38107,42 @@
       <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="131" t="s">
         <v>888</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">

--- a/投资心得/宏观经济数据与龙头企业.xlsx
+++ b/投资心得/宏观经济数据与龙头企业.xlsx
@@ -4553,17 +4553,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CPI-通货膨胀</t>
-    <rPh sb="4" eb="5">
-      <t>tong huo peng zhang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPI-CPI领先指标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PPI-CPI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5212,10 +5201,6 @@
   </si>
   <si>
     <t>计算机、通信和其他电子设备制造业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品制造业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7596,19 +7581,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>农副食品加工业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品制造业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>化学原料和化学制品制造业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐饮收入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7629,10 +7602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>房地产开发投资和销售（中旬）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>东部</t>
     <rPh sb="0" eb="1">
       <t>dong bu</t>
@@ -7651,14 +7620,6 @@
     <rPh sb="0" eb="1">
       <t>xi bu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>农副食品加工业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础设施投资</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7798,6 +7759,45 @@
     <rPh sb="8" eb="9">
       <t>yuan liao</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPI（通货膨胀）</t>
+    <rPh sb="4" eb="5">
+      <t>tong huo peng zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPI（CPI领先指标）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发投资（中旬）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农副食品加工业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品制造业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设施投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农副食品加工业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品制造业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="122" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="34" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B122" s="34">
         <v>1</v>
@@ -14363,7 +14363,7 @@
     </row>
     <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B123">
         <f>SUM(D123:X123)</f>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B124">
         <f t="shared" ref="B124:B132" si="0">SUM(D124:X124)</f>
@@ -14469,7 +14469,7 @@
     </row>
     <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B125">
         <f t="shared" si="0"/>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B126">
         <f t="shared" si="0"/>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B127">
         <f t="shared" si="0"/>
@@ -14628,7 +14628,7 @@
     </row>
     <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B128">
         <f t="shared" si="0"/>
@@ -14681,7 +14681,7 @@
     </row>
     <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B129">
         <f t="shared" si="0"/>
@@ -14734,7 +14734,7 @@
     </row>
     <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B130">
         <f t="shared" si="0"/>
@@ -14787,7 +14787,7 @@
     </row>
     <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B131">
         <f t="shared" si="0"/>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B132">
         <f t="shared" si="0"/>
@@ -15268,7 +15268,7 @@
         <v>287</v>
       </c>
       <c r="X143" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.15">
@@ -15303,7 +15303,7 @@
         <v>282</v>
       </c>
       <c r="V144" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.15">
@@ -19017,15 +19017,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -19038,10 +19038,10 @@
     </row>
     <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -19054,10 +19054,10 @@
     </row>
     <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B4" s="149" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C4" s="125"/>
       <c r="D4" s="125"/>
@@ -19072,10 +19072,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
@@ -19090,10 +19090,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
@@ -19110,10 +19110,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C7" s="134"/>
       <c r="D7" s="134"/>
@@ -19130,10 +19130,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="43" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C8" s="134"/>
       <c r="D8" s="134"/>
@@ -19150,10 +19150,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="43" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C9" s="134"/>
       <c r="D9" s="134"/>
@@ -19170,10 +19170,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C10" s="134"/>
       <c r="D10" s="134"/>
@@ -19190,10 +19190,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="43" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C11" s="134"/>
       <c r="D11" s="134"/>
@@ -19212,10 +19212,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="43" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
@@ -19234,10 +19234,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="43" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C13" s="134"/>
       <c r="D13" s="134"/>
@@ -19256,10 +19256,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C14" s="134"/>
       <c r="D14" s="134"/>
@@ -19314,7 +19314,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="123" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B17" s="123"/>
       <c r="C17" s="123"/>
@@ -19370,15 +19370,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -19397,10 +19397,10 @@
     </row>
     <row r="3" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B3" s="149" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C3" s="125"/>
       <c r="D3" s="125"/>
@@ -19418,10 +19418,10 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B4" s="149" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C4" s="125"/>
       <c r="D4" s="125"/>
@@ -19436,10 +19436,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
@@ -19454,10 +19454,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
@@ -19510,7 +19510,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="123" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B11" s="123"/>
       <c r="C11" s="123"/>
@@ -19525,20 +19525,20 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C12" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.15">
       <c r="A14" s="68" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B14" s="85">
         <f>4191*7</f>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.15">
       <c r="A15" s="68" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B15" s="85">
         <v>7562.3</v>
@@ -19560,7 +19560,7 @@
     </row>
     <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" s="68" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B16" s="85">
         <v>2349.6999999999998</v>
@@ -21201,8 +21201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="N176" sqref="N176"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="P180" sqref="P180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="2" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>31</v>
@@ -21252,67 +21252,67 @@
         <v>355</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="M2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="O2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="S2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="U2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="W2" s="35" t="s">
         <v>355</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="Y2" s="35" t="s">
         <v>355</v>
@@ -21345,7 +21345,9 @@
         <v>12.8</v>
       </c>
       <c r="M3"/>
-      <c r="N3"/>
+      <c r="N3">
+        <v>12.9</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -21393,7 +21395,9 @@
         <v>9.5</v>
       </c>
       <c r="M4"/>
-      <c r="N4"/>
+      <c r="N4">
+        <v>9.9</v>
+      </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -21438,7 +21442,9 @@
         <v>6.5</v>
       </c>
       <c r="M5"/>
-      <c r="N5"/>
+      <c r="N5">
+        <v>6.9</v>
+      </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -21483,7 +21489,9 @@
         <v>11.1</v>
       </c>
       <c r="M6"/>
-      <c r="N6"/>
+      <c r="N6">
+        <v>10.7</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -21531,7 +21539,7 @@
     </row>
     <row r="8" spans="1:31" s="6" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="124" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
@@ -21554,7 +21562,7 @@
     </row>
     <row r="10" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -21631,7 +21639,7 @@
     </row>
     <row r="11" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -21675,48 +21683,48 @@
     <row r="12" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="35" t="s">
+        <v>668</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="L13" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="N13" s="35" t="s">
         <v>673</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="P13" s="35" t="s">
         <v>674</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="R13" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="T13" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="R13" s="35" t="s">
+      <c r="X13" s="35" t="s">
         <v>678</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="V13" s="35" t="s">
-        <v>680</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B14">
         <v>51.9</v>
@@ -21743,7 +21751,7 @@
     <row r="15" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>31</v>
@@ -21820,7 +21828,7 @@
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B17" s="6">
         <v>56.2</v>
@@ -21853,37 +21861,37 @@
         <v>31</v>
       </c>
       <c r="D19" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="L19" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="N19" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="P19" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="R19" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="T19" s="35" t="s">
         <v>665</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="V19" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="R19" s="35" t="s">
+      <c r="X19" s="35" t="s">
         <v>667</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="V19" s="35" t="s">
-        <v>669</v>
-      </c>
-      <c r="X19" s="35" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
@@ -21907,6 +21915,9 @@
       </c>
       <c r="L20">
         <v>51.2</v>
+      </c>
+      <c r="N20">
+        <v>52.8</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -21918,37 +21929,37 @@
         <v>31</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>668</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="J22" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="L22" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="N22" s="35" t="s">
         <v>673</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="P22" s="35" t="s">
         <v>674</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="R22" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="N22" s="35" t="s">
+      <c r="T22" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="P22" s="35" t="s">
+      <c r="V22" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="X22" s="35" t="s">
         <v>678</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>680</v>
-      </c>
-      <c r="X22" s="35" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
@@ -21973,51 +21984,54 @@
       <c r="L23">
         <v>58.4</v>
       </c>
+      <c r="N23">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="25" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="N25" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="P25" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="R25" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="T25" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="J25" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>645</v>
-      </c>
-      <c r="N25" s="34" t="s">
+      <c r="V25" s="34" t="s">
         <v>655</v>
       </c>
-      <c r="P25" s="34" t="s">
-        <v>647</v>
-      </c>
-      <c r="R25" s="34" t="s">
+      <c r="X25" s="34" t="s">
         <v>656</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="V25" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="X25" s="34" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>521</v>
+        <v>1002</v>
       </c>
       <c r="B26">
         <v>5.4</v>
@@ -22037,13 +22051,16 @@
       <c r="L26">
         <v>2.5</v>
       </c>
+      <c r="N26">
+        <v>2.7</v>
+      </c>
       <c r="Z26" s="129" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>522</v>
+        <v>1003</v>
       </c>
       <c r="B27">
         <v>0.1</v>
@@ -22063,11 +22080,14 @@
       <c r="L27">
         <v>-3</v>
       </c>
+      <c r="N27">
+        <v>-2.4</v>
+      </c>
       <c r="Z27" s="129"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B28" s="27">
         <f>B27-B26</f>
@@ -22094,6 +22114,10 @@
         <f>L27-L26</f>
         <v>-5.5</v>
       </c>
+      <c r="N28">
+        <f>N27-N26</f>
+        <v>-5.0999999999999996</v>
+      </c>
       <c r="Z28" s="125"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
@@ -22101,48 +22125,48 @@
     </row>
     <row r="30" spans="1:26" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A30" s="58" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="N30" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="P30" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="R30" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="T30" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="J30" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>645</v>
-      </c>
-      <c r="N30" s="34" t="s">
+      <c r="V30" s="34" t="s">
         <v>655</v>
       </c>
-      <c r="P30" s="34" t="s">
-        <v>647</v>
-      </c>
-      <c r="R30" s="34" t="s">
+      <c r="X30" s="34" t="s">
         <v>656</v>
-      </c>
-      <c r="T30" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="V30" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="X30" s="34" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D31">
         <v>-13.5</v>
@@ -22159,11 +22183,14 @@
       <c r="L31">
         <v>4.8</v>
       </c>
+      <c r="N31">
+        <v>4.8</v>
+      </c>
       <c r="X31" s="6"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D32">
         <v>-24.5</v>
@@ -22180,10 +22207,13 @@
       <c r="L32">
         <v>-3.1</v>
       </c>
+      <c r="N32">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D33">
         <v>-16.3</v>
@@ -22200,10 +22230,13 @@
       <c r="L33">
         <v>1.9</v>
       </c>
+      <c r="N33">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D34">
         <v>-20.5</v>
@@ -22220,10 +22253,13 @@
       <c r="L34">
         <v>-1.8</v>
       </c>
+      <c r="N34">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D35">
         <v>-9.5</v>
@@ -22236,12 +22272,18 @@
       </c>
       <c r="J35">
         <v>-3.3</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:25" s="34" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="34" t="s">
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="B37" s="34">
         <v>1</v>
@@ -22297,10 +22339,13 @@
       <c r="L38" s="34">
         <v>1.9</v>
       </c>
+      <c r="N38" s="34">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="39" spans="1:25" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="D39" s="2">
         <v>-12.5</v>
@@ -22322,7 +22367,9 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2">
+        <v>4</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -22336,7 +22383,7 @@
     </row>
     <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="D40" s="2">
         <v>-25.9</v>
@@ -22358,7 +22405,9 @@
         <v>-4.8</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2">
+        <v>-3.1</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -22372,7 +22421,7 @@
     </row>
     <row r="41" spans="1:25" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D41" s="2">
         <v>-16.100000000000001</v>
@@ -22394,7 +22443,9 @@
         <v>7.6</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" s="2">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -22409,7 +22460,7 @@
     <row r="42" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:25" s="34" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B43" s="34">
         <v>1</v>
@@ -22465,10 +22516,13 @@
       <c r="L44" s="34">
         <v>-3.1</v>
       </c>
+      <c r="N44" s="34">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="D45" s="2">
         <v>-38.9</v>
@@ -22490,7 +22544,9 @@
         <v>-16.8</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" s="2">
+        <v>-13.7</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -22504,7 +22560,7 @@
     </row>
     <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>611</v>
+        <v>1006</v>
       </c>
       <c r="D46" s="2">
         <v>-35.1</v>
@@ -22526,7 +22582,9 @@
         <v>-12.6</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2">
+        <v>-9.5</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -22540,7 +22598,7 @@
     </row>
     <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D47" s="2">
         <v>-44</v>
@@ -22562,7 +22620,9 @@
         <v>-22.4</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" s="2">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -22576,7 +22636,7 @@
     </row>
     <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D48" s="2">
         <v>-33</v>
@@ -22598,7 +22658,9 @@
         <v>-14.2</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" s="2">
+        <v>-13.6</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -22612,7 +22674,7 @@
     </row>
     <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D49" s="2">
         <v>-22.1</v>
@@ -22634,7 +22696,9 @@
         <v>13.6</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" s="2">
+        <v>14.7</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -22648,7 +22712,7 @@
     </row>
     <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D50" s="2">
         <v>-17.3</v>
@@ -22670,7 +22734,9 @@
         <v>-9.6</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" s="2">
+        <v>-6.5</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -22684,7 +22750,7 @@
     </row>
     <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D51" s="2">
         <v>-38.1</v>
@@ -22706,7 +22772,9 @@
         <v>-16.5</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" s="2">
+        <v>-15.5</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -22720,7 +22788,7 @@
     </row>
     <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D52" s="2">
         <v>-40.1</v>
@@ -22742,7 +22810,9 @@
         <v>-18</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" s="2">
+        <v>-16.899999999999999</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -22756,7 +22826,7 @@
     </row>
     <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D53" s="2">
         <v>-36.200000000000003</v>
@@ -22778,7 +22848,9 @@
         <v>-12.7</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" s="2">
+        <v>-11.5</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -22792,7 +22864,7 @@
     </row>
     <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D54" s="2">
         <v>-41.1</v>
@@ -22814,7 +22886,9 @@
         <v>-20.9</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" s="2">
+        <v>-19.899999999999999</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -22828,7 +22902,7 @@
     </row>
     <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D55" s="2">
         <v>-39.700000000000003</v>
@@ -22850,7 +22924,9 @@
         <v>-16.3</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" s="2">
+        <v>-14.2</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -22864,7 +22940,7 @@
     </row>
     <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D56" s="2">
         <v>-33.700000000000003</v>
@@ -22886,7 +22962,9 @@
         <v>-17.100000000000001</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" s="2">
+        <v>-14.1</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -22900,7 +22978,7 @@
     </row>
     <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D57" s="2">
         <v>-8.3000000000000007</v>
@@ -22922,7 +23000,9 @@
         <v>9.4</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" s="2">
+        <v>10.7</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -22936,7 +23016,7 @@
     </row>
     <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D58" s="2">
         <v>-6.4</v>
@@ -22958,7 +23038,9 @@
         <v>18.2</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" s="2">
+        <v>18</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -22972,7 +23054,7 @@
     </row>
     <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D59" s="2">
         <v>-23.1</v>
@@ -22994,7 +23076,9 @@
         <v>-6.9</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" s="2">
+        <v>-2.8</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -23008,7 +23092,7 @@
     </row>
     <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="D60" s="2">
         <v>-30.3</v>
@@ -23030,7 +23114,9 @@
         <v>-2.7</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" s="2">
+        <v>-1</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -23045,7 +23131,7 @@
     <row r="61" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:25" s="34" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="34" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B62" s="34">
         <v>1</v>
@@ -23101,10 +23187,13 @@
       <c r="L63" s="34">
         <v>-1.8</v>
       </c>
+      <c r="N63" s="34">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>979</v>
+      <c r="A64" s="49" t="s">
+        <v>1008</v>
       </c>
       <c r="D64" s="2">
         <v>-43.1</v>
@@ -23126,7 +23215,9 @@
         <v>-15.2</v>
       </c>
       <c r="M64" s="1"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="2">
+        <v>-11</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -23140,7 +23231,7 @@
     </row>
     <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D65" s="2">
         <v>9.6999999999999993</v>
@@ -23162,7 +23253,9 @@
         <v>10.5</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" s="2">
+        <v>6.9</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -23176,7 +23269,7 @@
     </row>
     <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D66" s="2">
         <v>3.1</v>
@@ -23198,7 +23291,9 @@
         <v>19.2</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" s="2">
+        <v>10.7</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -23212,7 +23307,7 @@
     </row>
     <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D67" s="2">
         <v>-15.7</v>
@@ -23234,7 +23329,9 @@
         <v>13.3</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" s="2">
+        <v>5</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -23248,7 +23345,7 @@
     </row>
     <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D68" s="2">
         <v>-30.9</v>
@@ -23270,7 +23367,9 @@
         <v>-0.1</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" s="2">
+        <v>-2.5</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -23284,7 +23383,7 @@
     </row>
     <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D69" s="2">
         <v>-14.1</v>
@@ -23306,7 +23405,9 @@
         <v>20.5</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" s="2">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -23320,7 +23421,7 @@
     </row>
     <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D70" s="2">
         <v>-41.1</v>
@@ -23342,7 +23443,9 @@
         <v>-6.8</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" s="2">
+        <v>7.5</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -23356,7 +23459,7 @@
     </row>
     <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D71" s="2">
         <v>-6.6</v>
@@ -23378,7 +23481,9 @@
         <v>16.899999999999999</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" s="2">
+        <v>6.9</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -23392,7 +23497,7 @@
     </row>
     <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D72" s="2">
         <v>-30</v>
@@ -23414,7 +23519,9 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -23428,7 +23535,7 @@
     </row>
     <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D73" s="2">
         <v>0.2</v>
@@ -23450,7 +23557,9 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="M73" s="1"/>
-      <c r="N73" s="2"/>
+      <c r="N73" s="2">
+        <v>5.3</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -23464,7 +23573,7 @@
     </row>
     <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D74" s="2">
         <v>-8.9</v>
@@ -23486,7 +23595,9 @@
         <v>8.1</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -23500,7 +23611,7 @@
     </row>
     <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D75" s="2">
         <v>-33.5</v>
@@ -23522,7 +23633,9 @@
         <v>-1.4</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="2">
+        <v>-3.9</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -23536,7 +23649,7 @@
     </row>
     <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D76" s="2">
         <v>-8.8000000000000007</v>
@@ -23558,7 +23671,9 @@
         <v>18.8</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" s="2">
+        <v>11.3</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -23572,7 +23687,7 @@
     </row>
     <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D77" s="2">
         <v>-26.2</v>
@@ -23594,7 +23709,9 @@
         <v>-13</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" s="2">
+        <v>-13.9</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -23608,7 +23725,7 @@
     </row>
     <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D78" s="2">
         <v>-37</v>
@@ -23630,7 +23747,9 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" s="2">
+        <v>12.3</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -23644,7 +23763,7 @@
     </row>
     <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D79" s="2">
         <v>-30.5</v>
@@ -23666,7 +23785,9 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" s="2">
+        <v>-2.5</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -23702,43 +23823,43 @@
     </row>
     <row r="81" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="34" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B81" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="J81" s="34" t="s">
         <v>641</v>
       </c>
-      <c r="F81" s="34" t="s">
+      <c r="L81" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="H81" s="34" t="s">
+      <c r="N81" s="34" t="s">
         <v>643</v>
       </c>
-      <c r="J81" s="34" t="s">
+      <c r="P81" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="L81" s="34" t="s">
+      <c r="R81" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="N81" s="34" t="s">
+      <c r="T81" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="P81" s="34" t="s">
+      <c r="V81" s="34" t="s">
         <v>647</v>
       </c>
-      <c r="R81" s="34" t="s">
+      <c r="X81" s="34" t="s">
         <v>648</v>
-      </c>
-      <c r="T81" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="V81" s="34" t="s">
-        <v>650</v>
-      </c>
-      <c r="X81" s="34" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -23763,6 +23884,9 @@
       <c r="L82">
         <v>3.85</v>
       </c>
+      <c r="N82">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -23786,13 +23910,16 @@
       <c r="L83" s="2">
         <v>4.6500000000000004</v>
       </c>
+      <c r="N83" s="2">
+        <v>4.6500000000000004</v>
+      </c>
     </row>
     <row r="84" spans="1:25" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
     </row>
     <row r="85" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="34" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B85" s="34">
         <v>1</v>
@@ -23848,10 +23975,13 @@
       <c r="L86" s="34">
         <v>4.8</v>
       </c>
+      <c r="N86" s="34">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="D87" s="2">
         <v>-16</v>
@@ -23873,7 +24003,9 @@
         <v>-2.4</v>
       </c>
       <c r="M87" s="1"/>
-      <c r="N87" s="2"/>
+      <c r="N87" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -23887,7 +24019,7 @@
     </row>
     <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
       <c r="D88" s="2">
         <v>-18.2</v>
@@ -23909,7 +24041,9 @@
         <v>1.3</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" s="2">
+        <v>1.8</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -23923,7 +24057,7 @@
     </row>
     <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D89" s="2">
         <v>-27.2</v>
@@ -23945,7 +24079,9 @@
         <v>3.2</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89" s="2">
+        <v>0.7</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -23959,7 +24095,7 @@
     </row>
     <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D90">
         <v>-12.3</v>
@@ -23977,7 +24113,9 @@
       <c r="L90" s="2">
         <v>4</v>
       </c>
-      <c r="N90" s="2"/>
+      <c r="N90" s="2">
+        <v>4.7</v>
+      </c>
       <c r="P90" s="2"/>
       <c r="R90" s="2"/>
       <c r="T90" s="2"/>
@@ -23985,7 +24123,7 @@
     </row>
     <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D91">
         <v>-12.3</v>
@@ -24007,7 +24145,9 @@
         <v>3.9</v>
       </c>
       <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="N91" s="2">
+        <v>3.3</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -24021,7 +24161,7 @@
     </row>
     <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D92" s="2">
         <v>-21.1</v>
@@ -24043,7 +24183,9 @@
         <v>2.7</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" s="2">
+        <v>3.1</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -24057,7 +24199,7 @@
     </row>
     <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D93" s="2">
         <v>-2</v>
@@ -24079,7 +24221,9 @@
         <v>4.8</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="N93" s="2">
+        <v>7.9</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -24093,7 +24237,7 @@
     </row>
     <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D94" s="2">
         <v>-8.5</v>
@@ -24115,7 +24259,9 @@
         <v>2.8</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94" s="2">
+        <v>2.6</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -24129,7 +24275,7 @@
     </row>
     <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D95" s="2">
         <v>-26.9</v>
@@ -24151,7 +24297,9 @@
         <v>2.6</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95" s="2">
+        <v>7.8</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -24165,7 +24313,7 @@
     </row>
     <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D96" s="2">
         <v>-28.2</v>
@@ -24187,6 +24335,9 @@
         <v>7.4</v>
       </c>
       <c r="M96" s="2"/>
+      <c r="N96" s="2">
+        <v>9.6</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="S96" s="2"/>
@@ -24196,7 +24347,7 @@
     </row>
     <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D97" s="2">
         <v>-24.4</v>
@@ -24218,6 +24369,9 @@
         <v>9.6</v>
       </c>
       <c r="M97" s="2"/>
+      <c r="N97" s="2">
+        <v>10.199999999999999</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="S97" s="2"/>
@@ -24227,7 +24381,7 @@
     </row>
     <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D98" s="2">
         <v>-31.8</v>
@@ -24249,7 +24403,9 @@
         <v>13.4</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" s="2">
+        <v>21.6</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -24263,7 +24419,7 @@
     </row>
     <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D99" s="2">
         <v>-28.2</v>
@@ -24285,7 +24441,9 @@
         <v>-1.2</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99" s="2">
+        <v>-1.4</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -24299,7 +24457,7 @@
     </row>
     <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D100" s="2">
         <v>-24.7</v>
@@ -24321,7 +24479,9 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="N100" s="2">
+        <v>15.6</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -24335,7 +24495,7 @@
     </row>
     <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D101">
         <v>-13.8</v>
@@ -24352,10 +24512,13 @@
       <c r="L101" s="2">
         <v>12.6</v>
       </c>
+      <c r="N101" s="2">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D102" s="2">
         <v>-7.3</v>
@@ -24377,7 +24540,9 @@
         <v>6.3</v>
       </c>
       <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102" s="2">
+        <v>1.7</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -24413,7 +24578,7 @@
     </row>
     <row r="104" spans="1:25" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B104" s="34">
         <v>1</v>
@@ -24454,7 +24619,7 @@
     </row>
     <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="D105" s="2">
         <v>-29.5</v>
@@ -24476,7 +24641,9 @@
         <v>8.4</v>
       </c>
       <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="N105" s="2">
+        <v>3.6</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -24490,7 +24657,7 @@
     </row>
     <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D106" s="2">
         <v>-19.399999999999999</v>
@@ -24512,7 +24679,9 @@
         <v>29.2</v>
       </c>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106" s="2">
+        <v>19.399999999999999</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -24526,7 +24695,7 @@
     </row>
     <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D107" s="2">
         <v>-45.8</v>
@@ -24548,7 +24717,9 @@
         <v>20.399999999999999</v>
       </c>
       <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="N107" s="2">
+        <v>26.8</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -24562,7 +24733,7 @@
     </row>
     <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D108" s="2">
         <v>-49.8</v>
@@ -24584,7 +24755,9 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+      <c r="N108" s="2">
+        <v>10.6</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -24598,7 +24771,7 @@
     </row>
     <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D109" s="2">
         <v>-41.3</v>
@@ -24620,7 +24793,9 @@
         <v>25.3</v>
       </c>
       <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="N109" s="2">
+        <v>20.100000000000001</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -24634,7 +24809,7 @@
     </row>
     <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D110" s="2">
         <v>-62.8</v>
@@ -24656,7 +24831,9 @@
         <v>-18.600000000000001</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110" s="2">
+        <v>36.700000000000003</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -24670,7 +24847,7 @@
     </row>
     <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D111" s="2">
         <v>-30.8</v>
@@ -24692,7 +24869,9 @@
         <v>43</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" s="2">
+        <v>44.7</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -24706,7 +24885,7 @@
     </row>
     <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D112" s="2">
         <v>-31.4</v>
@@ -24728,7 +24907,9 @@
         <v>0.3</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112" s="2">
+        <v>17.8</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -24742,7 +24923,7 @@
     </row>
     <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D113" s="2">
         <v>-32.5</v>
@@ -24764,7 +24945,9 @@
         <v>26.1</v>
       </c>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113" s="2">
+        <v>19.2</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -24778,7 +24961,7 @@
     </row>
     <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D114" s="2">
         <v>8.5</v>
@@ -24800,7 +24983,9 @@
         <v>11.1</v>
       </c>
       <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+      <c r="N114" s="2">
+        <v>9</v>
+      </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -24836,7 +25021,7 @@
     </row>
     <row r="116" spans="1:25" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A116" s="58" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>31</v>
@@ -24900,7 +25085,7 @@
     </row>
     <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D118">
         <v>-87</v>
@@ -24921,7 +25106,7 @@
     </row>
     <row r="120" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D120" s="39">
         <v>-14</v>
@@ -24957,7 +25142,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D121">
         <v>-11</v>
@@ -24977,7 +25162,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="D122">
         <v>-11</v>
@@ -24997,7 +25182,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D124" s="39">
         <v>-13.9</v>
@@ -25033,7 +25218,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D125">
         <v>-13.3</v>
@@ -25054,7 +25239,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="D126">
         <v>-13.3</v>
@@ -25075,7 +25260,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D128" s="39">
         <v>-6.5</v>
@@ -25111,7 +25296,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D129">
         <v>-10.199999999999999</v>
@@ -25132,7 +25317,7 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D130">
         <v>-10.199999999999999</v>
@@ -25153,7 +25338,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D132" s="39">
         <v>-27.6</v>
@@ -25189,7 +25374,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D133">
         <v>-26.2</v>
@@ -25210,7 +25395,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="D134">
         <v>-26.2</v>
@@ -25255,7 +25440,7 @@
     </row>
     <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D136" s="2">
         <v>-79.599999999999994</v>
@@ -25291,7 +25476,7 @@
     </row>
     <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D138" s="2">
         <v>-66.400000000000006</v>
@@ -25319,7 +25504,7 @@
     </row>
     <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D140" s="2">
         <v>-34.4</v>
@@ -25355,7 +25540,7 @@
     </row>
     <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="D142" s="2">
         <v>28.3</v>
@@ -25391,7 +25576,7 @@
     </row>
     <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D144" s="2">
         <v>-37</v>
@@ -25427,7 +25612,7 @@
     </row>
     <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D146" s="2">
         <v>-55.1</v>
@@ -25458,7 +25643,7 @@
     </row>
     <row r="148" spans="1:25" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A148" s="58" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B148" s="34" t="s">
         <v>31</v>
@@ -25519,7 +25704,7 @@
     </row>
     <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D150" s="2">
         <v>2.2000000000000002</v>
@@ -25555,7 +25740,7 @@
     </row>
     <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="D152" s="2">
         <v>-33.5</v>
@@ -25594,7 +25779,7 @@
     </row>
     <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="D154" s="2">
         <v>-21.9</v>
@@ -25633,7 +25818,7 @@
     </row>
     <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="D156" s="2">
         <v>-10.9</v>
@@ -25669,7 +25854,7 @@
     </row>
     <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="D158" s="2">
         <v>-42.3</v>
@@ -25708,7 +25893,7 @@
     </row>
     <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="D160" s="2">
         <v>-19.399999999999999</v>
@@ -25744,7 +25929,7 @@
     </row>
     <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="D162" s="2">
         <v>-68.2</v>
@@ -25783,7 +25968,7 @@
     </row>
     <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D164" s="2">
         <v>-116.7</v>
@@ -25819,7 +26004,7 @@
     </row>
     <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="49" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="D166" s="2">
         <v>-45.6</v>
@@ -25855,7 +26040,7 @@
     </row>
     <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D168" s="2">
         <v>-23.7</v>
@@ -25891,7 +26076,7 @@
     </row>
     <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D170" s="2">
         <v>-59.3</v>
@@ -25927,7 +26112,7 @@
     </row>
     <row r="173" spans="1:25" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A173" s="58" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B173" s="34" t="s">
         <v>31</v>
@@ -25968,7 +26153,7 @@
     </row>
     <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="130" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B174" s="2">
         <v>5862.7</v>
@@ -25990,6 +26175,9 @@
       </c>
       <c r="N174" s="2">
         <v>3170.4</v>
+      </c>
+      <c r="P174" s="2">
+        <v>3473.7</v>
       </c>
     </row>
     <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -26042,9 +26230,9 @@
         <v>3363.3</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="130" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B177" s="2">
         <v>12302.1</v>
@@ -26069,8 +26257,11 @@
         <v>10357.9</v>
       </c>
       <c r="O177" s="1"/>
-    </row>
-    <row r="178" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="P177" s="2">
+        <v>10935.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="123"/>
       <c r="B178" s="2">
         <v>12378.5</v>
@@ -26095,7 +26286,7 @@
         <v>10473.1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="123"/>
       <c r="B179" s="2">
         <v>11918.3</v>
@@ -26121,9 +26312,9 @@
         <v>10668.9</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="130" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B180" s="2"/>
       <c r="D180" s="2"/>
@@ -26134,8 +26325,11 @@
       <c r="L180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="1"/>
-    </row>
-    <row r="181" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="P180" s="2">
+        <v>51184.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="123"/>
       <c r="B181" s="2"/>
       <c r="D181" s="2"/>
@@ -26146,7 +26340,7 @@
       <c r="L181" s="2"/>
       <c r="N181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="123"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -26201,12 +26395,12 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="134"/>
@@ -26226,7 +26420,7 @@
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="134"/>
@@ -26244,7 +26438,7 @@
     </row>
     <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="134"/>
@@ -26263,7 +26457,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="134"/>
@@ -26281,7 +26475,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="123" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="123"/>
@@ -26296,26 +26490,26 @@
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="132" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="L8" s="99"/>
       <c r="M8" s="135" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N8" s="134"/>
       <c r="O8" s="134"/>
@@ -26327,21 +26521,21 @@
     </row>
     <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H9" s="87">
         <v>5722273431.3599997</v>
@@ -26352,36 +26546,36 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="L9" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M9" s="90" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="P9" s="99" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="Q9" s="99" t="s">
+        <v>955</v>
+      </c>
+      <c r="R9" s="99" t="s">
+        <v>956</v>
+      </c>
+      <c r="S9" s="99" t="s">
+        <v>957</v>
+      </c>
+      <c r="T9" s="99" t="s">
         <v>958</v>
-      </c>
-      <c r="R9" s="99" t="s">
-        <v>959</v>
-      </c>
-      <c r="S9" s="99" t="s">
-        <v>960</v>
-      </c>
-      <c r="T9" s="99" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B10" s="112">
         <f>157030328*1000</f>
@@ -26408,7 +26602,7 @@
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="90" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="M10" s="112">
         <v>79106506</v>
@@ -26420,7 +26614,7 @@
         <v>0.46710000000000002</v>
       </c>
       <c r="P10" s="134" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="Q10" s="134">
         <v>23.2</v>
@@ -26451,12 +26645,12 @@
         <v>0.70496916644912377</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="90" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H11" s="59">
         <v>319094.33</v>
@@ -26467,7 +26661,7 @@
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="99" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="M11" s="112">
         <v>20444295</v>
@@ -26486,7 +26680,7 @@
     </row>
     <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B12" s="116">
         <v>1607880088</v>
@@ -26510,7 +26704,7 @@
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="90" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="M12" s="112">
         <v>9121757</v>
@@ -26522,7 +26716,7 @@
         <v>0.45219999999999999</v>
       </c>
       <c r="P12" s="113" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="T12" s="37">
         <f>M12/B10*1000</f>
@@ -26542,12 +26736,12 @@
         <v>0.91805334188227405</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="90" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H13" s="59">
         <v>52306.27</v>
@@ -26558,7 +26752,7 @@
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
       <c r="L13" s="90" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="M13" s="112">
         <v>1022439</v>
@@ -26570,7 +26764,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="P13" s="114" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="T13" s="37">
         <f>M13/B10*1000</f>
@@ -26579,7 +26773,7 @@
     </row>
     <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B14" s="116">
         <v>1273619922</v>
@@ -26604,7 +26798,7 @@
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="99" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M14" s="112">
         <v>70718</v>
@@ -26616,7 +26810,7 @@
         <v>0.24940000000000001</v>
       </c>
       <c r="P14" s="114" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="T14" s="37">
         <f>M14/B10*1000</f>
@@ -26625,7 +26819,7 @@
     </row>
     <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B15" s="96">
         <f>C14-B14</f>
@@ -26636,10 +26830,10 @@
         <v>-619898635</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G15" s="90" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H15" s="59">
         <v>27316.38</v>
@@ -26648,7 +26842,7 @@
         <v>24089</v>
       </c>
       <c r="L15" s="99" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="M15" s="112">
         <v>38348548</v>
@@ -26660,7 +26854,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="P15" s="114" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="T15" s="37">
         <f>M15/B10*1000</f>
@@ -26669,7 +26863,7 @@
     </row>
     <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B16" s="116">
         <v>8375401956</v>
@@ -26694,7 +26888,7 @@
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="107" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="M16" s="67">
         <f>SUM(M10:M15)*1000</f>
@@ -26711,7 +26905,7 @@
     </row>
     <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="107" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B17" s="96">
         <f>C16-B16</f>
@@ -26722,10 +26916,10 @@
         <v>-8454844499</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G17" s="90" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H17" s="59">
         <v>11943.21</v>
@@ -26734,7 +26928,7 @@
         <v>10081.42</v>
       </c>
       <c r="L17" s="99" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="M17" s="67">
         <f>B10</f>
@@ -26746,7 +26940,7 @@
     </row>
     <row r="18" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B18" s="116">
         <v>3350585849</v>
@@ -26772,7 +26966,7 @@
     </row>
     <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B19" s="96">
         <f>C18-B18</f>
@@ -26783,10 +26977,10 @@
         <v>-3453913938</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G19" s="90" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H19" s="59">
         <v>-4495.41</v>
@@ -26796,7 +26990,7 @@
       </c>
       <c r="L19" s="99"/>
       <c r="M19" s="135" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N19" s="134"/>
       <c r="O19" s="134"/>
@@ -26810,7 +27004,7 @@
     </row>
     <row r="20" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B20" s="116">
         <v>3623379951</v>
@@ -26834,42 +27028,42 @@
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="99" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M20" s="99" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="N20" s="99" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O20" s="99" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="P20" s="99" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="Q20" s="99" t="s">
+        <v>955</v>
+      </c>
+      <c r="R20" s="99" t="s">
+        <v>956</v>
+      </c>
+      <c r="S20" s="99" t="s">
+        <v>957</v>
+      </c>
+      <c r="T20" s="99" t="s">
         <v>958</v>
       </c>
-      <c r="R20" s="99" t="s">
+      <c r="U20" s="99" t="s">
         <v>959</v>
       </c>
-      <c r="S20" s="99" t="s">
+      <c r="V20" s="99" t="s">
         <v>960</v>
-      </c>
-      <c r="T20" s="99" t="s">
-        <v>961</v>
-      </c>
-      <c r="U20" s="99" t="s">
-        <v>962</v>
-      </c>
-      <c r="V20" s="99" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="54" x14ac:dyDescent="0.25">
       <c r="A21" s="107" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B21" s="96">
         <f>C20-B20</f>
@@ -26880,10 +27074,10 @@
         <v>-10815236628</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G21" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H21" s="59">
         <v>-87937.22</v>
@@ -26892,7 +27086,7 @@
         <v>61231.08</v>
       </c>
       <c r="L21" s="99" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="M21" s="138">
         <f>Q21*R21*S21</f>
@@ -26907,7 +27101,7 @@
         <v>0.46710000000000002</v>
       </c>
       <c r="P21" s="134" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="Q21" s="134">
         <v>3</v>
@@ -26934,7 +27128,7 @@
     </row>
     <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B22" s="116">
         <v>3493690637</v>
@@ -26949,7 +27143,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
       <c r="L22" s="99" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="M22" s="134"/>
       <c r="N22" s="134"/>
@@ -26964,7 +27158,7 @@
     </row>
     <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B23" s="96">
         <f>B22-C22</f>
@@ -26975,13 +27169,13 @@
         <v>3313102709</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G23" s="90"/>
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
       <c r="L23" s="99" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="M23" s="112">
         <f>M12/4</f>
@@ -26995,7 +27189,7 @@
         <v>0.45219999999999999</v>
       </c>
       <c r="P23" s="113" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="T23" s="37">
         <f>T12</f>
@@ -27004,7 +27198,7 @@
     </row>
     <row r="24" spans="1:22" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B24" s="116">
         <v>196051253945</v>
@@ -27028,7 +27222,7 @@
       </c>
       <c r="I24" s="88"/>
       <c r="L24" s="99" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="M24" s="112">
         <f>M13/4</f>
@@ -27042,7 +27236,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="P24" s="114" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="T24" s="37">
         <f>T13</f>
@@ -27062,10 +27256,10 @@
         <v>0.76760323994927171</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G25" s="90" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H25" s="59">
         <v>6783.88</v>
@@ -27074,7 +27268,7 @@
         <v>6508.21</v>
       </c>
       <c r="L25" s="99" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M25" s="112">
         <f>M14/4</f>
@@ -27088,7 +27282,7 @@
         <v>0.24940000000000001</v>
       </c>
       <c r="P25" s="114" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="T25" s="37">
         <f>T14</f>
@@ -27097,7 +27291,7 @@
     </row>
     <row r="26" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B26" s="96">
         <v>4550431059.1599998</v>
@@ -27117,7 +27311,7 @@
       </c>
       <c r="I26" s="88"/>
       <c r="L26" s="99" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="M26" s="112">
         <f>M15/4</f>
@@ -27131,7 +27325,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="P26" s="114" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="T26" s="37">
         <f>T15</f>
@@ -27151,10 +27345,10 @@
         <v>0.20382318236563265</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G27" s="90" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H27" s="59">
         <v>40489.449999999997</v>
@@ -27163,7 +27357,7 @@
         <v>-11611.57</v>
       </c>
       <c r="L27" s="107" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="M27" s="67">
         <f>SUM(M21:M26)*1000</f>
@@ -27180,7 +27374,7 @@
     </row>
     <row r="28" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B28" s="96">
         <v>927327000</v>
@@ -27195,7 +27389,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
       <c r="L28" s="99" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="M28" s="67">
         <f>V21*1000</f>
@@ -27218,13 +27412,13 @@
         <v>0.60526729692462067</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
       <c r="L29" s="99" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="M29" s="67">
         <v>30500532480</v>
@@ -27258,7 +27452,7 @@
     </row>
     <row r="30" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B30" s="96">
         <v>74566108.890000001</v>
@@ -27287,7 +27481,7 @@
         <v>-1.0051302150587083</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G31" s="90"/>
       <c r="H31" s="59"/>
@@ -27295,7 +27489,7 @@
     </row>
     <row r="32" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B32" s="96">
         <v>-890436142.57000005</v>
@@ -27323,7 +27517,7 @@
         <v>7.4815351780397403</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G33" s="90" t="s">
         <v>238</v>
@@ -27336,7 +27530,7 @@
     </row>
     <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B34" s="96">
         <v>290391548.23000002</v>
@@ -27361,12 +27555,12 @@
         <v>-0.29209932908900071</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B36" s="96">
         <v>200000000</v>
@@ -27391,12 +27585,12 @@
         <v>0.5</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B38" s="96">
         <v>1934670685.0799999</v>
@@ -27421,12 +27615,12 @@
         <v>1.3180281771663824</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B40" s="96">
         <v>1775009197.0699999</v>
@@ -27451,12 +27645,12 @@
         <v>0.52050340767902969</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B42" s="96">
         <v>1775676065.6600001</v>
@@ -27481,13 +27675,13 @@
         <v>0.55741678296093811</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F43" s="95"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B44" s="97">
         <v>10.27</v>
@@ -27512,12 +27706,12 @@
         <v>0.52185089974293053</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B46" s="111">
         <f>B48*B49*B50</f>
@@ -27534,7 +27728,7 @@
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B47" s="88">
         <v>0.85189999999999999</v>
@@ -27548,7 +27742,7 @@
     </row>
     <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B48" s="111">
         <v>0.2407</v>
@@ -27562,7 +27756,7 @@
     </row>
     <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="90" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B49" s="92">
         <v>0.67</v>
@@ -27576,7 +27770,7 @@
     </row>
     <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B50" s="92">
         <v>1.65</v>
@@ -27590,12 +27784,12 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="74" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="131" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B52" s="131"/>
       <c r="C52" s="131"/>
@@ -27627,7 +27821,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="132" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B59" s="132"/>
       <c r="C59" s="132"/>
@@ -27635,21 +27829,21 @@
     </row>
     <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B60" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D60" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="90" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B61">
         <v>28.74</v>
@@ -27674,12 +27868,12 @@
         <v>-0.15806945863125635</v>
       </c>
       <c r="D62" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A63" s="90" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B63">
         <v>212.35</v>
@@ -27704,12 +27898,12 @@
         <v>-5.6683963429701008E-2</v>
       </c>
       <c r="D64" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B65">
         <f>426337.41-69684</f>
@@ -27737,12 +27931,12 @@
         <v>0.32525625310416084</v>
       </c>
       <c r="D66" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="90" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B67">
         <v>209698.84</v>
@@ -27767,12 +27961,12 @@
         <v>0.34168733926287037</v>
       </c>
       <c r="D68" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B69" s="37">
         <f>B24/B10</f>
@@ -27800,12 +27994,12 @@
         <v>3.6736191323971878E-2</v>
       </c>
       <c r="D70" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B71" s="37">
         <f>B38/B40</f>
@@ -27833,12 +28027,12 @@
         <v>0.52451363506296445</v>
       </c>
       <c r="D72" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B73" s="37" t="e">
         <f>B40/#REF!</f>
@@ -27866,7 +28060,7 @@
         <v>#REF!</v>
       </c>
       <c r="D74" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -27921,12 +28115,12 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="134"/>
@@ -27946,7 +28140,7 @@
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="134"/>
@@ -27964,7 +28158,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="134"/>
@@ -27983,7 +28177,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="134"/>
@@ -28001,7 +28195,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="123" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="123"/>
@@ -28016,44 +28210,44 @@
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="132" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="M8" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H9" s="87">
         <v>5722273431.3599997</v>
@@ -28064,21 +28258,21 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="L9" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M9" s="90" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B10" s="96">
         <v>7373701266.96</v>
@@ -28102,7 +28296,7 @@
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="90" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M10" s="59">
         <v>227230.16</v>
@@ -28127,12 +28321,12 @@
         <v>0.31025157854499336</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="90" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H11" s="59">
         <v>319094.33</v>
@@ -28143,7 +28337,7 @@
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="90" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="M11" s="59">
         <v>278752.48</v>
@@ -28157,7 +28351,7 @@
     </row>
     <row r="12" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B12" s="96">
         <v>157575010.90000001</v>
@@ -28181,7 +28375,7 @@
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="90" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="M12" s="59">
         <v>63526.73</v>
@@ -28206,12 +28400,12 @@
         <v>-0.90310048538949661</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="90" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H13" s="59">
         <v>52306.27</v>
@@ -28222,7 +28416,7 @@
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
       <c r="L13" s="90" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="M13" s="59">
         <v>1084.3599999999999</v>
@@ -28236,7 +28430,7 @@
     </row>
     <row r="14" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B14" s="96">
         <f>136586244.56+894774090.27</f>
@@ -28251,7 +28445,7 @@
         <v>612739300</v>
       </c>
       <c r="E14" s="110" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F14" s="74"/>
       <c r="G14" s="90" t="s">
@@ -28267,7 +28461,7 @@
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B15" s="96">
         <f>C14-B14</f>
@@ -28278,10 +28472,10 @@
         <v>-193459408.81000006</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G15" s="90" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H15" s="59">
         <v>27316.38</v>
@@ -28292,7 +28486,7 @@
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B16" s="96">
         <v>823191456.66999996</v>
@@ -28318,7 +28512,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="107" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B17" s="96">
         <f>B16-C16</f>
@@ -28329,10 +28523,10 @@
         <v>664198225.85000002</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G17" s="90" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H17" s="59">
         <v>11943.21</v>
@@ -28343,7 +28537,7 @@
     </row>
     <row r="18" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B18" s="108">
         <v>7157778241.54</v>
@@ -28383,10 +28577,10 @@
         <v>0.49084382142023875</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G19" s="90" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H19" s="59">
         <v>-4495.41</v>
@@ -28397,7 +28591,7 @@
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B20" s="96">
         <v>4550431059.1599998</v>
@@ -28434,10 +28628,10 @@
         <v>0.20382318236563265</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G21" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H21" s="59">
         <v>-87937.22</v>
@@ -28448,7 +28642,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B22" s="96">
         <v>927327000</v>
@@ -28476,7 +28670,7 @@
         <v>0.60526729692462067</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G23" s="90"/>
       <c r="H23" s="59"/>
@@ -28484,7 +28678,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B24" s="96">
         <v>74566108.890000001</v>
@@ -28517,10 +28711,10 @@
         <v>-1.0051302150587083</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G25" s="90" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H25" s="59">
         <v>6783.88</v>
@@ -28531,7 +28725,7 @@
     </row>
     <row r="26" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B26" s="96">
         <v>-890436142.57000005</v>
@@ -28564,10 +28758,10 @@
         <v>7.4815351780397403</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G27" s="90" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H27" s="59">
         <v>40489.449999999997</v>
@@ -28578,7 +28772,7 @@
     </row>
     <row r="28" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B28" s="96">
         <v>290391548.23000002</v>
@@ -28606,7 +28800,7 @@
         <v>-0.29209932908900071</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="59"/>
@@ -28614,7 +28808,7 @@
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B30" s="96">
         <v>200000000</v>
@@ -28643,7 +28837,7 @@
         <v>0.5</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G31" s="90"/>
       <c r="H31" s="59"/>
@@ -28651,7 +28845,7 @@
     </row>
     <row r="32" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B32" s="96">
         <v>1934670685.0799999</v>
@@ -28679,7 +28873,7 @@
         <v>1.3180281771663824</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G33" s="90" t="s">
         <v>238</v>
@@ -28692,7 +28886,7 @@
     </row>
     <row r="34" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B34" s="96">
         <v>1775009197.0699999</v>
@@ -28717,12 +28911,12 @@
         <v>0.52050340767902969</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B36" s="96">
         <v>1775676065.6600001</v>
@@ -28747,12 +28941,12 @@
         <v>0.55741678296093811</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B38" s="97">
         <v>10.27</v>
@@ -28777,12 +28971,12 @@
         <v>0.52185089974293053</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B40" s="111">
         <f>B42*B43*B44</f>
@@ -28799,7 +28993,7 @@
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B41" s="88">
         <v>0.85189999999999999</v>
@@ -28813,7 +29007,7 @@
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B42" s="111">
         <v>0.2407</v>
@@ -28827,7 +29021,7 @@
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B43" s="92">
         <v>0.67</v>
@@ -28842,7 +29036,7 @@
     </row>
     <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B44" s="92">
         <v>1.65</v>
@@ -28856,12 +29050,12 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="74" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="131" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B46" s="131"/>
       <c r="C46" s="131"/>
@@ -28893,7 +29087,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="132" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B53" s="132"/>
       <c r="C53" s="132"/>
@@ -28901,21 +29095,21 @@
     </row>
     <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C54" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D54" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B55">
         <v>28.74</v>
@@ -28940,12 +29134,12 @@
         <v>-0.15806945863125635</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="90" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B57">
         <v>212.35</v>
@@ -28970,12 +29164,12 @@
         <v>-5.6683963429701008E-2</v>
       </c>
       <c r="D58" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B59">
         <f>426337.41-69684</f>
@@ -29003,12 +29197,12 @@
         <v>0.32525625310416084</v>
       </c>
       <c r="D60" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="90" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B61">
         <v>209698.84</v>
@@ -29033,12 +29227,12 @@
         <v>0.34168733926287037</v>
       </c>
       <c r="D62" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A63" s="90" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B63" s="37">
         <f>B18/B10</f>
@@ -29066,12 +29260,12 @@
         <v>0.13783020439157892</v>
       </c>
       <c r="D64" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B65" s="37">
         <f>B32/B34</f>
@@ -29099,12 +29293,12 @@
         <v>0.52451363506296445</v>
       </c>
       <c r="D66" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="90" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B67" s="37" t="e">
         <f>B34/#REF!</f>
@@ -29132,7 +29326,7 @@
         <v>#REF!</v>
       </c>
       <c r="D68" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -29169,15 +29363,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -29196,10 +29390,10 @@
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -29218,10 +29412,10 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -29239,10 +29433,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
@@ -29260,7 +29454,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="123" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B6" s="123"/>
       <c r="C6" s="123"/>
@@ -29275,44 +29469,44 @@
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
       <c r="D7" s="132"/>
       <c r="F7" s="74"/>
       <c r="G7" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H7" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
       <c r="M7" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H8" s="87">
         <v>5722273431.3599997</v>
@@ -29323,21 +29517,21 @@
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="L8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M8" s="90" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="N8" s="90" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O8" s="90" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B9" s="87">
         <v>5722273431.3599997</v>
@@ -29361,7 +29555,7 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="L9" s="90" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M9" s="59">
         <v>227230.16</v>
@@ -29386,12 +29580,12 @@
         <v>0.28331070448735313</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
       <c r="G10" s="90" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H10" s="59">
         <v>319094.33</v>
@@ -29402,7 +29596,7 @@
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="90" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="M10" s="59">
         <v>278752.48</v>
@@ -29416,7 +29610,7 @@
     </row>
     <row r="11" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B11" s="91">
         <v>6369061390.1599998</v>
@@ -29440,7 +29634,7 @@
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="90" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="M11" s="59">
         <v>63526.73</v>
@@ -29465,12 +29659,12 @@
         <v>0.12058344627016063</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="90" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H12" s="59">
         <v>52306.27</v>
@@ -29481,7 +29675,7 @@
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="90" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="M12" s="59">
         <v>1084.3599999999999</v>
@@ -29495,7 +29689,7 @@
     </row>
     <row r="13" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B13" s="87">
         <v>1374376823.8</v>
@@ -29532,10 +29726,10 @@
         <v>0.4162409779468243</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H14" s="59">
         <v>27316.38</v>
@@ -29546,7 +29740,7 @@
     </row>
     <row r="15" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B15" s="87">
         <v>1354605040.01</v>
@@ -29583,10 +29777,10 @@
         <v>0.44974509701490306</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G16" s="90" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H16" s="59">
         <v>11943.21</v>
@@ -29597,7 +29791,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B17" s="47">
         <v>2.25</v>
@@ -29634,10 +29828,10 @@
         <v>0.45312500000000006</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G18" s="90" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H18" s="59">
         <v>-4495.41</v>
@@ -29648,7 +29842,7 @@
     </row>
     <row r="19" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B19" s="89">
         <v>-879372169.02999997</v>
@@ -29685,10 +29879,10 @@
         <v>-9.5463609469670571E-2</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G20" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H20" s="59">
         <v>-87937.22</v>
@@ -29699,7 +29893,7 @@
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B21" s="87">
         <f>6783.88*10000</f>
@@ -29730,7 +29924,7 @@
         <v>3.0952935380599008E-2</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G22" s="90"/>
       <c r="H22" s="59"/>
@@ -29738,7 +29932,7 @@
     </row>
     <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B23" s="87">
         <v>6631350694.0900002</v>
@@ -29771,10 +29965,10 @@
         <v>0.21287164112661186</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G24" s="90" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H24" s="59">
         <v>6783.88</v>
@@ -29785,7 +29979,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B25" s="87">
         <v>8810796390.7299995</v>
@@ -29818,10 +30012,10 @@
         <v>0.17872359367299306</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G26" s="90" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H26" s="59">
         <v>40489.449999999997</v>
@@ -29832,7 +30026,7 @@
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B27" s="88">
         <v>0.23599999999999999</v>
@@ -29849,7 +30043,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B28" s="88">
         <v>0.44240000000000002</v>
@@ -29866,7 +30060,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B29" s="88">
         <v>0.2402</v>
@@ -29883,7 +30077,7 @@
     </row>
     <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B30" s="94">
         <v>0.74</v>
@@ -29900,7 +30094,7 @@
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B31" s="94">
         <v>1.33</v>
@@ -29917,7 +30111,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G32" s="90" t="s">
         <v>238</v>
@@ -29930,7 +30124,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="125" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B33" s="125"/>
       <c r="C33" s="125"/>
@@ -29962,7 +30156,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="132" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B40" s="132"/>
       <c r="C40" s="132"/>
@@ -29970,21 +30164,21 @@
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C41" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D41" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B42">
         <v>28.74</v>
@@ -30009,12 +30203,12 @@
         <v>-0.15806945863125635</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B44">
         <v>212.35</v>
@@ -30039,12 +30233,12 @@
         <v>-5.6683963429701008E-2</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B46">
         <f>426337.41-69684</f>
@@ -30072,12 +30266,12 @@
         <v>0.32525625310416084</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B48">
         <v>209698.84</v>
@@ -30102,12 +30296,12 @@
         <v>0.34168733926287037</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B50" s="37">
         <f>B11/B9</f>
@@ -30135,12 +30329,12 @@
         <v>-0.12680269684355</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A52" s="90" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B52" s="37">
         <f>B19/B13</f>
@@ -30168,12 +30362,12 @@
         <v>-0.36131180737216873</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B54" s="37">
         <f>B13/B21</f>
@@ -30201,7 +30395,7 @@
         <v>0.37372030220175645</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -30238,7 +30432,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="140" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1"/>
@@ -30255,7 +30449,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="141" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="141"/>
@@ -30309,7 +30503,7 @@
     </row>
     <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B4" s="44">
         <v>45.2</v>
@@ -30350,7 +30544,7 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B5" s="104">
         <v>0.13500000000000001</v>
@@ -30391,7 +30585,7 @@
     </row>
     <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B6" s="44">
         <v>596.79999999999995</v>
@@ -30432,7 +30626,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B7" s="104">
         <v>0.2</v>
@@ -30473,7 +30667,7 @@
     </row>
     <row r="8" spans="1:13" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B8" s="44">
         <v>13.2</v>
@@ -30514,7 +30708,7 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B9" s="104">
         <v>5.7000000000000002E-2</v>
@@ -30555,7 +30749,7 @@
     </row>
     <row r="10" spans="1:13" ht="31" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -30572,7 +30766,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C11" s="141"/>
       <c r="D11" s="141"/>
@@ -30626,7 +30820,7 @@
     </row>
     <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B13" s="95">
         <v>37.81</v>
@@ -30651,7 +30845,7 @@
     </row>
     <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B14" s="101">
         <v>-0.16400000000000001</v>
@@ -30676,7 +30870,7 @@
     </row>
     <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B15" s="95">
         <v>500.5</v>
@@ -30701,16 +30895,16 @@
     </row>
     <row r="16" spans="1:13" ht="22" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C16" s="101">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E16" s="119">
         <v>0.217</v>
@@ -30726,7 +30920,7 @@
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B17" s="95">
         <v>13.24</v>
@@ -30751,7 +30945,7 @@
     </row>
     <row r="18" spans="1:13" ht="22" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B18" s="101">
         <v>3.2000000000000002E-3</v>
@@ -30776,7 +30970,7 @@
     </row>
     <row r="19" spans="1:13" ht="31" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -30793,7 +30987,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B20" s="142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C20" s="142"/>
       <c r="D20" s="142"/>
@@ -30973,7 +31167,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B25" s="142" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C25" s="142"/>
       <c r="D25" s="142"/>
@@ -31085,7 +31279,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B32" s="142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C32" s="142"/>
       <c r="D32" s="142"/>
@@ -31265,7 +31459,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B37" s="142" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C37" s="142"/>
       <c r="D37" s="142"/>
@@ -31377,7 +31571,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B44" s="142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C44" s="142"/>
       <c r="D44" s="142"/>
@@ -31557,7 +31751,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B49" s="142" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C49" s="142"/>
       <c r="D49" s="142"/>
@@ -31669,7 +31863,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B56" s="142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C56" s="142"/>
       <c r="D56" s="142"/>
@@ -31849,7 +32043,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B61" s="142" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C61" s="142"/>
       <c r="D61" s="142"/>
@@ -32007,15 +32201,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C2" s="123"/>
       <c r="D2" s="123"/>
@@ -32028,10 +32222,10 @@
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -32044,10 +32238,10 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B4" s="149" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C4" s="125"/>
       <c r="D4" s="125"/>
@@ -32062,10 +32256,10 @@
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
@@ -32080,10 +32274,10 @@
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
@@ -32100,10 +32294,10 @@
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C7" s="134"/>
       <c r="D7" s="134"/>
@@ -32120,10 +32314,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="43" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C8" s="134"/>
       <c r="D8" s="134"/>
@@ -32140,10 +32334,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="43" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C9" s="134"/>
       <c r="D9" s="134"/>
@@ -32160,10 +32354,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="43" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C10" s="134"/>
       <c r="D10" s="134"/>
@@ -32180,10 +32374,10 @@
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A11" s="43" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C11" s="134"/>
       <c r="D11" s="134"/>
@@ -32202,10 +32396,10 @@
     </row>
     <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="43" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
@@ -32224,10 +32418,10 @@
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="43" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C13" s="134"/>
       <c r="D13" s="134"/>
@@ -32246,10 +32440,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C14" s="134"/>
       <c r="D14" s="134"/>
@@ -32268,10 +32462,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="43" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C15" s="134"/>
       <c r="D15" s="134"/>
@@ -32290,10 +32484,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="43" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C16" s="134"/>
       <c r="D16" s="134"/>
@@ -32312,13 +32506,13 @@
     </row>
     <row r="18" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B18" s="134"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B19" s="141" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C19" s="141"/>
       <c r="D19" s="141"/>
@@ -32420,189 +32614,189 @@
     </row>
     <row r="21" spans="1:61" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="F21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="G21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="J21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="K21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="J21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="L21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="N21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="O21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="P21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="O21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="Q21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="S21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="T21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="S21" s="36" t="s">
+      <c r="U21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="T21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="U21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="V21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="W21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="X21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="W21" s="36" t="s">
+      <c r="Y21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="X21" s="36" t="s">
+      <c r="Z21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="Y21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AA21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AB21" s="36" t="s">
+      <c r="AD21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AC21" s="36" t="s">
+      <c r="AE21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AE21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AF21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AG21" s="36" t="s">
+      <c r="AI21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AH21" s="36" t="s">
+      <c r="AJ21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AI21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AJ21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AK21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AL21" s="36" t="s">
+      <c r="AN21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AM21" s="36" t="s">
+      <c r="AO21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AN21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AO21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AP21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AQ21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AR21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AQ21" s="36" t="s">
+      <c r="AS21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AR21" s="36" t="s">
+      <c r="AT21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AS21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AT21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AU21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AV21" s="36" t="s">
+      <c r="AX21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AW21" s="36" t="s">
+      <c r="AY21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AX21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AY21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AZ21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="BA21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="BB21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="BA21" s="36" t="s">
+      <c r="BC21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="BB21" s="36" t="s">
+      <c r="BD21" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="BC21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BD21" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="BE21" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="BF21" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="BG21" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="BF21" s="36" t="s">
+      <c r="BH21" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="BG21" s="36" t="s">
+      <c r="BI21" s="36" t="s">
         <v>544</v>
-      </c>
-      <c r="BH21" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BI21" s="36" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:61" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B22" s="44"/>
       <c r="T22">
@@ -32698,7 +32892,7 @@
     </row>
     <row r="23" spans="1:61" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="T23">
         <v>825</v>
@@ -32793,7 +32987,7 @@
     </row>
     <row r="24" spans="1:61" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="T24">
         <v>139</v>
@@ -32888,7 +33082,7 @@
     </row>
     <row r="25" spans="1:61" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T25">
         <v>1666</v>
@@ -32983,7 +33177,7 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="T26">
         <f t="shared" ref="T26:AB26" si="0">T22*T23+T24*T25</f>
@@ -33116,7 +33310,7 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B27" s="141" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C27" s="141"/>
       <c r="D27" s="141"/>
@@ -33218,189 +33412,189 @@
     </row>
     <row r="29" spans="1:61" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="F29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="E29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="G29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="J29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="K29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="L29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="N29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="O29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="P29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="O29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="Q29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="S29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="R29" s="36" t="s">
+      <c r="T29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="S29" s="36" t="s">
+      <c r="U29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="T29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="U29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="V29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="W29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="X29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="W29" s="36" t="s">
+      <c r="Y29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="X29" s="36" t="s">
+      <c r="Z29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="Y29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AA29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AB29" s="36" t="s">
+      <c r="AD29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AC29" s="36" t="s">
+      <c r="AE29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AE29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AF29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AG29" s="36" t="s">
+      <c r="AI29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AH29" s="36" t="s">
+      <c r="AJ29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AI29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AJ29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AK29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AL29" s="36" t="s">
+      <c r="AN29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AM29" s="36" t="s">
+      <c r="AO29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AN29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AO29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AP29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AQ29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AR29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AQ29" s="36" t="s">
+      <c r="AS29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AR29" s="36" t="s">
+      <c r="AT29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AS29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AT29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AU29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="AV29" s="36" t="s">
+      <c r="AX29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="AW29" s="36" t="s">
+      <c r="AY29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AX29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AY29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="AZ29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="BA29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="BB29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="BA29" s="36" t="s">
+      <c r="BC29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="BB29" s="36" t="s">
+      <c r="BD29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="BC29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BD29" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="BE29" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="BF29" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="BG29" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="BF29" s="36" t="s">
+      <c r="BH29" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="BG29" s="36" t="s">
+      <c r="BI29" s="36" t="s">
         <v>544</v>
-      </c>
-      <c r="BH29" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BI29" s="36" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:61" ht="30" x14ac:dyDescent="0.15">
       <c r="A30" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B30">
         <v>957</v>
@@ -33471,7 +33665,7 @@
     </row>
     <row r="31" spans="1:61" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B31">
         <v>662</v>
@@ -33542,7 +33736,7 @@
     </row>
     <row r="32" spans="1:61" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B32">
         <v>141</v>
@@ -33613,7 +33807,7 @@
     </row>
     <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.15">
       <c r="A33" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B33">
         <v>1649</v>
@@ -33684,7 +33878,7 @@
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A34" s="43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B34">
         <f>B30*B31+B32*B33</f>
@@ -33793,7 +33987,7 @@
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="43" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B35" s="37">
         <v>4.6399999999999997E-2</v>
@@ -33868,7 +34062,7 @@
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A36" s="43" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -33922,12 +34116,12 @@
     </row>
     <row r="38" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="140" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B38" s="125"/>
       <c r="C38" s="125"/>
       <c r="D38" s="151" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E38" s="134"/>
       <c r="F38" s="134"/>
@@ -33970,12 +34164,12 @@
     </row>
     <row r="40" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="140" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B40" s="125"/>
       <c r="C40" s="125"/>
       <c r="D40" s="151" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E40" s="134"/>
       <c r="F40" s="134"/>
@@ -34018,12 +34212,12 @@
     </row>
     <row r="42" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="140" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B42" s="125"/>
       <c r="C42" s="125"/>
       <c r="D42" s="151" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E42" s="134"/>
       <c r="F42" s="134"/>
@@ -34066,12 +34260,12 @@
     </row>
     <row r="44" spans="1:45" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="140" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B44" s="125"/>
       <c r="C44" s="125"/>
       <c r="D44" s="151" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E44" s="134"/>
       <c r="F44" s="134"/>
@@ -34093,7 +34287,7 @@
     </row>
     <row r="46" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B46" s="150"/>
       <c r="C46" s="134"/>
@@ -34122,7 +34316,7 @@
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B47" s="141" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C47" s="141"/>
       <c r="D47" s="141"/>
@@ -34136,7 +34330,7 @@
       <c r="L47" s="141"/>
       <c r="M47" s="141"/>
       <c r="O47" s="145" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P47" s="141"/>
       <c r="Q47" s="141"/>
@@ -34147,10 +34341,10 @@
       <c r="V47" s="141"/>
       <c r="W47" s="141"/>
       <c r="Y47" s="145" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Z47" s="145" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AA47" s="141"/>
       <c r="AB47" s="141"/>
@@ -34206,7 +34400,7 @@
       </c>
       <c r="N48"/>
       <c r="O48" s="145" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P48" s="141"/>
       <c r="Q48" s="141"/>
@@ -34265,7 +34459,7 @@
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B49" s="37">
         <v>0.16</v>
@@ -34304,15 +34498,15 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="O49" s="145" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P49" s="145" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q49" s="141"/>
       <c r="R49" s="141"/>
       <c r="S49" s="145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T49" s="141"/>
       <c r="U49" s="141"/>
@@ -34374,31 +34568,31 @@
       </c>
       <c r="O50" s="145"/>
       <c r="P50" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q50" s="145" t="s">
+        <v>557</v>
+      </c>
+      <c r="R50" s="147" t="s">
         <v>558</v>
       </c>
-      <c r="Q50" s="145" t="s">
-        <v>559</v>
-      </c>
-      <c r="R50" s="147" t="s">
+      <c r="S50" s="147" t="s">
         <v>560</v>
       </c>
-      <c r="S50" s="147" t="s">
+      <c r="T50" s="147" t="s">
+        <v>561</v>
+      </c>
+      <c r="U50" s="147" t="s">
         <v>562</v>
       </c>
-      <c r="T50" s="147" t="s">
-        <v>563</v>
-      </c>
-      <c r="U50" s="147" t="s">
-        <v>564</v>
-      </c>
       <c r="V50" s="147" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W50" s="147" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="Y50" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Z50">
         <v>333826.28000000003</v>
@@ -34499,7 +34693,7 @@
       <c r="V51" s="147"/>
       <c r="W51" s="147"/>
       <c r="Y51" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Z51" s="46">
         <v>0.05</v>
@@ -34540,7 +34734,7 @@
     </row>
     <row r="52" spans="1:44" ht="30" x14ac:dyDescent="0.15">
       <c r="B52" s="141" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C52" s="141"/>
       <c r="D52" s="141"/>
@@ -34554,7 +34748,7 @@
       <c r="L52" s="141"/>
       <c r="M52" s="141"/>
       <c r="O52" s="51" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P52" s="59">
         <v>4165877864</v>
@@ -34584,7 +34778,7 @@
         <v>678130031.82871866</v>
       </c>
       <c r="Y52" s="51" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z52" s="141">
         <f>Z50+AA50+AB50</f>
@@ -34653,7 +34847,7 @@
       </c>
       <c r="N53"/>
       <c r="O53" s="51" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P53" s="59">
         <v>2423547806</v>
@@ -34684,7 +34878,7 @@
       </c>
       <c r="X53"/>
       <c r="Y53" s="51" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53:AK53" si="4">Z50*Z51</f>
@@ -34744,7 +34938,7 @@
     </row>
     <row r="54" spans="1:44" ht="30" x14ac:dyDescent="0.15">
       <c r="A54" s="58" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B54" s="37">
         <v>7.1400000000000005E-2</v>
@@ -34767,7 +34961,7 @@
       <c r="L54" s="37"/>
       <c r="M54" s="37"/>
       <c r="O54" s="51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P54" s="59">
         <v>269416962</v>
@@ -34797,7 +34991,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="51" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Z54" s="141">
         <f>(Z53+AA53+AB53)/Z52</f>
@@ -34849,7 +35043,7 @@
       <c r="L55" s="37"/>
       <c r="M55" s="37"/>
       <c r="O55" s="51" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P55" s="59">
         <f>+P54+P53+P52</f>
@@ -34861,7 +35055,7 @@
         <v>1072640049.7588078</v>
       </c>
       <c r="Y55" s="51" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z55" s="144">
         <v>3639626871</v>
@@ -34913,7 +35107,7 @@
       <c r="L56" s="37"/>
       <c r="M56" s="37"/>
       <c r="O56" s="145" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P56" s="141"/>
       <c r="Q56" s="141"/>
@@ -34924,7 +35118,7 @@
       <c r="V56" s="141"/>
       <c r="W56" s="141"/>
       <c r="Y56" s="51" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Z56" s="146">
         <v>0.98</v>
@@ -34949,22 +35143,22 @@
     </row>
     <row r="57" spans="1:44" ht="30" x14ac:dyDescent="0.15">
       <c r="O57" s="145" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P57" s="145" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Q57" s="141"/>
       <c r="R57" s="141"/>
       <c r="S57" s="145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T57" s="141"/>
       <c r="U57" s="141"/>
       <c r="V57" s="141"/>
       <c r="W57" s="141"/>
       <c r="Y57" s="51" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Z57" s="141">
         <v>936222.65</v>
@@ -35005,31 +35199,31 @@
       <c r="M58" s="141"/>
       <c r="O58" s="145"/>
       <c r="P58" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q58" s="145" t="s">
+        <v>557</v>
+      </c>
+      <c r="R58" s="147" t="s">
         <v>558</v>
       </c>
-      <c r="Q58" s="145" t="s">
-        <v>559</v>
-      </c>
-      <c r="R58" s="147" t="s">
+      <c r="S58" s="147" t="s">
         <v>560</v>
       </c>
-      <c r="S58" s="147" t="s">
+      <c r="T58" s="147" t="s">
+        <v>561</v>
+      </c>
+      <c r="U58" s="147" t="s">
         <v>562</v>
       </c>
-      <c r="T58" s="147" t="s">
+      <c r="V58" s="147" t="s">
+        <v>558</v>
+      </c>
+      <c r="W58" s="147" t="s">
         <v>563</v>
       </c>
-      <c r="U58" s="147" t="s">
-        <v>564</v>
-      </c>
-      <c r="V58" s="147" t="s">
-        <v>560</v>
-      </c>
-      <c r="W58" s="147" t="s">
-        <v>565</v>
-      </c>
       <c r="Y58" s="51" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Z58" s="141">
         <f>Z55*Z56/Z57/10000</f>
@@ -35082,7 +35276,7 @@
       <c r="W59" s="147"/>
       <c r="X59"/>
       <c r="Y59" s="51" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z59" s="141">
         <f>Z58*(1+Z54)</f>
@@ -35118,7 +35312,7 @@
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.15">
       <c r="O60" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P60" s="59">
         <v>2481778680</v>
@@ -35148,7 +35342,7 @@
         <v>547427663.47094631</v>
       </c>
       <c r="Y60" s="51" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z60" s="144">
         <f>Z52*Z59*10000</f>
@@ -35177,7 +35371,7 @@
     </row>
     <row r="61" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O61" s="54" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="P61" s="59">
         <v>1137681717</v>
@@ -35207,7 +35401,7 @@
         <v>309812866.97094935</v>
       </c>
       <c r="Y61" s="48" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z61" s="141"/>
       <c r="AA61" s="141"/>
@@ -35224,7 +35418,7 @@
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.15">
       <c r="O62" s="47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P62" s="59">
         <v>940263808</v>
@@ -35254,7 +35448,7 @@
         <v>256052129.26657432</v>
       </c>
       <c r="Y62" s="51" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Z62" s="144"/>
       <c r="AA62" s="144"/>
@@ -35271,7 +35465,7 @@
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.15">
       <c r="O63" s="50" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P63" s="59">
         <v>609537539</v>
@@ -35301,7 +35495,7 @@
         <v>165988931.4051505</v>
       </c>
       <c r="Y63" s="51" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Z63" s="144">
         <v>50000000</v>
@@ -35340,7 +35534,7 @@
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64" s="51" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P64" s="59">
         <v>195510945</v>
@@ -35371,7 +35565,7 @@
       </c>
       <c r="X64"/>
       <c r="Y64" s="51" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Z64" s="144">
         <f>Z60*1.5%</f>
@@ -35407,7 +35601,7 @@
     </row>
     <row r="65" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O65" s="51" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P65" s="59">
         <v>830064543</v>
@@ -35437,7 +35631,7 @@
         <v>226042725.30272263</v>
       </c>
       <c r="Y65" s="51" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Z65" s="144">
         <v>144895286.294337</v>
@@ -35456,7 +35650,7 @@
     </row>
     <row r="66" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O66" s="47" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P66" s="59">
         <v>121243024</v>
@@ -35486,7 +35680,7 @@
         <v>33016834.413686562</v>
       </c>
       <c r="Y66" s="51" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z66" s="144">
         <v>80000000</v>
@@ -35511,7 +35705,7 @@
     </row>
     <row r="67" spans="15:37" x14ac:dyDescent="0.15">
       <c r="O67" s="51" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P67" s="59">
         <f>P60+P61+P62+P63+P64+P65+P66</f>
@@ -35525,7 +35719,7 @@
     </row>
     <row r="68" spans="15:37" x14ac:dyDescent="0.15">
       <c r="O68" s="145" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P68" s="141"/>
       <c r="Q68" s="141"/>
@@ -35537,7 +35731,7 @@
       <c r="W68" s="141"/>
       <c r="X68" s="10"/>
       <c r="Y68" s="145" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z68" s="141"/>
       <c r="AA68" s="141"/>
@@ -35550,25 +35744,25 @@
     </row>
     <row r="69" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O69" s="145" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P69" s="145" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Q69" s="141"/>
       <c r="R69" s="141"/>
       <c r="S69" s="145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T69" s="141"/>
       <c r="U69" s="141"/>
       <c r="V69" s="141"/>
       <c r="W69" s="141"/>
       <c r="X69" s="73" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="Y69" s="51" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z69" s="143">
         <f>Z60</f>
@@ -35580,34 +35774,34 @@
     <row r="70" spans="15:37" ht="17" x14ac:dyDescent="0.25">
       <c r="O70" s="145"/>
       <c r="P70" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q70" s="145" t="s">
+        <v>557</v>
+      </c>
+      <c r="R70" s="147" t="s">
         <v>558</v>
       </c>
-      <c r="Q70" s="145" t="s">
-        <v>559</v>
-      </c>
-      <c r="R70" s="147" t="s">
+      <c r="S70" s="147" t="s">
         <v>560</v>
       </c>
-      <c r="S70" s="147" t="s">
+      <c r="T70" s="147" t="s">
+        <v>561</v>
+      </c>
+      <c r="U70" s="147" t="s">
         <v>562</v>
       </c>
-      <c r="T70" s="147" t="s">
+      <c r="V70" s="147" t="s">
+        <v>558</v>
+      </c>
+      <c r="W70" s="147" t="s">
         <v>563</v>
-      </c>
-      <c r="U70" s="147" t="s">
-        <v>564</v>
-      </c>
-      <c r="V70" s="147" t="s">
-        <v>560</v>
-      </c>
-      <c r="W70" s="147" t="s">
-        <v>565</v>
       </c>
       <c r="X70" s="76">
         <v>2383997106</v>
       </c>
       <c r="Y70" s="51" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Z70" s="143">
         <f>Z63</f>
@@ -35627,10 +35821,10 @@
       <c r="V71" s="147"/>
       <c r="W71" s="147"/>
       <c r="X71" s="73" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="Y71" s="51" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Z71" s="143">
         <f>Z64</f>
@@ -35641,7 +35835,7 @@
     </row>
     <row r="72" spans="15:37" ht="32" x14ac:dyDescent="0.25">
       <c r="O72" s="51" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P72" s="59">
         <f>P55</f>
@@ -35656,7 +35850,7 @@
         <v>-227327350</v>
       </c>
       <c r="Y72" s="51" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Z72" s="143">
         <f>Z65</f>
@@ -35667,7 +35861,7 @@
     </row>
     <row r="73" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O73" s="51" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P73" s="59">
         <f>P67</f>
@@ -35679,10 +35873,10 @@
         <v>1591582585.134146</v>
       </c>
       <c r="X73" s="73" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Y73" s="51" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z73" s="143">
         <f>Z66</f>
@@ -35693,7 +35887,7 @@
     </row>
     <row r="74" spans="15:37" ht="30" x14ac:dyDescent="0.15">
       <c r="O74" s="51" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P74" s="59">
         <f>P73+P72</f>
@@ -35709,7 +35903,7 @@
         <v>2611324456</v>
       </c>
       <c r="Y74" s="51" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z74" s="143">
         <f>SUM(Z69:Z73)</f>
@@ -35734,7 +35928,7 @@
       <c r="V76" s="152"/>
       <c r="W76" s="152"/>
       <c r="Y76" s="145" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Z76" s="141"/>
       <c r="AA76" s="141"/>
@@ -35747,7 +35941,7 @@
     </row>
     <row r="77" spans="15:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O77" s="145" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="P77" s="141"/>
       <c r="Q77" s="141"/>
@@ -35758,7 +35952,7 @@
       <c r="V77" s="141"/>
       <c r="W77" s="141"/>
       <c r="Y77" s="51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Z77" s="143">
         <f>Z74</f>
@@ -35770,7 +35964,7 @@
     <row r="78" spans="15:37" x14ac:dyDescent="0.15">
       <c r="O78" s="56"/>
       <c r="P78" s="145" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Q78" s="141"/>
       <c r="R78" s="141"/>
@@ -35780,7 +35974,7 @@
       <c r="V78" s="134"/>
       <c r="W78" s="134"/>
       <c r="Y78" s="51" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Z78" s="143">
         <f>W74</f>
@@ -35791,32 +35985,32 @@
     </row>
     <row r="79" spans="15:37" ht="16" x14ac:dyDescent="0.2">
       <c r="O79" s="56" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P79" s="56" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Q79" s="56" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="R79" s="64" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="S79" s="56" t="s">
         <v>450</v>
       </c>
       <c r="T79" s="145" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="U79" s="134"/>
       <c r="V79" s="66" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="W79" s="66" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Y79" s="51" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Z79" s="143">
         <f>Z77-Z78</f>
@@ -35827,7 +36021,7 @@
     </row>
     <row r="80" spans="15:37" x14ac:dyDescent="0.15">
       <c r="P80" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q80" s="65">
         <v>43706.53</v>
@@ -35843,7 +36037,7 @@
       </c>
       <c r="U80" s="123"/>
       <c r="V80" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="W80">
         <v>0.3</v>
@@ -35851,10 +36045,10 @@
     </row>
     <row r="81" spans="15:23" x14ac:dyDescent="0.15">
       <c r="P81" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="V81" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="15:23" x14ac:dyDescent="0.15">
@@ -35878,7 +36072,7 @@
     </row>
     <row r="85" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O85" s="145" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="P85" s="141"/>
       <c r="Q85" s="141"/>
@@ -35902,12 +36096,12 @@
     </row>
     <row r="87" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O87" s="70" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P87" s="70"/>
       <c r="Q87" s="70"/>
       <c r="R87" s="70" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="S87" s="70"/>
       <c r="T87" s="70"/>
@@ -35917,13 +36111,13 @@
     </row>
     <row r="88" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O88" s="70" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="P88" s="65">
         <v>790515.27</v>
       </c>
       <c r="R88" s="70" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="S88" s="37">
         <f>S108/S99</f>
@@ -35932,13 +36126,13 @@
     </row>
     <row r="89" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O89" s="70" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="P89" s="65">
         <v>573091.1</v>
       </c>
       <c r="R89" s="70" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="S89" s="37">
         <f>S94/S103</f>
@@ -35949,13 +36143,13 @@
     </row>
     <row r="90" spans="15:23" ht="45" x14ac:dyDescent="0.15">
       <c r="O90" s="64" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="P90" s="65">
         <v>2384</v>
       </c>
       <c r="R90" s="84" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="S90">
         <f>(S94-S92-S93)/S103</f>
@@ -35965,13 +36159,13 @@
     </row>
     <row r="91" spans="15:23" ht="16" x14ac:dyDescent="0.2">
       <c r="O91" s="70" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="P91" s="79">
         <v>-34.5</v>
       </c>
       <c r="R91" s="70" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="S91" s="65">
         <v>8315</v>
@@ -35980,14 +36174,14 @@
     </row>
     <row r="92" spans="15:23" x14ac:dyDescent="0.15">
       <c r="O92" s="70" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="P92" s="65">
         <v>2693</v>
       </c>
       <c r="Q92" s="69"/>
       <c r="R92" s="70" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="S92" s="65">
         <v>177</v>
@@ -35996,13 +36190,13 @@
     </row>
     <row r="93" spans="15:23" ht="16" x14ac:dyDescent="0.2">
       <c r="O93" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P93" s="80">
         <v>-10.59</v>
       </c>
       <c r="R93" s="70" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="S93" s="65">
         <v>995</v>
@@ -36011,13 +36205,13 @@
     </row>
     <row r="94" spans="15:23" ht="16" x14ac:dyDescent="0.2">
       <c r="O94" s="66" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="P94" s="65">
         <v>136</v>
       </c>
       <c r="R94" s="70" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="S94" s="65">
         <v>10423</v>
@@ -36026,13 +36220,13 @@
     </row>
     <row r="95" spans="15:23" ht="16" x14ac:dyDescent="0.2">
       <c r="O95" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P95">
         <v>-28.04</v>
       </c>
       <c r="R95" s="70" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="S95" s="65">
         <v>12064</v>
@@ -36041,14 +36235,14 @@
     </row>
     <row r="96" spans="15:23" ht="16" x14ac:dyDescent="0.2">
       <c r="O96" s="81" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="P96" s="82">
         <f>P90/P89*100</f>
         <v>0.41598970914048394</v>
       </c>
       <c r="R96" s="70" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="S96" s="65">
         <v>5150</v>
@@ -36057,20 +36251,20 @@
     </row>
     <row r="97" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O97" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P97">
         <v>6.99</v>
       </c>
       <c r="R97" s="70" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="S97" s="65"/>
       <c r="W97" s="60"/>
     </row>
     <row r="98" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O98" s="81" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="P98" s="83">
         <f>(P90+P94)/P89*100</f>
@@ -36078,7 +36272,7 @@
       </c>
       <c r="Q98" s="83"/>
       <c r="R98" s="70" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="S98" s="65">
         <v>19620</v>
@@ -36087,7 +36281,7 @@
     </row>
     <row r="99" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O99" s="81" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P99" s="83">
         <f>P92/P89*100</f>
@@ -36095,7 +36289,7 @@
       </c>
       <c r="Q99" s="83"/>
       <c r="R99" s="70" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="S99" s="65">
         <f>S94+S98</f>
@@ -36105,14 +36299,14 @@
     </row>
     <row r="100" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O100" s="81" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="P100" s="82">
         <f>P90/P88*100</f>
         <v>0.30157545217311232</v>
       </c>
       <c r="R100" s="70" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="S100" s="65">
         <v>4499</v>
@@ -36121,14 +36315,14 @@
     </row>
     <row r="101" spans="15:24" ht="30" x14ac:dyDescent="0.2">
       <c r="O101" s="81" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="P101" s="82">
         <f>P92/P88*100</f>
         <v>0.34066388116702667</v>
       </c>
       <c r="R101" s="84" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="S101" s="65">
         <v>2268</v>
@@ -36137,14 +36331,14 @@
     </row>
     <row r="102" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O102" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P102" s="82">
         <f>(P101-0.296)/0.296*100</f>
         <v>15.089149042914421</v>
       </c>
       <c r="R102" s="70" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="S102" s="65">
         <v>599</v>
@@ -36153,14 +36347,14 @@
     </row>
     <row r="103" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O103" s="81" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P103" s="71">
         <v>52</v>
       </c>
       <c r="Q103" s="71"/>
       <c r="R103" s="70" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="S103" s="65">
         <v>9499</v>
@@ -36170,13 +36364,13 @@
     </row>
     <row r="104" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O104" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P104">
         <v>-1.89</v>
       </c>
       <c r="R104" s="70" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="S104" s="65">
         <v>4444</v>
@@ -36185,14 +36379,14 @@
     </row>
     <row r="105" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O105" s="81" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P105" s="71">
         <v>31</v>
       </c>
       <c r="Q105" s="71"/>
       <c r="R105" s="70" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="S105" s="65">
         <v>192</v>
@@ -36201,26 +36395,26 @@
     </row>
     <row r="106" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O106" s="81" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P106">
         <v>-34.5</v>
       </c>
       <c r="R106" s="70" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="X106" s="60"/>
     </row>
     <row r="107" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O107" s="81" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="P107" s="71">
         <v>32</v>
       </c>
       <c r="Q107" s="71"/>
       <c r="R107" s="70" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="S107" s="65">
         <v>5903</v>
@@ -36229,13 +36423,13 @@
     </row>
     <row r="108" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O108" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P108">
         <v>32</v>
       </c>
       <c r="R108" s="70" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="S108" s="65">
         <v>15402</v>
@@ -36244,7 +36438,7 @@
     </row>
     <row r="109" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O109" s="81" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="P109" s="71">
         <v>17</v>
@@ -36254,7 +36448,7 @@
     </row>
     <row r="110" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O110" s="66" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="P110">
         <v>-52.14</v>
@@ -36263,7 +36457,7 @@
     </row>
     <row r="111" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O111" s="81" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="P111" s="65">
         <v>-300</v>
@@ -36273,7 +36467,7 @@
     </row>
     <row r="112" spans="15:24" ht="16" x14ac:dyDescent="0.2">
       <c r="O112" s="81" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="P112" s="65">
         <v>-228</v>
@@ -36464,15 +36658,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -36490,7 +36684,7 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="134"/>
@@ -36509,7 +36703,7 @@
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="134"/>
@@ -36528,7 +36722,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="134"/>
@@ -36547,10 +36741,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
@@ -36568,7 +36762,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="123" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="123"/>
@@ -36583,46 +36777,46 @@
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="132" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="M8" s="135" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N8" s="134"/>
       <c r="O8" s="134"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H9" s="96">
         <v>2153079393.8699999</v>
@@ -36633,21 +36827,21 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="L9" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M9" s="90" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B10" s="96">
         <v>2153079393.8699999</v>
@@ -36671,7 +36865,7 @@
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="90" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="M10" s="96">
         <v>696951706.76999998</v>
@@ -36697,12 +36891,12 @@
         <v>0.47646857892472727</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="90" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H11" s="96">
         <v>1124850123.8800001</v>
@@ -36713,7 +36907,7 @@
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="90" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="M11" s="96">
         <v>207021505.75999999</v>
@@ -36728,7 +36922,7 @@
     </row>
     <row r="12" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B12" s="96">
         <v>1870142568.1400001</v>
@@ -36752,7 +36946,7 @@
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="90" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="M12" s="96">
         <v>509277160.19999999</v>
@@ -36778,12 +36972,12 @@
         <v>0.59083299588500371</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="90" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H13" s="96">
         <v>113484528.06999999</v>
@@ -36794,7 +36988,7 @@
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
       <c r="L13" s="90" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="M13" s="96">
         <v>739829021.13999999</v>
@@ -36809,7 +37003,7 @@
     </row>
     <row r="14" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B14" s="96">
         <v>500563277.38</v>
@@ -36846,10 +37040,10 @@
         <v>1.2181120971252215</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G15" s="90" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H15" s="96">
         <v>122654089.55</v>
@@ -36860,7 +37054,7 @@
     </row>
     <row r="16" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B16" s="96">
         <v>471027853.35000002</v>
@@ -36897,10 +37091,10 @@
         <v>0.94497199213385152</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G17" s="90" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H17" s="96">
         <v>137956029.94</v>
@@ -36911,7 +37105,7 @@
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B18" s="97">
         <v>0.52</v>
@@ -36948,10 +37142,10 @@
         <v>0.487179487179487</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G19" s="90" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H19" s="96">
         <v>21323153.02</v>
@@ -36962,7 +37156,7 @@
     </row>
     <row r="20" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B20" s="96">
         <v>484259397.14999998</v>
@@ -36999,10 +37193,10 @@
         <v>1.6974617538362438</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G21" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H21" s="96">
         <v>484259397.14999998</v>
@@ -37013,7 +37207,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B22" s="100">
         <v>196060046.15000001</v>
@@ -37041,7 +37235,7 @@
         <v>0.7515722131954401</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G23" s="90"/>
       <c r="H23" s="59"/>
@@ -37049,7 +37243,7 @@
     </row>
     <row r="24" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B24" s="96">
         <v>3652265870.54</v>
@@ -37082,10 +37276,10 @@
         <v>0.68965169775238222</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G25" s="90" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H25" s="96">
         <v>-233825998.30000001</v>
@@ -37096,7 +37290,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B26" s="96">
         <v>4805661836.5500002</v>
@@ -37129,10 +37323,10 @@
         <v>0.33112262336216786</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G27" s="90" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H27" s="96">
         <v>-267413197.13999999</v>
@@ -37143,7 +37337,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B28" s="98">
         <v>0.14580000000000001</v>
@@ -37160,7 +37354,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B29" s="88">
         <v>0.47760000000000002</v>
@@ -37177,7 +37371,7 @@
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B30" s="88">
         <v>0.23250000000000001</v>
@@ -37194,7 +37388,7 @@
     </row>
     <row r="31" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B31" s="94">
         <v>0.47</v>
@@ -37211,7 +37405,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B32" s="94">
         <v>1.34</v>
@@ -37228,7 +37422,7 @@
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G33" s="90" t="s">
         <v>238</v>
@@ -37271,7 +37465,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="132" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B41" s="132"/>
       <c r="C41" s="132"/>
@@ -37279,21 +37473,21 @@
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D42" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B43">
         <v>135.44999999999999</v>
@@ -37318,12 +37512,12 @@
         <v>-4.0819333922782142E-2</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B45">
         <v>164.74</v>
@@ -37348,12 +37542,12 @@
         <v>0.20968858131487897</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B47">
         <f>29998.49-20080</f>
@@ -37381,12 +37575,12 @@
         <v>-7.6935966801491746</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="90" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B49">
         <v>57064.89</v>
@@ -37411,12 +37605,12 @@
         <v>0.47149903986638936</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A51" s="90" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B51" s="37">
         <f>B12/B10</f>
@@ -37444,12 +37638,12 @@
         <v>7.7458077058141603E-2</v>
       </c>
       <c r="D52" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B53" s="37">
         <f>B20/B14</f>
@@ -37477,12 +37671,12 @@
         <v>0.21610704767008043</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B55" s="37">
         <f>B14/B22</f>
@@ -37510,7 +37704,7 @@
         <v>0.2663549241162374</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -37548,12 +37742,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="134"/>
@@ -37572,7 +37766,7 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="134"/>
@@ -37591,7 +37785,7 @@
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="134"/>
@@ -37609,7 +37803,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="134"/>
@@ -37627,7 +37821,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="123" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B6" s="123"/>
       <c r="C6" s="123"/>
@@ -37642,44 +37836,44 @@
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
       <c r="D7" s="132"/>
       <c r="F7" s="74"/>
       <c r="G7" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H7" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
       <c r="M7" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H8" s="87">
         <v>5722273431.3599997</v>
@@ -37690,21 +37884,21 @@
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="L8" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M8" s="90" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="N8" s="90" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O8" s="90" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B9" s="96">
         <v>3293174130.4000001</v>
@@ -37728,7 +37922,7 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="L9" s="90" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M9" s="59">
         <v>227230.16</v>
@@ -37753,12 +37947,12 @@
         <v>0.36510936909060127</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
       <c r="G10" s="90" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H10" s="59">
         <v>319094.33</v>
@@ -37769,7 +37963,7 @@
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="90" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="M10" s="59">
         <v>278752.48</v>
@@ -37783,7 +37977,7 @@
     </row>
     <row r="11" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B11" s="91">
         <v>6369061390.1599998</v>
@@ -37807,7 +38001,7 @@
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="90" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="M11" s="59">
         <v>63526.73</v>
@@ -37832,12 +38026,12 @@
         <v>0.12058344627016063</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="90" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H12" s="59">
         <v>52306.27</v>
@@ -37848,7 +38042,7 @@
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="90" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="M12" s="59">
         <v>1084.3599999999999</v>
@@ -37862,7 +38056,7 @@
     </row>
     <row r="13" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B13" s="96">
         <v>338849751.63999999</v>
@@ -37899,10 +38093,10 @@
         <v>3.1206288332356564</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H14" s="59">
         <v>27316.38</v>
@@ -37913,7 +38107,7 @@
     </row>
     <row r="15" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B15" s="96">
         <v>258886706.05000001</v>
@@ -37950,10 +38144,10 @@
         <v>4.7937718617640641</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G16" s="90" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H16" s="59">
         <v>11943.21</v>
@@ -37964,7 +38158,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B17" s="97">
         <v>0.38</v>
@@ -38001,10 +38195,10 @@
         <v>3.0714285714285707</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G18" s="90" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H18" s="59">
         <v>-4495.41</v>
@@ -38015,7 +38209,7 @@
     </row>
     <row r="19" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B19" s="96">
         <v>792632692.84000003</v>
@@ -38052,10 +38246,10 @@
         <v>2.6016419224126563</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G20" s="90" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H20" s="59">
         <v>-87937.22</v>
@@ -38066,7 +38260,7 @@
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B21" s="87">
         <f>6783.88*10000</f>
@@ -38097,7 +38291,7 @@
         <v>3.0952935380599008E-2</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G22" s="90"/>
       <c r="H22" s="59"/>
@@ -38105,7 +38299,7 @@
     </row>
     <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B23" s="87">
         <v>6631350694.0900002</v>
@@ -38138,10 +38332,10 @@
         <v>0.21287164112661186</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G24" s="90" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H24" s="59">
         <v>6783.88</v>
@@ -38152,7 +38346,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B25" s="96">
         <v>7001505629.2299995</v>
@@ -38185,10 +38379,10 @@
         <v>0.11289275898408399</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G26" s="90" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H26" s="59">
         <v>40489.449999999997</v>
@@ -38199,7 +38393,7 @@
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B27" s="98">
         <v>6.1899999999999997E-2</v>
@@ -38216,7 +38410,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B28" s="88">
         <v>0.44240000000000002</v>
@@ -38233,7 +38427,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B29" s="88">
         <v>0.2402</v>
@@ -38250,7 +38444,7 @@
     </row>
     <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B30" s="94">
         <v>0.47</v>
@@ -38267,7 +38461,7 @@
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B31" s="94">
         <v>1.28</v>
@@ -38284,7 +38478,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G32" s="90" t="s">
         <v>238</v>
@@ -38327,7 +38521,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="132" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B40" s="132"/>
       <c r="C40" s="132"/>
@@ -38335,21 +38529,21 @@
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C41" s="90" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D41" s="90" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B42">
         <v>28.74</v>
@@ -38374,12 +38568,12 @@
         <v>-0.15806945863125635</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B44">
         <v>212.35</v>
@@ -38404,12 +38598,12 @@
         <v>-5.6683963429701008E-2</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B46">
         <f>426337.41-69684</f>
@@ -38437,12 +38631,12 @@
         <v>0.32525625310416084</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B48">
         <v>209698.84</v>
@@ -38467,12 +38661,12 @@
         <v>0.34168733926287037</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B50" s="37">
         <f>B11/B9</f>
@@ -38500,12 +38694,12 @@
         <v>-0.17912551796735329</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A52" s="90" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B52" s="37">
         <f>B19/B13</f>
@@ -38533,12 +38727,12 @@
         <v>-0.12594847335848838</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B54" s="37">
         <f>B13/B21</f>
@@ -38566,7 +38760,7 @@
         <v>2.9969126541304578</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
